--- a/input_data/Molecular_data/SD2_Sequencing_metadata_formatted.xlsx
+++ b/input_data/Molecular_data/SD2_Sequencing_metadata_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mael_D\R_projects\Ponerinae_Historical_Biogeography\input_data\Molecular_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8883D0-8BF9-4A38-892D-43EA25034C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C348AD79-3C8E-428C-BAC9-B2FCE270DA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2925" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7970" uniqueCount="2674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8626" uniqueCount="3330">
   <si>
     <t>Extraction_code</t>
   </si>
@@ -8042,6 +8042,1974 @@
   </si>
   <si>
     <t>entire specimen</t>
+  </si>
+  <si>
+    <t>SAMN46185678</t>
+  </si>
+  <si>
+    <t>SAMN46185679</t>
+  </si>
+  <si>
+    <t>SAMN46185680</t>
+  </si>
+  <si>
+    <t>SAMN46185681</t>
+  </si>
+  <si>
+    <t>SAMN46185682</t>
+  </si>
+  <si>
+    <t>SAMN46185683</t>
+  </si>
+  <si>
+    <t>SAMN46185684</t>
+  </si>
+  <si>
+    <t>SAMN46185685</t>
+  </si>
+  <si>
+    <t>SAMN46185686</t>
+  </si>
+  <si>
+    <t>SAMN46185687</t>
+  </si>
+  <si>
+    <t>SAMN46185688</t>
+  </si>
+  <si>
+    <t>SAMN46185689</t>
+  </si>
+  <si>
+    <t>SAMN46185690</t>
+  </si>
+  <si>
+    <t>SAMN46185691</t>
+  </si>
+  <si>
+    <t>SAMN46185692</t>
+  </si>
+  <si>
+    <t>SAMN46185693</t>
+  </si>
+  <si>
+    <t>SAMN46185694</t>
+  </si>
+  <si>
+    <t>SAMN46185696</t>
+  </si>
+  <si>
+    <t>SAMN46185697</t>
+  </si>
+  <si>
+    <t>SAMN46185698</t>
+  </si>
+  <si>
+    <t>SAMN46185699</t>
+  </si>
+  <si>
+    <t>SAMN46185700</t>
+  </si>
+  <si>
+    <t>SAMN46185701</t>
+  </si>
+  <si>
+    <t>SAMN46185702</t>
+  </si>
+  <si>
+    <t>SAMN46185703</t>
+  </si>
+  <si>
+    <t>SAMN46185704</t>
+  </si>
+  <si>
+    <t>SAMN46185705</t>
+  </si>
+  <si>
+    <t>SAMN46185706</t>
+  </si>
+  <si>
+    <t>SAMN46185707</t>
+  </si>
+  <si>
+    <t>SAMN46185708</t>
+  </si>
+  <si>
+    <t>SAMN46185709</t>
+  </si>
+  <si>
+    <t>SAMN46185710</t>
+  </si>
+  <si>
+    <t>SAMN46185711</t>
+  </si>
+  <si>
+    <t>SAMN46185712</t>
+  </si>
+  <si>
+    <t>SAMN46185713</t>
+  </si>
+  <si>
+    <t>SAMN46185714</t>
+  </si>
+  <si>
+    <t>SAMN46185715</t>
+  </si>
+  <si>
+    <t>SAMN46185716</t>
+  </si>
+  <si>
+    <t>SAMN46185717</t>
+  </si>
+  <si>
+    <t>SAMN46185718</t>
+  </si>
+  <si>
+    <t>SAMN46185719</t>
+  </si>
+  <si>
+    <t>SAMN46185720</t>
+  </si>
+  <si>
+    <t>SAMN46185721</t>
+  </si>
+  <si>
+    <t>SAMN46185722</t>
+  </si>
+  <si>
+    <t>SAMN46185723</t>
+  </si>
+  <si>
+    <t>SAMN46185724</t>
+  </si>
+  <si>
+    <t>SAMN46185725</t>
+  </si>
+  <si>
+    <t>SAMN46185726</t>
+  </si>
+  <si>
+    <t>SAMN46185727</t>
+  </si>
+  <si>
+    <t>SAMN46185728</t>
+  </si>
+  <si>
+    <t>SAMN46185729</t>
+  </si>
+  <si>
+    <t>SAMN46185730</t>
+  </si>
+  <si>
+    <t>SAMN46185731</t>
+  </si>
+  <si>
+    <t>SAMN46185732</t>
+  </si>
+  <si>
+    <t>SAMN46185733</t>
+  </si>
+  <si>
+    <t>SAMN46185734</t>
+  </si>
+  <si>
+    <t>SAMN46185735</t>
+  </si>
+  <si>
+    <t>SAMN46185736</t>
+  </si>
+  <si>
+    <t>SAMN46185737</t>
+  </si>
+  <si>
+    <t>SAMN46185738</t>
+  </si>
+  <si>
+    <t>SAMN46185739</t>
+  </si>
+  <si>
+    <t>SAMN46185740</t>
+  </si>
+  <si>
+    <t>SAMN46185741</t>
+  </si>
+  <si>
+    <t>SAMN46185742</t>
+  </si>
+  <si>
+    <t>SAMN46185743</t>
+  </si>
+  <si>
+    <t>SAMN46185744</t>
+  </si>
+  <si>
+    <t>SAMN46185745</t>
+  </si>
+  <si>
+    <t>SAMN46185746</t>
+  </si>
+  <si>
+    <t>SAMN46185747</t>
+  </si>
+  <si>
+    <t>SAMN46185748</t>
+  </si>
+  <si>
+    <t>SAMN46185749</t>
+  </si>
+  <si>
+    <t>SAMN46185750</t>
+  </si>
+  <si>
+    <t>SAMN46185751</t>
+  </si>
+  <si>
+    <t>SAMN46185752</t>
+  </si>
+  <si>
+    <t>SAMN46185753</t>
+  </si>
+  <si>
+    <t>SAMN46185754</t>
+  </si>
+  <si>
+    <t>SAMN46185755</t>
+  </si>
+  <si>
+    <t>SAMN46185756</t>
+  </si>
+  <si>
+    <t>SAMN46185758</t>
+  </si>
+  <si>
+    <t>SAMN46185759</t>
+  </si>
+  <si>
+    <t>SAMN46185760</t>
+  </si>
+  <si>
+    <t>SAMN46185761</t>
+  </si>
+  <si>
+    <t>SAMN46185762</t>
+  </si>
+  <si>
+    <t>SAMN46185763</t>
+  </si>
+  <si>
+    <t>SAMN46185764</t>
+  </si>
+  <si>
+    <t>SAMN46185766</t>
+  </si>
+  <si>
+    <t>SAMN46185767</t>
+  </si>
+  <si>
+    <t>SAMN46185768</t>
+  </si>
+  <si>
+    <t>SAMN46185769</t>
+  </si>
+  <si>
+    <t>SAMN46185770</t>
+  </si>
+  <si>
+    <t>SAMN46185771</t>
+  </si>
+  <si>
+    <t>SAMN46185772</t>
+  </si>
+  <si>
+    <t>SAMN46185773</t>
+  </si>
+  <si>
+    <t>SAMN46185774</t>
+  </si>
+  <si>
+    <t>SAMN46185775</t>
+  </si>
+  <si>
+    <t>SAMN46185776</t>
+  </si>
+  <si>
+    <t>SAMN46185777</t>
+  </si>
+  <si>
+    <t>SAMN46185778</t>
+  </si>
+  <si>
+    <t>SAMN46185779</t>
+  </si>
+  <si>
+    <t>SAMN46185780</t>
+  </si>
+  <si>
+    <t>SAMN46185781</t>
+  </si>
+  <si>
+    <t>SAMN46185782</t>
+  </si>
+  <si>
+    <t>SAMN46185783</t>
+  </si>
+  <si>
+    <t>SAMN46185784</t>
+  </si>
+  <si>
+    <t>SAMN46185785</t>
+  </si>
+  <si>
+    <t>SAMN46185786</t>
+  </si>
+  <si>
+    <t>SAMN46185787</t>
+  </si>
+  <si>
+    <t>SAMN46185788</t>
+  </si>
+  <si>
+    <t>SAMN46185789</t>
+  </si>
+  <si>
+    <t>SAMN46185790</t>
+  </si>
+  <si>
+    <t>SAMN46185791</t>
+  </si>
+  <si>
+    <t>SAMN46185792</t>
+  </si>
+  <si>
+    <t>SAMN46185793</t>
+  </si>
+  <si>
+    <t>SAMN46185794</t>
+  </si>
+  <si>
+    <t>SAMN46185795</t>
+  </si>
+  <si>
+    <t>SAMN46185796</t>
+  </si>
+  <si>
+    <t>SAMN46185797</t>
+  </si>
+  <si>
+    <t>SAMN46185798</t>
+  </si>
+  <si>
+    <t>SAMN46185799</t>
+  </si>
+  <si>
+    <t>SAMN46185800</t>
+  </si>
+  <si>
+    <t>SAMN46185801</t>
+  </si>
+  <si>
+    <t>SAMN46185802</t>
+  </si>
+  <si>
+    <t>SAMN46185803</t>
+  </si>
+  <si>
+    <t>SAMN46185804</t>
+  </si>
+  <si>
+    <t>SAMN46185805</t>
+  </si>
+  <si>
+    <t>SAMN46185806</t>
+  </si>
+  <si>
+    <t>SAMN46185807</t>
+  </si>
+  <si>
+    <t>SAMN46185808</t>
+  </si>
+  <si>
+    <t>SAMN46185809</t>
+  </si>
+  <si>
+    <t>SAMN46185810</t>
+  </si>
+  <si>
+    <t>SAMN46185811</t>
+  </si>
+  <si>
+    <t>SAMN46185812</t>
+  </si>
+  <si>
+    <t>SAMN46185813</t>
+  </si>
+  <si>
+    <t>SAMN46185814</t>
+  </si>
+  <si>
+    <t>SAMN46185815</t>
+  </si>
+  <si>
+    <t>SAMN46185816</t>
+  </si>
+  <si>
+    <t>SAMN46185817</t>
+  </si>
+  <si>
+    <t>SAMN46185818</t>
+  </si>
+  <si>
+    <t>SAMN46185819</t>
+  </si>
+  <si>
+    <t>SAMN46185820</t>
+  </si>
+  <si>
+    <t>SAMN46185821</t>
+  </si>
+  <si>
+    <t>SAMN46185822</t>
+  </si>
+  <si>
+    <t>SAMN46185823</t>
+  </si>
+  <si>
+    <t>SAMN46185824</t>
+  </si>
+  <si>
+    <t>SAMN46185825</t>
+  </si>
+  <si>
+    <t>SAMN46185826</t>
+  </si>
+  <si>
+    <t>SAMN46185827</t>
+  </si>
+  <si>
+    <t>SAMN46185829</t>
+  </si>
+  <si>
+    <t>SAMN46185830</t>
+  </si>
+  <si>
+    <t>SAMN46185831</t>
+  </si>
+  <si>
+    <t>SAMN46185832</t>
+  </si>
+  <si>
+    <t>SAMN46185833</t>
+  </si>
+  <si>
+    <t>SAMN46185834</t>
+  </si>
+  <si>
+    <t>SAMN46185835</t>
+  </si>
+  <si>
+    <t>SAMN46185836</t>
+  </si>
+  <si>
+    <t>SAMN46185837</t>
+  </si>
+  <si>
+    <t>SAMN46185838</t>
+  </si>
+  <si>
+    <t>SAMN46185839</t>
+  </si>
+  <si>
+    <t>SAMN46185840</t>
+  </si>
+  <si>
+    <t>SAMN46185841</t>
+  </si>
+  <si>
+    <t>SAMN46185842</t>
+  </si>
+  <si>
+    <t>SAMN46185843</t>
+  </si>
+  <si>
+    <t>SAMN46185844</t>
+  </si>
+  <si>
+    <t>SAMN46185845</t>
+  </si>
+  <si>
+    <t>SAMN46185846</t>
+  </si>
+  <si>
+    <t>SAMN46185847</t>
+  </si>
+  <si>
+    <t>SAMN46185848</t>
+  </si>
+  <si>
+    <t>SAMN46185849</t>
+  </si>
+  <si>
+    <t>SAMN46185850</t>
+  </si>
+  <si>
+    <t>SAMN46185851</t>
+  </si>
+  <si>
+    <t>SAMN46185852</t>
+  </si>
+  <si>
+    <t>SAMN46185853</t>
+  </si>
+  <si>
+    <t>SAMN46185854</t>
+  </si>
+  <si>
+    <t>SAMN46185855</t>
+  </si>
+  <si>
+    <t>SAMN46185856</t>
+  </si>
+  <si>
+    <t>SAMN46185857</t>
+  </si>
+  <si>
+    <t>SAMN46185858</t>
+  </si>
+  <si>
+    <t>SAMN46185859</t>
+  </si>
+  <si>
+    <t>SAMN46185860</t>
+  </si>
+  <si>
+    <t>SAMN46185861</t>
+  </si>
+  <si>
+    <t>SAMN46185862</t>
+  </si>
+  <si>
+    <t>SAMN46185863</t>
+  </si>
+  <si>
+    <t>SAMN46185864</t>
+  </si>
+  <si>
+    <t>SAMN46185865</t>
+  </si>
+  <si>
+    <t>SAMN46185866</t>
+  </si>
+  <si>
+    <t>SAMN46185867</t>
+  </si>
+  <si>
+    <t>SAMN46185868</t>
+  </si>
+  <si>
+    <t>SAMN46185869</t>
+  </si>
+  <si>
+    <t>SAMN46185870</t>
+  </si>
+  <si>
+    <t>SAMN46185871</t>
+  </si>
+  <si>
+    <t>SAMN46185872</t>
+  </si>
+  <si>
+    <t>SAMN46185873</t>
+  </si>
+  <si>
+    <t>SAMN46185874</t>
+  </si>
+  <si>
+    <t>SAMN46185875</t>
+  </si>
+  <si>
+    <t>SAMN46185876</t>
+  </si>
+  <si>
+    <t>SAMN46185877</t>
+  </si>
+  <si>
+    <t>SAMN46185878</t>
+  </si>
+  <si>
+    <t>SAMN46185879</t>
+  </si>
+  <si>
+    <t>SAMN46185880</t>
+  </si>
+  <si>
+    <t>SAMN46185881</t>
+  </si>
+  <si>
+    <t>SAMN46185882</t>
+  </si>
+  <si>
+    <t>SAMN46185883</t>
+  </si>
+  <si>
+    <t>SAMN46185884</t>
+  </si>
+  <si>
+    <t>SAMN46185885</t>
+  </si>
+  <si>
+    <t>SAMN46185886</t>
+  </si>
+  <si>
+    <t>SAMN46185887</t>
+  </si>
+  <si>
+    <t>SAMN46185888</t>
+  </si>
+  <si>
+    <t>SAMN46185889</t>
+  </si>
+  <si>
+    <t>SAMN46185890</t>
+  </si>
+  <si>
+    <t>SAMN46185891</t>
+  </si>
+  <si>
+    <t>SAMN46185892</t>
+  </si>
+  <si>
+    <t>SAMN46185893</t>
+  </si>
+  <si>
+    <t>SAMN46185894</t>
+  </si>
+  <si>
+    <t>SAMN46185895</t>
+  </si>
+  <si>
+    <t>SAMN46185896</t>
+  </si>
+  <si>
+    <t>SAMN46185897</t>
+  </si>
+  <si>
+    <t>SAMN46185898</t>
+  </si>
+  <si>
+    <t>SAMN46185899</t>
+  </si>
+  <si>
+    <t>SAMN46185900</t>
+  </si>
+  <si>
+    <t>SAMN46185901</t>
+  </si>
+  <si>
+    <t>SAMN46185902</t>
+  </si>
+  <si>
+    <t>SAMN46185903</t>
+  </si>
+  <si>
+    <t>SAMN46185904</t>
+  </si>
+  <si>
+    <t>SAMN46185905</t>
+  </si>
+  <si>
+    <t>SAMN46185906</t>
+  </si>
+  <si>
+    <t>SAMN46185907</t>
+  </si>
+  <si>
+    <t>SAMN46185908</t>
+  </si>
+  <si>
+    <t>SAMN46185909</t>
+  </si>
+  <si>
+    <t>SAMN46185910</t>
+  </si>
+  <si>
+    <t>SAMN46185911</t>
+  </si>
+  <si>
+    <t>SAMN46185912</t>
+  </si>
+  <si>
+    <t>SAMN46185913</t>
+  </si>
+  <si>
+    <t>SAMN46185914</t>
+  </si>
+  <si>
+    <t>SAMN46185915</t>
+  </si>
+  <si>
+    <t>SAMN46185916</t>
+  </si>
+  <si>
+    <t>SAMN46185917</t>
+  </si>
+  <si>
+    <t>SAMN46185918</t>
+  </si>
+  <si>
+    <t>SAMN46185919</t>
+  </si>
+  <si>
+    <t>SAMN46185920</t>
+  </si>
+  <si>
+    <t>SAMN46185921</t>
+  </si>
+  <si>
+    <t>SAMN46185922</t>
+  </si>
+  <si>
+    <t>SAMN46185923</t>
+  </si>
+  <si>
+    <t>SAMN46185924</t>
+  </si>
+  <si>
+    <t>SAMN46185925</t>
+  </si>
+  <si>
+    <t>SAMN46185926</t>
+  </si>
+  <si>
+    <t>SAMN46185927</t>
+  </si>
+  <si>
+    <t>SAMN46185928</t>
+  </si>
+  <si>
+    <t>SAMN46185929</t>
+  </si>
+  <si>
+    <t>SAMN46185930</t>
+  </si>
+  <si>
+    <t>SAMN46185931</t>
+  </si>
+  <si>
+    <t>SAMN46185932</t>
+  </si>
+  <si>
+    <t>SAMN46185933</t>
+  </si>
+  <si>
+    <t>SAMN46185934</t>
+  </si>
+  <si>
+    <t>SAMN46185935</t>
+  </si>
+  <si>
+    <t>SAMN46185936</t>
+  </si>
+  <si>
+    <t>SAMN46185937</t>
+  </si>
+  <si>
+    <t>SAMN46185938</t>
+  </si>
+  <si>
+    <t>SAMN46185939</t>
+  </si>
+  <si>
+    <t>SAMN46185940</t>
+  </si>
+  <si>
+    <t>SAMN46185941</t>
+  </si>
+  <si>
+    <t>SAMN46185942</t>
+  </si>
+  <si>
+    <t>SAMN46185943</t>
+  </si>
+  <si>
+    <t>SAMN46185944</t>
+  </si>
+  <si>
+    <t>SAMN46185945</t>
+  </si>
+  <si>
+    <t>SAMN46185946</t>
+  </si>
+  <si>
+    <t>SAMN46185947</t>
+  </si>
+  <si>
+    <t>SAMN46185948</t>
+  </si>
+  <si>
+    <t>SAMN46185949</t>
+  </si>
+  <si>
+    <t>SAMN46185950</t>
+  </si>
+  <si>
+    <t>SAMN46185951</t>
+  </si>
+  <si>
+    <t>SAMN46185952</t>
+  </si>
+  <si>
+    <t>SAMN46185953</t>
+  </si>
+  <si>
+    <t>SAMN46185954</t>
+  </si>
+  <si>
+    <t>SAMN46185955</t>
+  </si>
+  <si>
+    <t>SAMN46185956</t>
+  </si>
+  <si>
+    <t>SAMN46185957</t>
+  </si>
+  <si>
+    <t>SAMN46185958</t>
+  </si>
+  <si>
+    <t>SAMN46185959</t>
+  </si>
+  <si>
+    <t>SAMN46185960</t>
+  </si>
+  <si>
+    <t>SAMN46185961</t>
+  </si>
+  <si>
+    <t>SAMN46185962</t>
+  </si>
+  <si>
+    <t>SAMN46185963</t>
+  </si>
+  <si>
+    <t>SAMN46185964</t>
+  </si>
+  <si>
+    <t>SAMN46185965</t>
+  </si>
+  <si>
+    <t>SAMN46185966</t>
+  </si>
+  <si>
+    <t>SAMN46185967</t>
+  </si>
+  <si>
+    <t>SAMN46185968</t>
+  </si>
+  <si>
+    <t>SAMN46185969</t>
+  </si>
+  <si>
+    <t>SAMN46185970</t>
+  </si>
+  <si>
+    <t>SAMN46185971</t>
+  </si>
+  <si>
+    <t>SAMN46185972</t>
+  </si>
+  <si>
+    <t>SAMN46185973</t>
+  </si>
+  <si>
+    <t>SAMN46185974</t>
+  </si>
+  <si>
+    <t>SAMN46185975</t>
+  </si>
+  <si>
+    <t>SAMN46185976</t>
+  </si>
+  <si>
+    <t>SAMN46185977</t>
+  </si>
+  <si>
+    <t>SAMN46185978</t>
+  </si>
+  <si>
+    <t>SAMN46185979</t>
+  </si>
+  <si>
+    <t>SAMN46185980</t>
+  </si>
+  <si>
+    <t>SAMN46185981</t>
+  </si>
+  <si>
+    <t>SAMN46185982</t>
+  </si>
+  <si>
+    <t>SAMN46185983</t>
+  </si>
+  <si>
+    <t>SAMN46185984</t>
+  </si>
+  <si>
+    <t>SAMN46185985</t>
+  </si>
+  <si>
+    <t>SAMN46185986</t>
+  </si>
+  <si>
+    <t>SAMN46185987</t>
+  </si>
+  <si>
+    <t>SAMN46185988</t>
+  </si>
+  <si>
+    <t>SAMN46185989</t>
+  </si>
+  <si>
+    <t>SAMN46185990</t>
+  </si>
+  <si>
+    <t>SAMN46185991</t>
+  </si>
+  <si>
+    <t>SAMN46185992</t>
+  </si>
+  <si>
+    <t>SAMN46185993</t>
+  </si>
+  <si>
+    <t>SAMN46185994</t>
+  </si>
+  <si>
+    <t>SAMN46185995</t>
+  </si>
+  <si>
+    <t>SAMN46185996</t>
+  </si>
+  <si>
+    <t>SAMN46185997</t>
+  </si>
+  <si>
+    <t>SAMN46185998</t>
+  </si>
+  <si>
+    <t>SAMN46185999</t>
+  </si>
+  <si>
+    <t>SAMN46186000</t>
+  </si>
+  <si>
+    <t>SAMN46186001</t>
+  </si>
+  <si>
+    <t>SAMN46186002</t>
+  </si>
+  <si>
+    <t>SAMN46186003</t>
+  </si>
+  <si>
+    <t>SAMN46186004</t>
+  </si>
+  <si>
+    <t>SAMN46186005</t>
+  </si>
+  <si>
+    <t>SAMN46186006</t>
+  </si>
+  <si>
+    <t>SAMN46186007</t>
+  </si>
+  <si>
+    <t>SAMN46186008</t>
+  </si>
+  <si>
+    <t>SAMN46186009</t>
+  </si>
+  <si>
+    <t>SAMN46186010</t>
+  </si>
+  <si>
+    <t>SAMN46186011</t>
+  </si>
+  <si>
+    <t>SAMN46186012</t>
+  </si>
+  <si>
+    <t>SAMN46186013</t>
+  </si>
+  <si>
+    <t>SAMN46186014</t>
+  </si>
+  <si>
+    <t>SAMN46186015</t>
+  </si>
+  <si>
+    <t>SAMN46186016</t>
+  </si>
+  <si>
+    <t>SAMN46186017</t>
+  </si>
+  <si>
+    <t>SAMN46186018</t>
+  </si>
+  <si>
+    <t>SAMN46186019</t>
+  </si>
+  <si>
+    <t>SAMN46186020</t>
+  </si>
+  <si>
+    <t>SAMN46186021</t>
+  </si>
+  <si>
+    <t>SAMN46186022</t>
+  </si>
+  <si>
+    <t>SAMN46186023</t>
+  </si>
+  <si>
+    <t>SAMN46186024</t>
+  </si>
+  <si>
+    <t>SAMN46186025</t>
+  </si>
+  <si>
+    <t>SAMN46186026</t>
+  </si>
+  <si>
+    <t>SAMN46186027</t>
+  </si>
+  <si>
+    <t>SAMN46186028</t>
+  </si>
+  <si>
+    <t>SAMN46186029</t>
+  </si>
+  <si>
+    <t>SAMN46186030</t>
+  </si>
+  <si>
+    <t>SAMN46186031</t>
+  </si>
+  <si>
+    <t>SAMN46186032</t>
+  </si>
+  <si>
+    <t>SAMN46186033</t>
+  </si>
+  <si>
+    <t>SAMN46186034</t>
+  </si>
+  <si>
+    <t>SAMN46186035</t>
+  </si>
+  <si>
+    <t>SAMN46186036</t>
+  </si>
+  <si>
+    <t>SAMN46186037</t>
+  </si>
+  <si>
+    <t>SAMN46186038</t>
+  </si>
+  <si>
+    <t>SAMN46186039</t>
+  </si>
+  <si>
+    <t>SAMN46186040</t>
+  </si>
+  <si>
+    <t>SAMN46186041</t>
+  </si>
+  <si>
+    <t>SAMN46186042</t>
+  </si>
+  <si>
+    <t>SAMN46186043</t>
+  </si>
+  <si>
+    <t>SAMN46186044</t>
+  </si>
+  <si>
+    <t>SAMN46186045</t>
+  </si>
+  <si>
+    <t>SAMN46186046</t>
+  </si>
+  <si>
+    <t>SAMN46186047</t>
+  </si>
+  <si>
+    <t>SAMN46186048</t>
+  </si>
+  <si>
+    <t>SAMN46186049</t>
+  </si>
+  <si>
+    <t>SAMN46186050</t>
+  </si>
+  <si>
+    <t>SAMN46186051</t>
+  </si>
+  <si>
+    <t>SAMN46186052</t>
+  </si>
+  <si>
+    <t>SAMN46186053</t>
+  </si>
+  <si>
+    <t>SAMN46186054</t>
+  </si>
+  <si>
+    <t>SAMN46186055</t>
+  </si>
+  <si>
+    <t>SAMN46186056</t>
+  </si>
+  <si>
+    <t>SAMN46186057</t>
+  </si>
+  <si>
+    <t>SAMN46186058</t>
+  </si>
+  <si>
+    <t>SAMN46186059</t>
+  </si>
+  <si>
+    <t>SAMN46186060</t>
+  </si>
+  <si>
+    <t>SAMN46186061</t>
+  </si>
+  <si>
+    <t>SAMN46186062</t>
+  </si>
+  <si>
+    <t>SAMN46186063</t>
+  </si>
+  <si>
+    <t>SAMN46186064</t>
+  </si>
+  <si>
+    <t>SAMN46186065</t>
+  </si>
+  <si>
+    <t>SAMN46186066</t>
+  </si>
+  <si>
+    <t>SAMN46186067</t>
+  </si>
+  <si>
+    <t>SAMN46186068</t>
+  </si>
+  <si>
+    <t>SAMN46186069</t>
+  </si>
+  <si>
+    <t>SAMN46186070</t>
+  </si>
+  <si>
+    <t>SAMN46186071</t>
+  </si>
+  <si>
+    <t>SAMN46186072</t>
+  </si>
+  <si>
+    <t>SAMN46186073</t>
+  </si>
+  <si>
+    <t>SAMN46186074</t>
+  </si>
+  <si>
+    <t>SAMN46186075</t>
+  </si>
+  <si>
+    <t>SAMN46186076</t>
+  </si>
+  <si>
+    <t>SAMN46186077</t>
+  </si>
+  <si>
+    <t>SAMN46186078</t>
+  </si>
+  <si>
+    <t>SAMN46186079</t>
+  </si>
+  <si>
+    <t>SAMN46186080</t>
+  </si>
+  <si>
+    <t>SAMN46186081</t>
+  </si>
+  <si>
+    <t>SAMN46186082</t>
+  </si>
+  <si>
+    <t>SAMN46186083</t>
+  </si>
+  <si>
+    <t>SAMN46186084</t>
+  </si>
+  <si>
+    <t>SAMN46186085</t>
+  </si>
+  <si>
+    <t>SAMN46186086</t>
+  </si>
+  <si>
+    <t>SAMN46186087</t>
+  </si>
+  <si>
+    <t>SAMN46186088</t>
+  </si>
+  <si>
+    <t>SAMN46186089</t>
+  </si>
+  <si>
+    <t>SAMN46186090</t>
+  </si>
+  <si>
+    <t>SAMN46186091</t>
+  </si>
+  <si>
+    <t>SAMN46186092</t>
+  </si>
+  <si>
+    <t>SAMN46186093</t>
+  </si>
+  <si>
+    <t>SAMN46186094</t>
+  </si>
+  <si>
+    <t>SAMN46186095</t>
+  </si>
+  <si>
+    <t>SAMN46186096</t>
+  </si>
+  <si>
+    <t>SAMN46186097</t>
+  </si>
+  <si>
+    <t>SAMN46186098</t>
+  </si>
+  <si>
+    <t>SAMN46186099</t>
+  </si>
+  <si>
+    <t>SAMN46186100</t>
+  </si>
+  <si>
+    <t>SAMN46186101</t>
+  </si>
+  <si>
+    <t>SAMN46186102</t>
+  </si>
+  <si>
+    <t>SAMN46186103</t>
+  </si>
+  <si>
+    <t>SAMN46186104</t>
+  </si>
+  <si>
+    <t>SAMN46186105</t>
+  </si>
+  <si>
+    <t>SAMN46186106</t>
+  </si>
+  <si>
+    <t>SAMN46186107</t>
+  </si>
+  <si>
+    <t>SAMN46186108</t>
+  </si>
+  <si>
+    <t>SAMN46186109</t>
+  </si>
+  <si>
+    <t>SAMN46186110</t>
+  </si>
+  <si>
+    <t>SAMN46186111</t>
+  </si>
+  <si>
+    <t>SAMN46186112</t>
+  </si>
+  <si>
+    <t>SAMN46186113</t>
+  </si>
+  <si>
+    <t>SAMN46186114</t>
+  </si>
+  <si>
+    <t>SAMN46186115</t>
+  </si>
+  <si>
+    <t>SAMN46186116</t>
+  </si>
+  <si>
+    <t>SAMN46186117</t>
+  </si>
+  <si>
+    <t>SAMN46186118</t>
+  </si>
+  <si>
+    <t>SAMN46186119</t>
+  </si>
+  <si>
+    <t>SAMN46186120</t>
+  </si>
+  <si>
+    <t>SAMN46186121</t>
+  </si>
+  <si>
+    <t>SAMN46186122</t>
+  </si>
+  <si>
+    <t>SAMN46186123</t>
+  </si>
+  <si>
+    <t>SAMN46186124</t>
+  </si>
+  <si>
+    <t>SAMN46186125</t>
+  </si>
+  <si>
+    <t>SAMN46186126</t>
+  </si>
+  <si>
+    <t>SAMN46186127</t>
+  </si>
+  <si>
+    <t>SAMN46186128</t>
+  </si>
+  <si>
+    <t>SAMN46186129</t>
+  </si>
+  <si>
+    <t>SAMN46186130</t>
+  </si>
+  <si>
+    <t>SAMN46186131</t>
+  </si>
+  <si>
+    <t>SAMN46186132</t>
+  </si>
+  <si>
+    <t>SAMN46186133</t>
+  </si>
+  <si>
+    <t>SAMN46186134</t>
+  </si>
+  <si>
+    <t>SAMN46186135</t>
+  </si>
+  <si>
+    <t>SAMN46186136</t>
+  </si>
+  <si>
+    <t>SAMN46186137</t>
+  </si>
+  <si>
+    <t>SAMN46186138</t>
+  </si>
+  <si>
+    <t>SAMN46186139</t>
+  </si>
+  <si>
+    <t>SAMN46186140</t>
+  </si>
+  <si>
+    <t>SAMN46186141</t>
+  </si>
+  <si>
+    <t>SAMN46186142</t>
+  </si>
+  <si>
+    <t>SAMN46186143</t>
+  </si>
+  <si>
+    <t>SAMN46186144</t>
+  </si>
+  <si>
+    <t>SAMN46186145</t>
+  </si>
+  <si>
+    <t>SAMN46186146</t>
+  </si>
+  <si>
+    <t>SAMN46186147</t>
+  </si>
+  <si>
+    <t>SAMN46186148</t>
+  </si>
+  <si>
+    <t>SAMN46186149</t>
+  </si>
+  <si>
+    <t>SAMN46186150</t>
+  </si>
+  <si>
+    <t>SAMN46186151</t>
+  </si>
+  <si>
+    <t>SAMN46186152</t>
+  </si>
+  <si>
+    <t>SAMN46186153</t>
+  </si>
+  <si>
+    <t>SAMN46186154</t>
+  </si>
+  <si>
+    <t>SAMN46186155</t>
+  </si>
+  <si>
+    <t>SAMN46186156</t>
+  </si>
+  <si>
+    <t>SAMN46186157</t>
+  </si>
+  <si>
+    <t>SAMN46186158</t>
+  </si>
+  <si>
+    <t>SAMN46186159</t>
+  </si>
+  <si>
+    <t>SAMN46186160</t>
+  </si>
+  <si>
+    <t>SAMN46186161</t>
+  </si>
+  <si>
+    <t>SAMN46186162</t>
+  </si>
+  <si>
+    <t>SAMN46186163</t>
+  </si>
+  <si>
+    <t>SAMN46186164</t>
+  </si>
+  <si>
+    <t>SAMN46186165</t>
+  </si>
+  <si>
+    <t>SAMN46186166</t>
+  </si>
+  <si>
+    <t>SAMN46186167</t>
+  </si>
+  <si>
+    <t>SAMN46186168</t>
+  </si>
+  <si>
+    <t>SAMN46186169</t>
+  </si>
+  <si>
+    <t>SAMN46186170</t>
+  </si>
+  <si>
+    <t>SAMN46186171</t>
+  </si>
+  <si>
+    <t>SAMN46186172</t>
+  </si>
+  <si>
+    <t>SAMN46186173</t>
+  </si>
+  <si>
+    <t>SAMN46186174</t>
+  </si>
+  <si>
+    <t>SAMN46186175</t>
+  </si>
+  <si>
+    <t>SAMN46186176</t>
+  </si>
+  <si>
+    <t>SAMN46186177</t>
+  </si>
+  <si>
+    <t>SAMN46186178</t>
+  </si>
+  <si>
+    <t>SAMN46186179</t>
+  </si>
+  <si>
+    <t>SAMN46186180</t>
+  </si>
+  <si>
+    <t>SAMN46186181</t>
+  </si>
+  <si>
+    <t>SAMN46186182</t>
+  </si>
+  <si>
+    <t>SAMN46186183</t>
+  </si>
+  <si>
+    <t>SAMN46186184</t>
+  </si>
+  <si>
+    <t>SAMN46186185</t>
+  </si>
+  <si>
+    <t>SAMN46186186</t>
+  </si>
+  <si>
+    <t>SAMN46186187</t>
+  </si>
+  <si>
+    <t>SAMN46186188</t>
+  </si>
+  <si>
+    <t>SAMN46186189</t>
+  </si>
+  <si>
+    <t>SAMN46186190</t>
+  </si>
+  <si>
+    <t>SAMN46186191</t>
+  </si>
+  <si>
+    <t>SAMN46186192</t>
+  </si>
+  <si>
+    <t>SAMN46186193</t>
+  </si>
+  <si>
+    <t>SAMN46186194</t>
+  </si>
+  <si>
+    <t>SAMN46186195</t>
+  </si>
+  <si>
+    <t>SAMN46186196</t>
+  </si>
+  <si>
+    <t>SAMN46186197</t>
+  </si>
+  <si>
+    <t>SAMN46186198</t>
+  </si>
+  <si>
+    <t>SAMN46186199</t>
+  </si>
+  <si>
+    <t>SAMN46186200</t>
+  </si>
+  <si>
+    <t>SAMN46186201</t>
+  </si>
+  <si>
+    <t>SAMN46186202</t>
+  </si>
+  <si>
+    <t>SAMN46186203</t>
+  </si>
+  <si>
+    <t>SAMN46186204</t>
+  </si>
+  <si>
+    <t>SAMN46186205</t>
+  </si>
+  <si>
+    <t>SAMN46186206</t>
+  </si>
+  <si>
+    <t>SAMN46186208</t>
+  </si>
+  <si>
+    <t>SAMN46186209</t>
+  </si>
+  <si>
+    <t>SAMN46186210</t>
+  </si>
+  <si>
+    <t>SAMN46186211</t>
+  </si>
+  <si>
+    <t>SAMN46186212</t>
+  </si>
+  <si>
+    <t>SAMN46186213</t>
+  </si>
+  <si>
+    <t>SAMN46186214</t>
+  </si>
+  <si>
+    <t>SAMN46186215</t>
+  </si>
+  <si>
+    <t>SAMN46186216</t>
+  </si>
+  <si>
+    <t>SAMN46186217</t>
+  </si>
+  <si>
+    <t>SAMN46186218</t>
+  </si>
+  <si>
+    <t>SAMN46186219</t>
+  </si>
+  <si>
+    <t>SAMN46186220</t>
+  </si>
+  <si>
+    <t>SAMN46186221</t>
+  </si>
+  <si>
+    <t>SAMN46186222</t>
+  </si>
+  <si>
+    <t>SAMN46186223</t>
+  </si>
+  <si>
+    <t>SAMN46186224</t>
+  </si>
+  <si>
+    <t>SAMN46186225</t>
+  </si>
+  <si>
+    <t>SAMN46186226</t>
+  </si>
+  <si>
+    <t>SAMN46186227</t>
+  </si>
+  <si>
+    <t>SAMN46186228</t>
+  </si>
+  <si>
+    <t>SAMN46186229</t>
+  </si>
+  <si>
+    <t>SAMN46186230</t>
+  </si>
+  <si>
+    <t>SAMN46186231</t>
+  </si>
+  <si>
+    <t>SAMN46186232</t>
+  </si>
+  <si>
+    <t>SAMN46186234</t>
+  </si>
+  <si>
+    <t>SAMN46186235</t>
+  </si>
+  <si>
+    <t>SAMN46186236</t>
+  </si>
+  <si>
+    <t>SAMN46186237</t>
+  </si>
+  <si>
+    <t>SAMN46186238</t>
+  </si>
+  <si>
+    <t>SAMN46186239</t>
+  </si>
+  <si>
+    <t>SAMN46186240</t>
+  </si>
+  <si>
+    <t>SAMN46186241</t>
+  </si>
+  <si>
+    <t>SAMN46186242</t>
+  </si>
+  <si>
+    <t>SAMN46186243</t>
+  </si>
+  <si>
+    <t>SAMN46186244</t>
+  </si>
+  <si>
+    <t>SAMN46186245</t>
+  </si>
+  <si>
+    <t>SAMN46186246</t>
+  </si>
+  <si>
+    <t>SAMN46186247</t>
+  </si>
+  <si>
+    <t>SAMN46186248</t>
+  </si>
+  <si>
+    <t>SAMN46186249</t>
+  </si>
+  <si>
+    <t>SAMN46186250</t>
+  </si>
+  <si>
+    <t>SAMN46186251</t>
+  </si>
+  <si>
+    <t>SAMN46186252</t>
+  </si>
+  <si>
+    <t>SAMN46186253</t>
+  </si>
+  <si>
+    <t>SAMN46186254</t>
+  </si>
+  <si>
+    <t>SAMN46186255</t>
+  </si>
+  <si>
+    <t>SAMN46186256</t>
+  </si>
+  <si>
+    <t>SAMN46186257</t>
+  </si>
+  <si>
+    <t>SAMN46186258</t>
+  </si>
+  <si>
+    <t>SAMN46186259</t>
+  </si>
+  <si>
+    <t>SAMN46186260</t>
+  </si>
+  <si>
+    <t>SAMN46186261</t>
+  </si>
+  <si>
+    <t>SAMN46186263</t>
+  </si>
+  <si>
+    <t>SAMN46186264</t>
+  </si>
+  <si>
+    <t>SAMN46186265</t>
+  </si>
+  <si>
+    <t>SAMN46186266</t>
+  </si>
+  <si>
+    <t>SAMN46186267</t>
+  </si>
+  <si>
+    <t>SAMN46186268</t>
+  </si>
+  <si>
+    <t>SAMN46186269</t>
+  </si>
+  <si>
+    <t>SAMN46186270</t>
+  </si>
+  <si>
+    <t>SAMN46186271</t>
+  </si>
+  <si>
+    <t>SAMN46186272</t>
+  </si>
+  <si>
+    <t>SAMN46186273</t>
+  </si>
+  <si>
+    <t>SAMN46186274</t>
+  </si>
+  <si>
+    <t>SAMN46186275</t>
+  </si>
+  <si>
+    <t>SAMN46186276</t>
+  </si>
+  <si>
+    <t>SAMN46186277</t>
+  </si>
+  <si>
+    <t>SAMN46186278</t>
+  </si>
+  <si>
+    <t>SAMN46186279</t>
+  </si>
+  <si>
+    <t>SAMN46186280</t>
+  </si>
+  <si>
+    <t>SAMN46186281</t>
+  </si>
+  <si>
+    <t>SAMN46186282</t>
+  </si>
+  <si>
+    <t>SAMN46186283</t>
+  </si>
+  <si>
+    <t>SAMN46186284</t>
+  </si>
+  <si>
+    <t>SAMN46186285</t>
+  </si>
+  <si>
+    <t>SAMN46186286</t>
+  </si>
+  <si>
+    <t>SAMN46186287</t>
+  </si>
+  <si>
+    <t>SAMN46186288</t>
+  </si>
+  <si>
+    <t>SAMN46186289</t>
+  </si>
+  <si>
+    <t>SAMN46186290</t>
+  </si>
+  <si>
+    <t>SAMN46186291</t>
+  </si>
+  <si>
+    <t>SAMN46186292</t>
+  </si>
+  <si>
+    <t>SAMN46186293</t>
+  </si>
+  <si>
+    <t>SAMN46186294</t>
+  </si>
+  <si>
+    <t>SAMN46186295</t>
+  </si>
+  <si>
+    <t>SAMN46186296</t>
+  </si>
+  <si>
+    <t>SAMN46186297</t>
+  </si>
+  <si>
+    <t>SAMN46186298</t>
+  </si>
+  <si>
+    <t>SAMN46186299</t>
+  </si>
+  <si>
+    <t>SAMN46186300</t>
+  </si>
+  <si>
+    <t>SAMN46186301</t>
+  </si>
+  <si>
+    <t>SAMN46186302</t>
+  </si>
+  <si>
+    <t>SAMN46186304</t>
+  </si>
+  <si>
+    <t>SAMN46186303</t>
+  </si>
+  <si>
+    <t>SAMN46186305</t>
+  </si>
+  <si>
+    <t>SAMN46186306</t>
+  </si>
+  <si>
+    <t>SAMN46186307</t>
+  </si>
+  <si>
+    <t>SAMN46186308</t>
+  </si>
+  <si>
+    <t>SAMN46186309</t>
+  </si>
+  <si>
+    <t>SAMN46186310</t>
+  </si>
+  <si>
+    <t>SAMN46186311</t>
+  </si>
+  <si>
+    <t>SAMN46186312</t>
+  </si>
+  <si>
+    <t>SAMN46186313</t>
+  </si>
+  <si>
+    <t>SAMN46186314</t>
+  </si>
+  <si>
+    <t>SAMN46186315</t>
+  </si>
+  <si>
+    <t>SAMN46186316</t>
+  </si>
+  <si>
+    <t>SAMN46186317</t>
+  </si>
+  <si>
+    <t>SAMN46186318</t>
+  </si>
+  <si>
+    <t>SAMN46186319</t>
+  </si>
+  <si>
+    <t>SAMN46186320</t>
+  </si>
+  <si>
+    <t>SAMN46186321</t>
+  </si>
+  <si>
+    <t>SAMN46186322</t>
+  </si>
+  <si>
+    <t>SAMN46186323</t>
+  </si>
+  <si>
+    <t>SAMN46186324</t>
+  </si>
+  <si>
+    <t>SAMN46186325</t>
+  </si>
+  <si>
+    <t>SAMN46186326</t>
+  </si>
+  <si>
+    <t>SAMN46186327</t>
+  </si>
+  <si>
+    <t>SAMN46186328</t>
+  </si>
+  <si>
+    <t>SAMN46186329</t>
+  </si>
+  <si>
+    <t>SAMN46186330</t>
+  </si>
+  <si>
+    <t>SAMN46186331</t>
+  </si>
+  <si>
+    <t>SAMN46186332</t>
+  </si>
+  <si>
+    <t>SAMN46186333</t>
+  </si>
+  <si>
+    <t>SAMN46186334</t>
+  </si>
+  <si>
+    <t>SAMN46186335</t>
+  </si>
+  <si>
+    <t>SAMN46186336</t>
+  </si>
+  <si>
+    <t>SAMN46186337</t>
+  </si>
+  <si>
+    <t>SAMN46186338</t>
+  </si>
+  <si>
+    <t>SAMN46186339</t>
+  </si>
+  <si>
+    <t>SAMN46186340</t>
   </si>
 </sst>
 </file>
@@ -8423,8 +10391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="B654" workbookViewId="0">
+      <selection activeCell="N776" sqref="N776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8575,6 +10543,9 @@
       <c r="K2" t="s">
         <v>29</v>
       </c>
+      <c r="L2" t="s">
+        <v>2674</v>
+      </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
@@ -8632,6 +10603,9 @@
       <c r="K3" t="s">
         <v>29</v>
       </c>
+      <c r="L3" t="s">
+        <v>2675</v>
+      </c>
       <c r="O3" t="s">
         <v>30</v>
       </c>
@@ -8689,6 +10663,9 @@
       <c r="K4" t="s">
         <v>29</v>
       </c>
+      <c r="L4" t="s">
+        <v>2676</v>
+      </c>
       <c r="O4" t="s">
         <v>30</v>
       </c>
@@ -8746,6 +10723,9 @@
       <c r="K5" t="s">
         <v>29</v>
       </c>
+      <c r="L5" t="s">
+        <v>2677</v>
+      </c>
       <c r="O5" t="s">
         <v>30</v>
       </c>
@@ -8805,6 +10785,9 @@
       <c r="K6" t="s">
         <v>29</v>
       </c>
+      <c r="L6" t="s">
+        <v>2678</v>
+      </c>
       <c r="O6" t="s">
         <v>30</v>
       </c>
@@ -8864,6 +10847,9 @@
       <c r="K7" t="s">
         <v>29</v>
       </c>
+      <c r="L7" t="s">
+        <v>2679</v>
+      </c>
       <c r="O7" t="s">
         <v>30</v>
       </c>
@@ -8923,6 +10909,9 @@
       <c r="K8" t="s">
         <v>29</v>
       </c>
+      <c r="L8" t="s">
+        <v>2680</v>
+      </c>
       <c r="O8" t="s">
         <v>30</v>
       </c>
@@ -8980,6 +10969,9 @@
       <c r="K9" t="s">
         <v>29</v>
       </c>
+      <c r="L9" t="s">
+        <v>2681</v>
+      </c>
       <c r="O9" t="s">
         <v>30</v>
       </c>
@@ -9037,6 +11029,9 @@
       <c r="K10" t="s">
         <v>29</v>
       </c>
+      <c r="L10" t="s">
+        <v>2682</v>
+      </c>
       <c r="O10" t="s">
         <v>30</v>
       </c>
@@ -9093,6 +11088,9 @@
       </c>
       <c r="K11" t="s">
         <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2683</v>
       </c>
       <c r="O11" t="s">
         <v>30</v>
@@ -9203,6 +11201,9 @@
       <c r="K13" t="s">
         <v>29</v>
       </c>
+      <c r="L13" t="s">
+        <v>2684</v>
+      </c>
       <c r="O13" t="s">
         <v>30</v>
       </c>
@@ -9260,6 +11261,9 @@
       <c r="K14" t="s">
         <v>29</v>
       </c>
+      <c r="L14" t="s">
+        <v>2685</v>
+      </c>
       <c r="O14" t="s">
         <v>30</v>
       </c>
@@ -9317,6 +11321,9 @@
       <c r="K15" t="s">
         <v>29</v>
       </c>
+      <c r="L15" t="s">
+        <v>2686</v>
+      </c>
       <c r="O15" t="s">
         <v>30</v>
       </c>
@@ -9374,6 +11381,9 @@
       <c r="K16" t="s">
         <v>29</v>
       </c>
+      <c r="L16" t="s">
+        <v>2687</v>
+      </c>
       <c r="O16" t="s">
         <v>30</v>
       </c>
@@ -9431,6 +11441,9 @@
       <c r="K17" t="s">
         <v>29</v>
       </c>
+      <c r="L17" t="s">
+        <v>2688</v>
+      </c>
       <c r="O17" t="s">
         <v>30</v>
       </c>
@@ -9488,6 +11501,9 @@
       <c r="K18" t="s">
         <v>29</v>
       </c>
+      <c r="L18" t="s">
+        <v>2689</v>
+      </c>
       <c r="O18" t="s">
         <v>30</v>
       </c>
@@ -9544,6 +11560,9 @@
       </c>
       <c r="K19" t="s">
         <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2690</v>
       </c>
       <c r="O19" t="s">
         <v>30</v>
@@ -9653,6 +11672,9 @@
       </c>
       <c r="K21" t="s">
         <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>2691</v>
       </c>
       <c r="O21" t="s">
         <v>30</v>
@@ -9763,6 +11785,9 @@
       <c r="K23" t="s">
         <v>29</v>
       </c>
+      <c r="L23" t="s">
+        <v>2692</v>
+      </c>
       <c r="O23" t="s">
         <v>30</v>
       </c>
@@ -9820,6 +11845,9 @@
       <c r="K24" t="s">
         <v>29</v>
       </c>
+      <c r="L24" t="s">
+        <v>2693</v>
+      </c>
       <c r="O24" t="s">
         <v>30</v>
       </c>
@@ -9877,6 +11905,9 @@
       <c r="K25" t="s">
         <v>29</v>
       </c>
+      <c r="L25" t="s">
+        <v>2694</v>
+      </c>
       <c r="O25" t="s">
         <v>30</v>
       </c>
@@ -9934,6 +11965,9 @@
       <c r="K26" t="s">
         <v>29</v>
       </c>
+      <c r="L26" t="s">
+        <v>2695</v>
+      </c>
       <c r="O26" t="s">
         <v>30</v>
       </c>
@@ -9991,6 +12025,9 @@
       <c r="K27" t="s">
         <v>29</v>
       </c>
+      <c r="L27" t="s">
+        <v>2696</v>
+      </c>
       <c r="O27" t="s">
         <v>30</v>
       </c>
@@ -10050,6 +12087,9 @@
       <c r="K28" t="s">
         <v>29</v>
       </c>
+      <c r="L28" t="s">
+        <v>2697</v>
+      </c>
       <c r="O28" t="s">
         <v>30</v>
       </c>
@@ -10107,6 +12147,9 @@
       <c r="K29" t="s">
         <v>29</v>
       </c>
+      <c r="L29" t="s">
+        <v>2698</v>
+      </c>
       <c r="O29" t="s">
         <v>30</v>
       </c>
@@ -10166,6 +12209,9 @@
       <c r="K30" t="s">
         <v>29</v>
       </c>
+      <c r="L30" t="s">
+        <v>2699</v>
+      </c>
       <c r="O30" t="s">
         <v>30</v>
       </c>
@@ -10224,6 +12270,9 @@
       </c>
       <c r="K31" t="s">
         <v>29</v>
+      </c>
+      <c r="L31" t="s">
+        <v>2700</v>
       </c>
       <c r="O31" t="s">
         <v>30</v>
@@ -10336,6 +12385,9 @@
       <c r="K33" t="s">
         <v>29</v>
       </c>
+      <c r="L33" t="s">
+        <v>2701</v>
+      </c>
       <c r="O33" t="s">
         <v>30</v>
       </c>
@@ -10395,6 +12447,9 @@
       <c r="K34" t="s">
         <v>29</v>
       </c>
+      <c r="L34" t="s">
+        <v>2702</v>
+      </c>
       <c r="O34" t="s">
         <v>30</v>
       </c>
@@ -10452,6 +12507,9 @@
       <c r="K35" t="s">
         <v>29</v>
       </c>
+      <c r="L35" t="s">
+        <v>2703</v>
+      </c>
       <c r="O35" t="s">
         <v>30</v>
       </c>
@@ -10509,6 +12567,9 @@
       <c r="K36" t="s">
         <v>29</v>
       </c>
+      <c r="L36" t="s">
+        <v>2704</v>
+      </c>
       <c r="O36" t="s">
         <v>30</v>
       </c>
@@ -10566,6 +12627,9 @@
       <c r="K37" t="s">
         <v>29</v>
       </c>
+      <c r="L37" t="s">
+        <v>2705</v>
+      </c>
       <c r="O37" t="s">
         <v>30</v>
       </c>
@@ -10623,6 +12687,9 @@
       <c r="K38" t="s">
         <v>29</v>
       </c>
+      <c r="L38" t="s">
+        <v>2706</v>
+      </c>
       <c r="O38" t="s">
         <v>30</v>
       </c>
@@ -10680,6 +12747,9 @@
       <c r="K39" t="s">
         <v>29</v>
       </c>
+      <c r="L39" t="s">
+        <v>2707</v>
+      </c>
       <c r="O39" t="s">
         <v>30</v>
       </c>
@@ -10739,6 +12809,9 @@
       <c r="K40" t="s">
         <v>29</v>
       </c>
+      <c r="L40" t="s">
+        <v>2708</v>
+      </c>
       <c r="O40" t="s">
         <v>30</v>
       </c>
@@ -10796,6 +12869,9 @@
       <c r="K41" t="s">
         <v>29</v>
       </c>
+      <c r="L41" t="s">
+        <v>2709</v>
+      </c>
       <c r="O41" t="s">
         <v>30</v>
       </c>
@@ -10855,6 +12931,9 @@
       <c r="K42" t="s">
         <v>29</v>
       </c>
+      <c r="L42" t="s">
+        <v>2710</v>
+      </c>
       <c r="O42" t="s">
         <v>30</v>
       </c>
@@ -10912,6 +12991,9 @@
       <c r="K43" t="s">
         <v>29</v>
       </c>
+      <c r="L43" t="s">
+        <v>2711</v>
+      </c>
       <c r="O43" t="s">
         <v>30</v>
       </c>
@@ -10968,6 +13050,9 @@
       </c>
       <c r="K44" t="s">
         <v>29</v>
+      </c>
+      <c r="L44" t="s">
+        <v>2712</v>
       </c>
       <c r="O44" t="s">
         <v>30</v>
@@ -11018,6 +13103,9 @@
       <c r="K45" t="s">
         <v>29</v>
       </c>
+      <c r="L45" t="s">
+        <v>2713</v>
+      </c>
       <c r="O45" t="s">
         <v>30</v>
       </c>
@@ -11075,6 +13163,9 @@
       <c r="K46" t="s">
         <v>29</v>
       </c>
+      <c r="L46" t="s">
+        <v>2714</v>
+      </c>
       <c r="O46" t="s">
         <v>30</v>
       </c>
@@ -11132,6 +13223,9 @@
       <c r="K47" t="s">
         <v>29</v>
       </c>
+      <c r="L47" t="s">
+        <v>2715</v>
+      </c>
       <c r="O47" t="s">
         <v>30</v>
       </c>
@@ -11191,6 +13285,9 @@
       <c r="K48" t="s">
         <v>29</v>
       </c>
+      <c r="L48" t="s">
+        <v>2716</v>
+      </c>
       <c r="O48" t="s">
         <v>30</v>
       </c>
@@ -11248,6 +13345,9 @@
       <c r="K49" t="s">
         <v>29</v>
       </c>
+      <c r="L49" t="s">
+        <v>2717</v>
+      </c>
       <c r="O49" t="s">
         <v>30</v>
       </c>
@@ -11305,6 +13405,9 @@
       <c r="K50" t="s">
         <v>29</v>
       </c>
+      <c r="L50" t="s">
+        <v>2718</v>
+      </c>
       <c r="O50" t="s">
         <v>30</v>
       </c>
@@ -11362,6 +13465,9 @@
       <c r="K51" t="s">
         <v>29</v>
       </c>
+      <c r="L51" t="s">
+        <v>2719</v>
+      </c>
       <c r="O51" t="s">
         <v>30</v>
       </c>
@@ -11419,6 +13525,9 @@
       <c r="K52" t="s">
         <v>29</v>
       </c>
+      <c r="L52" t="s">
+        <v>2720</v>
+      </c>
       <c r="O52" t="s">
         <v>30</v>
       </c>
@@ -11475,6 +13584,9 @@
       </c>
       <c r="K53" t="s">
         <v>29</v>
+      </c>
+      <c r="L53" t="s">
+        <v>2721</v>
       </c>
       <c r="O53" t="s">
         <v>30</v>
@@ -11525,6 +13637,9 @@
       <c r="K54" t="s">
         <v>29</v>
       </c>
+      <c r="L54" t="s">
+        <v>2722</v>
+      </c>
       <c r="O54" t="s">
         <v>30</v>
       </c>
@@ -11582,6 +13697,9 @@
       <c r="K55" t="s">
         <v>29</v>
       </c>
+      <c r="L55" t="s">
+        <v>2723</v>
+      </c>
       <c r="O55" t="s">
         <v>30</v>
       </c>
@@ -11641,6 +13759,9 @@
       <c r="K56" t="s">
         <v>29</v>
       </c>
+      <c r="L56" t="s">
+        <v>2724</v>
+      </c>
       <c r="O56" t="s">
         <v>30</v>
       </c>
@@ -11698,6 +13819,9 @@
       <c r="K57" t="s">
         <v>29</v>
       </c>
+      <c r="L57" t="s">
+        <v>2725</v>
+      </c>
       <c r="O57" t="s">
         <v>30</v>
       </c>
@@ -11755,6 +13879,9 @@
       <c r="K58" t="s">
         <v>29</v>
       </c>
+      <c r="L58" t="s">
+        <v>2726</v>
+      </c>
       <c r="O58" t="s">
         <v>30</v>
       </c>
@@ -11812,6 +13939,9 @@
       <c r="K59" t="s">
         <v>29</v>
       </c>
+      <c r="L59" t="s">
+        <v>2727</v>
+      </c>
       <c r="O59" t="s">
         <v>30</v>
       </c>
@@ -11869,6 +13999,9 @@
       <c r="K60" t="s">
         <v>29</v>
       </c>
+      <c r="L60" t="s">
+        <v>2728</v>
+      </c>
       <c r="O60" t="s">
         <v>30</v>
       </c>
@@ -11928,6 +14061,9 @@
       <c r="K61" t="s">
         <v>29</v>
       </c>
+      <c r="L61" t="s">
+        <v>2729</v>
+      </c>
       <c r="O61" t="s">
         <v>30</v>
       </c>
@@ -11985,6 +14121,9 @@
       <c r="K62" t="s">
         <v>29</v>
       </c>
+      <c r="L62" t="s">
+        <v>2730</v>
+      </c>
       <c r="O62" t="s">
         <v>30</v>
       </c>
@@ -12044,6 +14183,9 @@
       <c r="K63" t="s">
         <v>29</v>
       </c>
+      <c r="L63" t="s">
+        <v>2731</v>
+      </c>
       <c r="O63" t="s">
         <v>30</v>
       </c>
@@ -12101,6 +14243,9 @@
       <c r="K64" t="s">
         <v>29</v>
       </c>
+      <c r="L64" t="s">
+        <v>2732</v>
+      </c>
       <c r="O64" t="s">
         <v>30</v>
       </c>
@@ -12158,6 +14303,9 @@
       <c r="K65" t="s">
         <v>29</v>
       </c>
+      <c r="L65" t="s">
+        <v>2733</v>
+      </c>
       <c r="O65" t="s">
         <v>30</v>
       </c>
@@ -12215,6 +14363,9 @@
       <c r="K66" t="s">
         <v>29</v>
       </c>
+      <c r="L66" t="s">
+        <v>2734</v>
+      </c>
       <c r="O66" t="s">
         <v>30</v>
       </c>
@@ -12274,6 +14425,9 @@
       <c r="K67" t="s">
         <v>29</v>
       </c>
+      <c r="L67" t="s">
+        <v>2735</v>
+      </c>
       <c r="O67" t="s">
         <v>30</v>
       </c>
@@ -12333,6 +14487,9 @@
       <c r="K68" t="s">
         <v>29</v>
       </c>
+      <c r="L68" t="s">
+        <v>2736</v>
+      </c>
       <c r="O68" t="s">
         <v>30</v>
       </c>
@@ -12390,6 +14547,9 @@
       <c r="K69" t="s">
         <v>29</v>
       </c>
+      <c r="L69" t="s">
+        <v>2737</v>
+      </c>
       <c r="O69" t="s">
         <v>30</v>
       </c>
@@ -12449,6 +14609,9 @@
       <c r="K70" t="s">
         <v>29</v>
       </c>
+      <c r="L70" t="s">
+        <v>2738</v>
+      </c>
       <c r="O70" t="s">
         <v>30</v>
       </c>
@@ -12508,6 +14671,9 @@
       <c r="K71" t="s">
         <v>29</v>
       </c>
+      <c r="L71" t="s">
+        <v>2739</v>
+      </c>
       <c r="O71" t="s">
         <v>30</v>
       </c>
@@ -12565,6 +14731,9 @@
       <c r="K72" t="s">
         <v>29</v>
       </c>
+      <c r="L72" t="s">
+        <v>2740</v>
+      </c>
       <c r="O72" t="s">
         <v>30</v>
       </c>
@@ -12622,6 +14791,9 @@
       <c r="K73" t="s">
         <v>29</v>
       </c>
+      <c r="L73" t="s">
+        <v>2741</v>
+      </c>
       <c r="O73" t="s">
         <v>30</v>
       </c>
@@ -12679,6 +14851,9 @@
       <c r="K74" t="s">
         <v>29</v>
       </c>
+      <c r="L74" t="s">
+        <v>2742</v>
+      </c>
       <c r="O74" t="s">
         <v>30</v>
       </c>
@@ -12736,6 +14911,9 @@
       <c r="K75" t="s">
         <v>29</v>
       </c>
+      <c r="L75" t="s">
+        <v>2743</v>
+      </c>
       <c r="O75" t="s">
         <v>30</v>
       </c>
@@ -12793,6 +14971,9 @@
       <c r="K76" t="s">
         <v>29</v>
       </c>
+      <c r="L76" t="s">
+        <v>2744</v>
+      </c>
       <c r="O76" t="s">
         <v>30</v>
       </c>
@@ -12852,6 +15033,9 @@
       <c r="K77" t="s">
         <v>29</v>
       </c>
+      <c r="L77" t="s">
+        <v>2745</v>
+      </c>
       <c r="O77" t="s">
         <v>30</v>
       </c>
@@ -12910,6 +15094,9 @@
       </c>
       <c r="K78" t="s">
         <v>29</v>
+      </c>
+      <c r="L78" t="s">
+        <v>2746</v>
       </c>
       <c r="O78" t="s">
         <v>30</v>
@@ -13022,6 +15209,9 @@
       <c r="K80" t="s">
         <v>29</v>
       </c>
+      <c r="L80" t="s">
+        <v>2747</v>
+      </c>
       <c r="O80" t="s">
         <v>30</v>
       </c>
@@ -13133,6 +15323,9 @@
       <c r="K82" t="s">
         <v>29</v>
       </c>
+      <c r="L82" t="s">
+        <v>2748</v>
+      </c>
       <c r="O82" t="s">
         <v>30</v>
       </c>
@@ -13192,6 +15385,9 @@
       <c r="K83" t="s">
         <v>29</v>
       </c>
+      <c r="L83" t="s">
+        <v>2749</v>
+      </c>
       <c r="O83" t="s">
         <v>30</v>
       </c>
@@ -13251,6 +15447,9 @@
       <c r="K84" t="s">
         <v>29</v>
       </c>
+      <c r="L84" t="s">
+        <v>2750</v>
+      </c>
       <c r="O84" t="s">
         <v>30</v>
       </c>
@@ -13309,6 +15508,9 @@
       </c>
       <c r="K85" t="s">
         <v>29</v>
+      </c>
+      <c r="L85" t="s">
+        <v>2751</v>
       </c>
       <c r="O85" t="s">
         <v>30</v>
@@ -13421,6 +15623,9 @@
       <c r="K87" t="s">
         <v>29</v>
       </c>
+      <c r="L87" t="s">
+        <v>2752</v>
+      </c>
       <c r="O87" t="s">
         <v>30</v>
       </c>
@@ -13480,6 +15685,9 @@
       <c r="K88" t="s">
         <v>29</v>
       </c>
+      <c r="L88" t="s">
+        <v>2753</v>
+      </c>
       <c r="O88" t="s">
         <v>30</v>
       </c>
@@ -13539,6 +15747,9 @@
       <c r="K89" t="s">
         <v>29</v>
       </c>
+      <c r="L89" t="s">
+        <v>2754</v>
+      </c>
       <c r="O89" t="s">
         <v>30</v>
       </c>
@@ -13596,6 +15807,9 @@
       <c r="K90" t="s">
         <v>29</v>
       </c>
+      <c r="L90" t="s">
+        <v>2755</v>
+      </c>
       <c r="O90" t="s">
         <v>30</v>
       </c>
@@ -13651,6 +15865,9 @@
       <c r="K91" t="s">
         <v>29</v>
       </c>
+      <c r="L91" t="s">
+        <v>2756</v>
+      </c>
       <c r="O91" t="s">
         <v>30</v>
       </c>
@@ -13710,6 +15927,9 @@
       <c r="K92" t="s">
         <v>29</v>
       </c>
+      <c r="L92" t="s">
+        <v>2757</v>
+      </c>
       <c r="O92" t="s">
         <v>30</v>
       </c>
@@ -13766,6 +15986,9 @@
       </c>
       <c r="K93" t="s">
         <v>29</v>
+      </c>
+      <c r="L93" t="s">
+        <v>2758</v>
       </c>
       <c r="O93" t="s">
         <v>30</v>
@@ -13876,6 +16099,9 @@
       <c r="K95" t="s">
         <v>29</v>
       </c>
+      <c r="L95" t="s">
+        <v>2759</v>
+      </c>
       <c r="O95" t="s">
         <v>30</v>
       </c>
@@ -13933,6 +16159,9 @@
       <c r="K96" t="s">
         <v>29</v>
       </c>
+      <c r="L96" t="s">
+        <v>2760</v>
+      </c>
       <c r="O96" t="s">
         <v>30</v>
       </c>
@@ -13990,6 +16219,9 @@
       <c r="K97" t="s">
         <v>29</v>
       </c>
+      <c r="L97" t="s">
+        <v>2761</v>
+      </c>
       <c r="O97" t="s">
         <v>30</v>
       </c>
@@ -14047,6 +16279,9 @@
       <c r="K98" t="s">
         <v>29</v>
       </c>
+      <c r="L98" t="s">
+        <v>2762</v>
+      </c>
       <c r="O98" t="s">
         <v>30</v>
       </c>
@@ -14104,6 +16339,9 @@
       <c r="K99" t="s">
         <v>29</v>
       </c>
+      <c r="L99" t="s">
+        <v>2763</v>
+      </c>
       <c r="O99" t="s">
         <v>30</v>
       </c>
@@ -14161,6 +16399,9 @@
       <c r="K100" t="s">
         <v>29</v>
       </c>
+      <c r="L100" t="s">
+        <v>2764</v>
+      </c>
       <c r="O100" t="s">
         <v>30</v>
       </c>
@@ -14220,6 +16461,9 @@
       <c r="K101" t="s">
         <v>29</v>
       </c>
+      <c r="L101" t="s">
+        <v>2765</v>
+      </c>
       <c r="O101" t="s">
         <v>30</v>
       </c>
@@ -14277,6 +16521,9 @@
       <c r="K102" t="s">
         <v>29</v>
       </c>
+      <c r="L102" t="s">
+        <v>2766</v>
+      </c>
       <c r="O102" t="s">
         <v>30</v>
       </c>
@@ -14334,6 +16581,9 @@
       <c r="K103" t="s">
         <v>29</v>
       </c>
+      <c r="L103" t="s">
+        <v>2767</v>
+      </c>
       <c r="O103" t="s">
         <v>30</v>
       </c>
@@ -14391,6 +16641,9 @@
       <c r="K104" t="s">
         <v>29</v>
       </c>
+      <c r="L104" t="s">
+        <v>2768</v>
+      </c>
       <c r="O104" t="s">
         <v>30</v>
       </c>
@@ -14448,6 +16701,9 @@
       <c r="K105" t="s">
         <v>29</v>
       </c>
+      <c r="L105" t="s">
+        <v>2769</v>
+      </c>
       <c r="O105" t="s">
         <v>30</v>
       </c>
@@ -14505,6 +16761,9 @@
       <c r="K106" t="s">
         <v>29</v>
       </c>
+      <c r="L106" t="s">
+        <v>2770</v>
+      </c>
       <c r="O106" t="s">
         <v>30</v>
       </c>
@@ -14564,6 +16823,9 @@
       <c r="K107" t="s">
         <v>29</v>
       </c>
+      <c r="L107" t="s">
+        <v>2771</v>
+      </c>
       <c r="O107" t="s">
         <v>30</v>
       </c>
@@ -14621,6 +16883,9 @@
       <c r="K108" t="s">
         <v>29</v>
       </c>
+      <c r="L108" t="s">
+        <v>2772</v>
+      </c>
       <c r="O108" t="s">
         <v>30</v>
       </c>
@@ -14680,6 +16945,9 @@
       <c r="K109" t="s">
         <v>29</v>
       </c>
+      <c r="L109" t="s">
+        <v>2773</v>
+      </c>
       <c r="O109" t="s">
         <v>30</v>
       </c>
@@ -14737,6 +17005,9 @@
       <c r="K110" t="s">
         <v>29</v>
       </c>
+      <c r="L110" t="s">
+        <v>2774</v>
+      </c>
       <c r="O110" t="s">
         <v>30</v>
       </c>
@@ -14794,6 +17065,9 @@
       <c r="K111" t="s">
         <v>29</v>
       </c>
+      <c r="L111" t="s">
+        <v>2775</v>
+      </c>
       <c r="O111" t="s">
         <v>30</v>
       </c>
@@ -15127,6 +17401,9 @@
       <c r="K116" t="s">
         <v>29</v>
       </c>
+      <c r="L116" t="s">
+        <v>2776</v>
+      </c>
       <c r="O116" t="s">
         <v>30</v>
       </c>
@@ -15253,6 +17530,9 @@
       <c r="K118" t="s">
         <v>29</v>
       </c>
+      <c r="L118" t="s">
+        <v>2777</v>
+      </c>
       <c r="O118" t="s">
         <v>30</v>
       </c>
@@ -15310,6 +17590,9 @@
       <c r="K119" t="s">
         <v>29</v>
       </c>
+      <c r="L119" t="s">
+        <v>2778</v>
+      </c>
       <c r="O119" t="s">
         <v>30</v>
       </c>
@@ -15436,6 +17719,9 @@
       <c r="K121" t="s">
         <v>29</v>
       </c>
+      <c r="L121" t="s">
+        <v>2779</v>
+      </c>
       <c r="O121" t="s">
         <v>30</v>
       </c>
@@ -15493,6 +17779,9 @@
       <c r="K122" t="s">
         <v>29</v>
       </c>
+      <c r="L122" t="s">
+        <v>2780</v>
+      </c>
       <c r="O122" t="s">
         <v>30</v>
       </c>
@@ -15550,6 +17839,9 @@
       <c r="K123" t="s">
         <v>29</v>
       </c>
+      <c r="L123" t="s">
+        <v>2781</v>
+      </c>
       <c r="O123" t="s">
         <v>30</v>
       </c>
@@ -15607,6 +17899,9 @@
       <c r="K124" t="s">
         <v>29</v>
       </c>
+      <c r="L124" t="s">
+        <v>2782</v>
+      </c>
       <c r="O124" t="s">
         <v>30</v>
       </c>
@@ -15664,6 +17959,9 @@
       <c r="K125" t="s">
         <v>29</v>
       </c>
+      <c r="L125" t="s">
+        <v>2783</v>
+      </c>
       <c r="O125" t="s">
         <v>30</v>
       </c>
@@ -15721,6 +18019,9 @@
       <c r="K126" t="s">
         <v>29</v>
       </c>
+      <c r="L126" t="s">
+        <v>2784</v>
+      </c>
       <c r="O126" t="s">
         <v>30</v>
       </c>
@@ -15778,6 +18079,9 @@
       <c r="K127" t="s">
         <v>29</v>
       </c>
+      <c r="L127" t="s">
+        <v>2785</v>
+      </c>
       <c r="O127" t="s">
         <v>30</v>
       </c>
@@ -15835,6 +18139,9 @@
       <c r="K128" t="s">
         <v>29</v>
       </c>
+      <c r="L128" t="s">
+        <v>2786</v>
+      </c>
       <c r="O128" t="s">
         <v>30</v>
       </c>
@@ -15961,6 +18268,9 @@
       <c r="K130" t="s">
         <v>29</v>
       </c>
+      <c r="L130" t="s">
+        <v>2787</v>
+      </c>
       <c r="O130" t="s">
         <v>30</v>
       </c>
@@ -16020,6 +18330,9 @@
       <c r="K131" t="s">
         <v>29</v>
       </c>
+      <c r="L131" t="s">
+        <v>2788</v>
+      </c>
       <c r="O131" t="s">
         <v>30</v>
       </c>
@@ -16143,6 +18456,9 @@
       <c r="K133" t="s">
         <v>29</v>
       </c>
+      <c r="L133" t="s">
+        <v>2789</v>
+      </c>
       <c r="O133" t="s">
         <v>30</v>
       </c>
@@ -16202,6 +18518,9 @@
       <c r="K134" t="s">
         <v>29</v>
       </c>
+      <c r="L134" t="s">
+        <v>2790</v>
+      </c>
       <c r="O134" t="s">
         <v>30</v>
       </c>
@@ -16259,6 +18578,9 @@
       <c r="K135" t="s">
         <v>29</v>
       </c>
+      <c r="L135" t="s">
+        <v>2791</v>
+      </c>
       <c r="O135" t="s">
         <v>30</v>
       </c>
@@ -16316,6 +18638,9 @@
       <c r="K136" t="s">
         <v>29</v>
       </c>
+      <c r="L136" t="s">
+        <v>2792</v>
+      </c>
       <c r="O136" t="s">
         <v>30</v>
       </c>
@@ -16375,6 +18700,9 @@
       <c r="K137" t="s">
         <v>29</v>
       </c>
+      <c r="L137" t="s">
+        <v>2793</v>
+      </c>
       <c r="O137" t="s">
         <v>30</v>
       </c>
@@ -16434,6 +18762,9 @@
       <c r="K138" t="s">
         <v>29</v>
       </c>
+      <c r="L138" t="s">
+        <v>2794</v>
+      </c>
       <c r="O138" t="s">
         <v>30</v>
       </c>
@@ -16493,6 +18824,9 @@
       <c r="K139" t="s">
         <v>29</v>
       </c>
+      <c r="L139" t="s">
+        <v>2795</v>
+      </c>
       <c r="O139" t="s">
         <v>30</v>
       </c>
@@ -16552,6 +18886,9 @@
       <c r="K140" t="s">
         <v>29</v>
       </c>
+      <c r="L140" t="s">
+        <v>2796</v>
+      </c>
       <c r="O140" t="s">
         <v>30</v>
       </c>
@@ -16609,6 +18946,9 @@
       <c r="K141" t="s">
         <v>29</v>
       </c>
+      <c r="L141" t="s">
+        <v>2797</v>
+      </c>
       <c r="O141" t="s">
         <v>30</v>
       </c>
@@ -16666,6 +19006,9 @@
       <c r="K142" t="s">
         <v>29</v>
       </c>
+      <c r="L142" t="s">
+        <v>2798</v>
+      </c>
       <c r="O142" t="s">
         <v>30</v>
       </c>
@@ -16725,6 +19068,9 @@
       <c r="K143" t="s">
         <v>29</v>
       </c>
+      <c r="L143" t="s">
+        <v>2799</v>
+      </c>
       <c r="O143" t="s">
         <v>30</v>
       </c>
@@ -16782,6 +19128,9 @@
       <c r="K144" t="s">
         <v>29</v>
       </c>
+      <c r="L144" t="s">
+        <v>2800</v>
+      </c>
       <c r="O144" t="s">
         <v>30</v>
       </c>
@@ -16839,6 +19188,9 @@
       <c r="K145" t="s">
         <v>29</v>
       </c>
+      <c r="L145" t="s">
+        <v>2801</v>
+      </c>
       <c r="O145" t="s">
         <v>30</v>
       </c>
@@ -16896,6 +19248,9 @@
       <c r="K146" t="s">
         <v>29</v>
       </c>
+      <c r="L146" t="s">
+        <v>2802</v>
+      </c>
       <c r="O146" t="s">
         <v>30</v>
       </c>
@@ -16953,6 +19308,9 @@
       <c r="K147" t="s">
         <v>29</v>
       </c>
+      <c r="L147" t="s">
+        <v>2803</v>
+      </c>
       <c r="O147" t="s">
         <v>30</v>
       </c>
@@ -17010,6 +19368,9 @@
       <c r="K148" t="s">
         <v>29</v>
       </c>
+      <c r="L148" t="s">
+        <v>2804</v>
+      </c>
       <c r="O148" t="s">
         <v>30</v>
       </c>
@@ -17067,6 +19428,9 @@
       <c r="K149" t="s">
         <v>29</v>
       </c>
+      <c r="L149" t="s">
+        <v>2805</v>
+      </c>
       <c r="O149" t="s">
         <v>30</v>
       </c>
@@ -17124,6 +19488,9 @@
       <c r="K150" t="s">
         <v>29</v>
       </c>
+      <c r="L150" t="s">
+        <v>2806</v>
+      </c>
       <c r="O150" t="s">
         <v>30</v>
       </c>
@@ -17181,6 +19548,9 @@
       <c r="K151" t="s">
         <v>29</v>
       </c>
+      <c r="L151" t="s">
+        <v>2807</v>
+      </c>
       <c r="O151" t="s">
         <v>30</v>
       </c>
@@ -17240,6 +19610,9 @@
       <c r="K152" t="s">
         <v>29</v>
       </c>
+      <c r="L152" t="s">
+        <v>2808</v>
+      </c>
       <c r="O152" t="s">
         <v>30</v>
       </c>
@@ -17297,6 +19670,9 @@
       <c r="K153" t="s">
         <v>29</v>
       </c>
+      <c r="L153" t="s">
+        <v>2809</v>
+      </c>
       <c r="O153" t="s">
         <v>30</v>
       </c>
@@ -17354,6 +19730,9 @@
       <c r="K154" t="s">
         <v>29</v>
       </c>
+      <c r="L154" t="s">
+        <v>2810</v>
+      </c>
       <c r="O154" t="s">
         <v>30</v>
       </c>
@@ -17411,6 +19790,9 @@
       <c r="K155" t="s">
         <v>29</v>
       </c>
+      <c r="L155" t="s">
+        <v>2811</v>
+      </c>
       <c r="O155" t="s">
         <v>30</v>
       </c>
@@ -17468,6 +19850,9 @@
       <c r="K156" t="s">
         <v>29</v>
       </c>
+      <c r="L156" t="s">
+        <v>2812</v>
+      </c>
       <c r="O156" t="s">
         <v>30</v>
       </c>
@@ -17525,6 +19910,9 @@
       <c r="K157" t="s">
         <v>29</v>
       </c>
+      <c r="L157" t="s">
+        <v>2813</v>
+      </c>
       <c r="O157" t="s">
         <v>30</v>
       </c>
@@ -17582,6 +19970,9 @@
       <c r="K158" t="s">
         <v>29</v>
       </c>
+      <c r="L158" t="s">
+        <v>2814</v>
+      </c>
       <c r="O158" t="s">
         <v>30</v>
       </c>
@@ -17639,6 +20030,9 @@
       <c r="K159" t="s">
         <v>29</v>
       </c>
+      <c r="L159" t="s">
+        <v>2815</v>
+      </c>
       <c r="O159" t="s">
         <v>30</v>
       </c>
@@ -17698,6 +20092,9 @@
       <c r="K160" t="s">
         <v>29</v>
       </c>
+      <c r="L160" t="s">
+        <v>2816</v>
+      </c>
       <c r="O160" t="s">
         <v>30</v>
       </c>
@@ -17755,6 +20152,9 @@
       <c r="K161" t="s">
         <v>29</v>
       </c>
+      <c r="L161" t="s">
+        <v>2817</v>
+      </c>
       <c r="O161" t="s">
         <v>30</v>
       </c>
@@ -17812,6 +20212,9 @@
       <c r="K162" t="s">
         <v>29</v>
       </c>
+      <c r="L162" t="s">
+        <v>2818</v>
+      </c>
       <c r="O162" t="s">
         <v>30</v>
       </c>
@@ -17868,6 +20271,9 @@
       </c>
       <c r="K163" t="s">
         <v>29</v>
+      </c>
+      <c r="L163" t="s">
+        <v>2819</v>
       </c>
       <c r="O163" t="s">
         <v>30</v>
@@ -18134,6 +20540,9 @@
       <c r="K168" t="s">
         <v>29</v>
       </c>
+      <c r="L168" t="s">
+        <v>2820</v>
+      </c>
       <c r="O168" t="s">
         <v>30</v>
       </c>
@@ -18244,6 +20653,9 @@
       </c>
       <c r="K170" t="s">
         <v>29</v>
+      </c>
+      <c r="L170" t="s">
+        <v>2821</v>
       </c>
       <c r="O170" t="s">
         <v>30</v>
@@ -18406,6 +20818,9 @@
       <c r="K173" t="s">
         <v>29</v>
       </c>
+      <c r="L173" t="s">
+        <v>2822</v>
+      </c>
       <c r="O173" t="s">
         <v>30</v>
       </c>
@@ -18517,6 +20932,9 @@
       <c r="K175" t="s">
         <v>29</v>
       </c>
+      <c r="L175" t="s">
+        <v>2823</v>
+      </c>
       <c r="O175" t="s">
         <v>30</v>
       </c>
@@ -18574,6 +20992,9 @@
       <c r="K176" t="s">
         <v>29</v>
       </c>
+      <c r="L176" t="s">
+        <v>2824</v>
+      </c>
       <c r="O176" t="s">
         <v>30</v>
       </c>
@@ -18633,6 +21054,9 @@
       <c r="K177" t="s">
         <v>29</v>
       </c>
+      <c r="L177" t="s">
+        <v>2825</v>
+      </c>
       <c r="O177" t="s">
         <v>30</v>
       </c>
@@ -18692,6 +21116,9 @@
       <c r="K178" t="s">
         <v>29</v>
       </c>
+      <c r="L178" t="s">
+        <v>2826</v>
+      </c>
       <c r="O178" t="s">
         <v>30</v>
       </c>
@@ -18751,6 +21178,9 @@
       <c r="K179" t="s">
         <v>29</v>
       </c>
+      <c r="L179" t="s">
+        <v>2827</v>
+      </c>
       <c r="O179" t="s">
         <v>30</v>
       </c>
@@ -18808,6 +21238,9 @@
       <c r="K180" t="s">
         <v>29</v>
       </c>
+      <c r="L180" t="s">
+        <v>2828</v>
+      </c>
       <c r="O180" t="s">
         <v>30</v>
       </c>
@@ -18865,6 +21298,9 @@
       <c r="K181" t="s">
         <v>29</v>
       </c>
+      <c r="L181" t="s">
+        <v>2829</v>
+      </c>
       <c r="O181" t="s">
         <v>30</v>
       </c>
@@ -18922,6 +21358,9 @@
       <c r="K182" t="s">
         <v>29</v>
       </c>
+      <c r="L182" t="s">
+        <v>2830</v>
+      </c>
       <c r="O182" t="s">
         <v>30</v>
       </c>
@@ -18979,6 +21418,9 @@
       <c r="K183" t="s">
         <v>29</v>
       </c>
+      <c r="L183" t="s">
+        <v>2831</v>
+      </c>
       <c r="O183" t="s">
         <v>30</v>
       </c>
@@ -19038,6 +21480,9 @@
       <c r="K184" t="s">
         <v>29</v>
       </c>
+      <c r="L184" t="s">
+        <v>2832</v>
+      </c>
       <c r="O184" t="s">
         <v>30</v>
       </c>
@@ -19097,6 +21542,9 @@
       <c r="K185" t="s">
         <v>29</v>
       </c>
+      <c r="L185" t="s">
+        <v>2833</v>
+      </c>
       <c r="O185" t="s">
         <v>30</v>
       </c>
@@ -19156,6 +21604,9 @@
       <c r="K186" t="s">
         <v>29</v>
       </c>
+      <c r="L186" t="s">
+        <v>2834</v>
+      </c>
       <c r="O186" t="s">
         <v>30</v>
       </c>
@@ -19213,6 +21664,9 @@
       <c r="K187" t="s">
         <v>29</v>
       </c>
+      <c r="L187" t="s">
+        <v>2835</v>
+      </c>
       <c r="O187" t="s">
         <v>30</v>
       </c>
@@ -19270,6 +21724,9 @@
       <c r="K188" t="s">
         <v>29</v>
       </c>
+      <c r="L188" t="s">
+        <v>2836</v>
+      </c>
       <c r="O188" t="s">
         <v>30</v>
       </c>
@@ -19327,6 +21784,9 @@
       <c r="K189" t="s">
         <v>29</v>
       </c>
+      <c r="L189" t="s">
+        <v>2837</v>
+      </c>
       <c r="O189" t="s">
         <v>30</v>
       </c>
@@ -19386,6 +21846,9 @@
       <c r="K190" t="s">
         <v>29</v>
       </c>
+      <c r="L190" t="s">
+        <v>2838</v>
+      </c>
       <c r="O190" t="s">
         <v>30</v>
       </c>
@@ -19443,6 +21906,9 @@
       <c r="K191" t="s">
         <v>29</v>
       </c>
+      <c r="L191" t="s">
+        <v>2839</v>
+      </c>
       <c r="O191" t="s">
         <v>30</v>
       </c>
@@ -19500,6 +21966,9 @@
       <c r="K192" t="s">
         <v>29</v>
       </c>
+      <c r="L192" t="s">
+        <v>2840</v>
+      </c>
       <c r="O192" t="s">
         <v>30</v>
       </c>
@@ -19557,6 +22026,9 @@
       <c r="K193" t="s">
         <v>29</v>
       </c>
+      <c r="L193" t="s">
+        <v>2841</v>
+      </c>
       <c r="O193" t="s">
         <v>30</v>
       </c>
@@ -19614,6 +22086,9 @@
       <c r="K194" t="s">
         <v>29</v>
       </c>
+      <c r="L194" t="s">
+        <v>2842</v>
+      </c>
       <c r="O194" t="s">
         <v>30</v>
       </c>
@@ -19671,6 +22146,9 @@
       <c r="K195" t="s">
         <v>29</v>
       </c>
+      <c r="L195" t="s">
+        <v>2843</v>
+      </c>
       <c r="O195" t="s">
         <v>30</v>
       </c>
@@ -19728,6 +22206,9 @@
       <c r="K196" t="s">
         <v>29</v>
       </c>
+      <c r="L196" t="s">
+        <v>2844</v>
+      </c>
       <c r="O196" t="s">
         <v>30</v>
       </c>
@@ -19785,6 +22266,9 @@
       <c r="K197" t="s">
         <v>29</v>
       </c>
+      <c r="L197" t="s">
+        <v>2845</v>
+      </c>
       <c r="O197" t="s">
         <v>30</v>
       </c>
@@ -19842,6 +22326,9 @@
       <c r="K198" t="s">
         <v>29</v>
       </c>
+      <c r="L198" t="s">
+        <v>2846</v>
+      </c>
       <c r="O198" t="s">
         <v>30</v>
       </c>
@@ -19899,6 +22386,9 @@
       <c r="K199" t="s">
         <v>29</v>
       </c>
+      <c r="L199" t="s">
+        <v>2847</v>
+      </c>
       <c r="O199" t="s">
         <v>30</v>
       </c>
@@ -19956,6 +22446,9 @@
       <c r="K200" t="s">
         <v>29</v>
       </c>
+      <c r="L200" t="s">
+        <v>2848</v>
+      </c>
       <c r="O200" t="s">
         <v>30</v>
       </c>
@@ -20015,6 +22508,9 @@
       <c r="K201" t="s">
         <v>29</v>
       </c>
+      <c r="L201" t="s">
+        <v>2849</v>
+      </c>
       <c r="O201" t="s">
         <v>30</v>
       </c>
@@ -20072,6 +22568,9 @@
       <c r="K202" t="s">
         <v>29</v>
       </c>
+      <c r="L202" t="s">
+        <v>2850</v>
+      </c>
       <c r="O202" t="s">
         <v>30</v>
       </c>
@@ -20129,6 +22628,9 @@
       <c r="K203" t="s">
         <v>29</v>
       </c>
+      <c r="L203" t="s">
+        <v>2851</v>
+      </c>
       <c r="O203" t="s">
         <v>30</v>
       </c>
@@ -20186,6 +22688,9 @@
       <c r="K204" t="s">
         <v>29</v>
       </c>
+      <c r="L204" t="s">
+        <v>2852</v>
+      </c>
       <c r="O204" t="s">
         <v>30</v>
       </c>
@@ -20243,6 +22748,9 @@
       <c r="K205" t="s">
         <v>29</v>
       </c>
+      <c r="L205" t="s">
+        <v>2853</v>
+      </c>
       <c r="O205" t="s">
         <v>30</v>
       </c>
@@ -20300,6 +22808,9 @@
       <c r="K206" t="s">
         <v>29</v>
       </c>
+      <c r="L206" t="s">
+        <v>2854</v>
+      </c>
       <c r="O206" t="s">
         <v>30</v>
       </c>
@@ -20357,6 +22868,9 @@
       <c r="K207" t="s">
         <v>29</v>
       </c>
+      <c r="L207" t="s">
+        <v>2855</v>
+      </c>
       <c r="O207" t="s">
         <v>30</v>
       </c>
@@ -20414,6 +22928,9 @@
       <c r="K208" t="s">
         <v>29</v>
       </c>
+      <c r="L208" t="s">
+        <v>2856</v>
+      </c>
       <c r="O208" t="s">
         <v>30</v>
       </c>
@@ -20471,6 +22988,9 @@
       <c r="K209" t="s">
         <v>29</v>
       </c>
+      <c r="L209" t="s">
+        <v>2857</v>
+      </c>
       <c r="O209" t="s">
         <v>30</v>
       </c>
@@ -20528,6 +23048,9 @@
       <c r="K210" t="s">
         <v>29</v>
       </c>
+      <c r="L210" t="s">
+        <v>2858</v>
+      </c>
       <c r="O210" t="s">
         <v>30</v>
       </c>
@@ -20587,6 +23110,9 @@
       <c r="K211" t="s">
         <v>29</v>
       </c>
+      <c r="L211" t="s">
+        <v>2859</v>
+      </c>
       <c r="O211" t="s">
         <v>30</v>
       </c>
@@ -20644,6 +23170,9 @@
       <c r="K212" t="s">
         <v>29</v>
       </c>
+      <c r="L212" t="s">
+        <v>2860</v>
+      </c>
       <c r="O212" t="s">
         <v>30</v>
       </c>
@@ -20700,6 +23229,9 @@
       </c>
       <c r="K213" t="s">
         <v>29</v>
+      </c>
+      <c r="L213" t="s">
+        <v>2861</v>
       </c>
       <c r="O213" t="s">
         <v>30</v>
@@ -20749,6 +23281,9 @@
       </c>
       <c r="K214" t="s">
         <v>29</v>
+      </c>
+      <c r="L214" t="s">
+        <v>2862</v>
       </c>
       <c r="O214" t="s">
         <v>30</v>
@@ -20861,6 +23396,9 @@
       <c r="K216" t="s">
         <v>29</v>
       </c>
+      <c r="L216" t="s">
+        <v>2863</v>
+      </c>
       <c r="O216" t="s">
         <v>30</v>
       </c>
@@ -20918,6 +23456,9 @@
       <c r="K217" t="s">
         <v>29</v>
       </c>
+      <c r="L217" t="s">
+        <v>2864</v>
+      </c>
       <c r="O217" t="s">
         <v>30</v>
       </c>
@@ -20975,6 +23516,9 @@
       <c r="K218" t="s">
         <v>29</v>
       </c>
+      <c r="L218" t="s">
+        <v>2865</v>
+      </c>
       <c r="O218" t="s">
         <v>30</v>
       </c>
@@ -21032,6 +23576,9 @@
       <c r="K219" t="s">
         <v>29</v>
       </c>
+      <c r="L219" t="s">
+        <v>2866</v>
+      </c>
       <c r="O219" t="s">
         <v>30</v>
       </c>
@@ -21091,6 +23638,9 @@
       <c r="K220" t="s">
         <v>29</v>
       </c>
+      <c r="L220" t="s">
+        <v>2867</v>
+      </c>
       <c r="O220" t="s">
         <v>30</v>
       </c>
@@ -21148,6 +23698,9 @@
       <c r="K221" t="s">
         <v>29</v>
       </c>
+      <c r="L221" t="s">
+        <v>2868</v>
+      </c>
       <c r="O221" t="s">
         <v>30</v>
       </c>
@@ -21205,6 +23758,9 @@
       <c r="K222" t="s">
         <v>29</v>
       </c>
+      <c r="L222" t="s">
+        <v>2869</v>
+      </c>
       <c r="O222" t="s">
         <v>30</v>
       </c>
@@ -21262,6 +23818,9 @@
       <c r="K223" t="s">
         <v>29</v>
       </c>
+      <c r="L223" t="s">
+        <v>2870</v>
+      </c>
       <c r="O223" t="s">
         <v>30</v>
       </c>
@@ -21319,6 +23878,9 @@
       <c r="K224" t="s">
         <v>29</v>
       </c>
+      <c r="L224" t="s">
+        <v>2871</v>
+      </c>
       <c r="O224" t="s">
         <v>30</v>
       </c>
@@ -21375,6 +23937,9 @@
       </c>
       <c r="K225" t="s">
         <v>29</v>
+      </c>
+      <c r="L225" t="s">
+        <v>2872</v>
       </c>
       <c r="O225" t="s">
         <v>30</v>
@@ -21485,6 +24050,9 @@
       <c r="K227" t="s">
         <v>29</v>
       </c>
+      <c r="L227" t="s">
+        <v>2873</v>
+      </c>
       <c r="O227" t="s">
         <v>30</v>
       </c>
@@ -21542,6 +24110,9 @@
       <c r="K228" t="s">
         <v>29</v>
       </c>
+      <c r="L228" t="s">
+        <v>2874</v>
+      </c>
       <c r="O228" t="s">
         <v>30</v>
       </c>
@@ -21599,6 +24170,9 @@
       <c r="K229" t="s">
         <v>29</v>
       </c>
+      <c r="L229" t="s">
+        <v>2875</v>
+      </c>
       <c r="O229" t="s">
         <v>30</v>
       </c>
@@ -21656,6 +24230,9 @@
       <c r="K230" t="s">
         <v>29</v>
       </c>
+      <c r="L230" t="s">
+        <v>2876</v>
+      </c>
       <c r="O230" t="s">
         <v>30</v>
       </c>
@@ -21713,6 +24290,9 @@
       <c r="K231" t="s">
         <v>29</v>
       </c>
+      <c r="L231" t="s">
+        <v>2877</v>
+      </c>
       <c r="O231" t="s">
         <v>30</v>
       </c>
@@ -21770,6 +24350,9 @@
       <c r="K232" t="s">
         <v>29</v>
       </c>
+      <c r="L232" t="s">
+        <v>2878</v>
+      </c>
       <c r="O232" t="s">
         <v>30</v>
       </c>
@@ -21827,6 +24410,9 @@
       <c r="K233" t="s">
         <v>29</v>
       </c>
+      <c r="L233" t="s">
+        <v>2879</v>
+      </c>
       <c r="O233" t="s">
         <v>30</v>
       </c>
@@ -21884,6 +24470,9 @@
       <c r="K234" t="s">
         <v>29</v>
       </c>
+      <c r="L234" t="s">
+        <v>2880</v>
+      </c>
       <c r="O234" t="s">
         <v>30</v>
       </c>
@@ -21941,6 +24530,9 @@
       <c r="K235" t="s">
         <v>29</v>
       </c>
+      <c r="L235" t="s">
+        <v>2881</v>
+      </c>
       <c r="O235" t="s">
         <v>30</v>
       </c>
@@ -21998,6 +24590,9 @@
       <c r="K236" t="s">
         <v>29</v>
       </c>
+      <c r="L236" t="s">
+        <v>2882</v>
+      </c>
       <c r="O236" t="s">
         <v>30</v>
       </c>
@@ -22055,6 +24650,9 @@
       <c r="K237" t="s">
         <v>29</v>
       </c>
+      <c r="L237" t="s">
+        <v>2883</v>
+      </c>
       <c r="O237" t="s">
         <v>30</v>
       </c>
@@ -22112,6 +24710,9 @@
       <c r="K238" t="s">
         <v>29</v>
       </c>
+      <c r="L238" t="s">
+        <v>2884</v>
+      </c>
       <c r="O238" t="s">
         <v>30</v>
       </c>
@@ -22169,6 +24770,9 @@
       <c r="K239" t="s">
         <v>29</v>
       </c>
+      <c r="L239" t="s">
+        <v>2885</v>
+      </c>
       <c r="O239" t="s">
         <v>30</v>
       </c>
@@ -22226,6 +24830,9 @@
       <c r="K240" t="s">
         <v>29</v>
       </c>
+      <c r="L240" t="s">
+        <v>2886</v>
+      </c>
       <c r="O240" t="s">
         <v>30</v>
       </c>
@@ -22283,6 +24890,9 @@
       <c r="K241" t="s">
         <v>29</v>
       </c>
+      <c r="L241" t="s">
+        <v>2887</v>
+      </c>
       <c r="O241" t="s">
         <v>30</v>
       </c>
@@ -22340,6 +24950,9 @@
       <c r="K242" t="s">
         <v>29</v>
       </c>
+      <c r="L242" t="s">
+        <v>2888</v>
+      </c>
       <c r="O242" t="s">
         <v>30</v>
       </c>
@@ -22397,6 +25010,9 @@
       <c r="K243" t="s">
         <v>29</v>
       </c>
+      <c r="L243" t="s">
+        <v>2889</v>
+      </c>
       <c r="O243" t="s">
         <v>30</v>
       </c>
@@ -22454,6 +25070,9 @@
       <c r="K244" t="s">
         <v>29</v>
       </c>
+      <c r="L244" t="s">
+        <v>2890</v>
+      </c>
       <c r="O244" t="s">
         <v>30</v>
       </c>
@@ -22511,6 +25130,9 @@
       <c r="K245" t="s">
         <v>29</v>
       </c>
+      <c r="L245" t="s">
+        <v>2891</v>
+      </c>
       <c r="O245" t="s">
         <v>30</v>
       </c>
@@ -22568,6 +25190,9 @@
       <c r="K246" t="s">
         <v>29</v>
       </c>
+      <c r="L246" t="s">
+        <v>2892</v>
+      </c>
       <c r="O246" t="s">
         <v>30</v>
       </c>
@@ -22625,6 +25250,9 @@
       <c r="K247" t="s">
         <v>29</v>
       </c>
+      <c r="L247" t="s">
+        <v>2893</v>
+      </c>
       <c r="O247" t="s">
         <v>30</v>
       </c>
@@ -22683,6 +25311,9 @@
       </c>
       <c r="K248" t="s">
         <v>29</v>
+      </c>
+      <c r="L248" t="s">
+        <v>2894</v>
       </c>
       <c r="O248" t="s">
         <v>30</v>
@@ -22793,6 +25424,9 @@
       <c r="K250" t="s">
         <v>29</v>
       </c>
+      <c r="L250" t="s">
+        <v>2895</v>
+      </c>
       <c r="O250" t="s">
         <v>30</v>
       </c>
@@ -23110,6 +25744,9 @@
       <c r="K256" t="s">
         <v>29</v>
       </c>
+      <c r="L256" t="s">
+        <v>2896</v>
+      </c>
       <c r="O256" t="s">
         <v>30</v>
       </c>
@@ -23167,6 +25804,9 @@
       <c r="K257" t="s">
         <v>29</v>
       </c>
+      <c r="L257" t="s">
+        <v>2897</v>
+      </c>
       <c r="O257" t="s">
         <v>30</v>
       </c>
@@ -23224,6 +25864,9 @@
       <c r="K258" t="s">
         <v>29</v>
       </c>
+      <c r="L258" t="s">
+        <v>2898</v>
+      </c>
       <c r="O258" t="s">
         <v>30</v>
       </c>
@@ -23281,6 +25924,9 @@
       <c r="K259" t="s">
         <v>29</v>
       </c>
+      <c r="L259" t="s">
+        <v>2899</v>
+      </c>
       <c r="O259" t="s">
         <v>30</v>
       </c>
@@ -23340,6 +25986,9 @@
       <c r="K260" t="s">
         <v>29</v>
       </c>
+      <c r="L260" t="s">
+        <v>2900</v>
+      </c>
       <c r="O260" t="s">
         <v>30</v>
       </c>
@@ -23397,6 +26046,9 @@
       <c r="K261" t="s">
         <v>29</v>
       </c>
+      <c r="L261" t="s">
+        <v>2901</v>
+      </c>
       <c r="O261" t="s">
         <v>30</v>
       </c>
@@ -23454,6 +26106,9 @@
       <c r="K262" t="s">
         <v>29</v>
       </c>
+      <c r="L262" t="s">
+        <v>2902</v>
+      </c>
       <c r="O262" t="s">
         <v>30</v>
       </c>
@@ -23577,6 +26232,9 @@
       <c r="K264" t="s">
         <v>29</v>
       </c>
+      <c r="L264" t="s">
+        <v>2903</v>
+      </c>
       <c r="O264" t="s">
         <v>30</v>
       </c>
@@ -23634,6 +26292,9 @@
       <c r="K265" t="s">
         <v>29</v>
       </c>
+      <c r="L265" t="s">
+        <v>2904</v>
+      </c>
       <c r="O265" t="s">
         <v>30</v>
       </c>
@@ -23691,6 +26352,9 @@
       <c r="K266" t="s">
         <v>29</v>
       </c>
+      <c r="L266" t="s">
+        <v>2905</v>
+      </c>
       <c r="O266" t="s">
         <v>30</v>
       </c>
@@ -23750,6 +26414,9 @@
       <c r="K267" t="s">
         <v>29</v>
       </c>
+      <c r="L267" t="s">
+        <v>2906</v>
+      </c>
       <c r="O267" t="s">
         <v>30</v>
       </c>
@@ -23809,6 +26476,9 @@
       <c r="K268" t="s">
         <v>29</v>
       </c>
+      <c r="L268" t="s">
+        <v>2907</v>
+      </c>
       <c r="O268" t="s">
         <v>30</v>
       </c>
@@ -23868,6 +26538,9 @@
       <c r="K269" t="s">
         <v>29</v>
       </c>
+      <c r="L269" t="s">
+        <v>2908</v>
+      </c>
       <c r="O269" t="s">
         <v>30</v>
       </c>
@@ -23925,6 +26598,9 @@
       <c r="K270" t="s">
         <v>29</v>
       </c>
+      <c r="L270" t="s">
+        <v>2909</v>
+      </c>
       <c r="O270" t="s">
         <v>30</v>
       </c>
@@ -23984,6 +26660,9 @@
       <c r="K271" t="s">
         <v>29</v>
       </c>
+      <c r="L271" t="s">
+        <v>2910</v>
+      </c>
       <c r="O271" t="s">
         <v>30</v>
       </c>
@@ -24041,6 +26720,9 @@
       <c r="K272" t="s">
         <v>29</v>
       </c>
+      <c r="L272" t="s">
+        <v>2911</v>
+      </c>
       <c r="O272" t="s">
         <v>30</v>
       </c>
@@ -24098,6 +26780,9 @@
       <c r="K273" t="s">
         <v>29</v>
       </c>
+      <c r="L273" t="s">
+        <v>2912</v>
+      </c>
       <c r="O273" t="s">
         <v>30</v>
       </c>
@@ -24157,6 +26842,9 @@
       <c r="K274" t="s">
         <v>29</v>
       </c>
+      <c r="L274" t="s">
+        <v>2913</v>
+      </c>
       <c r="O274" t="s">
         <v>30</v>
       </c>
@@ -24216,6 +26904,9 @@
       <c r="K275" t="s">
         <v>29</v>
       </c>
+      <c r="L275" t="s">
+        <v>2914</v>
+      </c>
       <c r="O275" t="s">
         <v>30</v>
       </c>
@@ -24275,6 +26966,9 @@
       <c r="K276" t="s">
         <v>29</v>
       </c>
+      <c r="L276" t="s">
+        <v>2915</v>
+      </c>
       <c r="O276" t="s">
         <v>30</v>
       </c>
@@ -24334,6 +27028,9 @@
       <c r="K277" t="s">
         <v>29</v>
       </c>
+      <c r="L277" t="s">
+        <v>2916</v>
+      </c>
       <c r="O277" t="s">
         <v>30</v>
       </c>
@@ -24391,6 +27088,9 @@
       <c r="K278" t="s">
         <v>29</v>
       </c>
+      <c r="L278" t="s">
+        <v>2917</v>
+      </c>
       <c r="O278" t="s">
         <v>30</v>
       </c>
@@ -24450,6 +27150,9 @@
       <c r="K279" t="s">
         <v>29</v>
       </c>
+      <c r="L279" t="s">
+        <v>2918</v>
+      </c>
       <c r="O279" t="s">
         <v>30</v>
       </c>
@@ -24509,6 +27212,9 @@
       <c r="K280" t="s">
         <v>29</v>
       </c>
+      <c r="L280" t="s">
+        <v>2919</v>
+      </c>
       <c r="O280" t="s">
         <v>30</v>
       </c>
@@ -24568,6 +27274,9 @@
       <c r="K281" t="s">
         <v>29</v>
       </c>
+      <c r="L281" t="s">
+        <v>2920</v>
+      </c>
       <c r="O281" t="s">
         <v>30</v>
       </c>
@@ -24627,6 +27336,9 @@
       <c r="K282" t="s">
         <v>29</v>
       </c>
+      <c r="L282" t="s">
+        <v>2921</v>
+      </c>
       <c r="O282" t="s">
         <v>30</v>
       </c>
@@ -24684,6 +27396,9 @@
       <c r="K283" t="s">
         <v>29</v>
       </c>
+      <c r="L283" t="s">
+        <v>2922</v>
+      </c>
       <c r="O283" t="s">
         <v>30</v>
       </c>
@@ -24741,6 +27456,9 @@
       <c r="K284" t="s">
         <v>29</v>
       </c>
+      <c r="L284" t="s">
+        <v>2923</v>
+      </c>
       <c r="O284" t="s">
         <v>30</v>
       </c>
@@ -24800,6 +27518,9 @@
       <c r="K285" t="s">
         <v>29</v>
       </c>
+      <c r="L285" t="s">
+        <v>2924</v>
+      </c>
       <c r="O285" t="s">
         <v>30</v>
       </c>
@@ -24859,6 +27580,9 @@
       <c r="K286" t="s">
         <v>29</v>
       </c>
+      <c r="L286" t="s">
+        <v>2925</v>
+      </c>
       <c r="O286" t="s">
         <v>30</v>
       </c>
@@ -24918,6 +27642,9 @@
       <c r="K287" t="s">
         <v>29</v>
       </c>
+      <c r="L287" t="s">
+        <v>2926</v>
+      </c>
       <c r="O287" t="s">
         <v>30</v>
       </c>
@@ -24977,6 +27704,9 @@
       <c r="K288" t="s">
         <v>29</v>
       </c>
+      <c r="L288" t="s">
+        <v>2927</v>
+      </c>
       <c r="O288" t="s">
         <v>30</v>
       </c>
@@ -25036,6 +27766,9 @@
       <c r="K289" t="s">
         <v>29</v>
       </c>
+      <c r="L289" t="s">
+        <v>2928</v>
+      </c>
       <c r="O289" t="s">
         <v>30</v>
       </c>
@@ -25095,6 +27828,9 @@
       <c r="K290" t="s">
         <v>29</v>
       </c>
+      <c r="L290" t="s">
+        <v>2929</v>
+      </c>
       <c r="O290" t="s">
         <v>30</v>
       </c>
@@ -25152,6 +27888,9 @@
       <c r="K291" t="s">
         <v>29</v>
       </c>
+      <c r="L291" t="s">
+        <v>2930</v>
+      </c>
       <c r="O291" t="s">
         <v>30</v>
       </c>
@@ -25211,6 +27950,9 @@
       <c r="K292" t="s">
         <v>29</v>
       </c>
+      <c r="L292" t="s">
+        <v>2931</v>
+      </c>
       <c r="O292" t="s">
         <v>30</v>
       </c>
@@ -25269,6 +28011,9 @@
       </c>
       <c r="K293" t="s">
         <v>29</v>
+      </c>
+      <c r="L293" t="s">
+        <v>2932</v>
       </c>
       <c r="O293" t="s">
         <v>30</v>
@@ -27251,6 +29996,9 @@
       <c r="K331" t="s">
         <v>29</v>
       </c>
+      <c r="L331" t="s">
+        <v>2933</v>
+      </c>
       <c r="O331" t="s">
         <v>30</v>
       </c>
@@ -27308,6 +30056,9 @@
       <c r="K332" t="s">
         <v>29</v>
       </c>
+      <c r="L332" t="s">
+        <v>2934</v>
+      </c>
       <c r="O332" t="s">
         <v>30</v>
       </c>
@@ -27365,6 +30116,9 @@
       <c r="K333" t="s">
         <v>29</v>
       </c>
+      <c r="L333" t="s">
+        <v>2935</v>
+      </c>
       <c r="O333" t="s">
         <v>30</v>
       </c>
@@ -27424,6 +30178,9 @@
       <c r="K334" t="s">
         <v>29</v>
       </c>
+      <c r="L334" t="s">
+        <v>2936</v>
+      </c>
       <c r="O334" t="s">
         <v>30</v>
       </c>
@@ -27481,6 +30238,9 @@
       <c r="K335" t="s">
         <v>29</v>
       </c>
+      <c r="L335" t="s">
+        <v>2937</v>
+      </c>
       <c r="O335" t="s">
         <v>30</v>
       </c>
@@ -27538,6 +30298,9 @@
       <c r="K336" t="s">
         <v>29</v>
       </c>
+      <c r="L336" t="s">
+        <v>2938</v>
+      </c>
       <c r="O336" t="s">
         <v>30</v>
       </c>
@@ -27595,6 +30358,9 @@
       <c r="K337" t="s">
         <v>29</v>
       </c>
+      <c r="L337" t="s">
+        <v>2939</v>
+      </c>
       <c r="O337" t="s">
         <v>30</v>
       </c>
@@ -27652,6 +30418,9 @@
       <c r="K338" t="s">
         <v>29</v>
       </c>
+      <c r="L338" t="s">
+        <v>2940</v>
+      </c>
       <c r="O338" t="s">
         <v>30</v>
       </c>
@@ -27709,6 +30478,9 @@
       <c r="K339" t="s">
         <v>29</v>
       </c>
+      <c r="L339" t="s">
+        <v>2941</v>
+      </c>
       <c r="O339" t="s">
         <v>30</v>
       </c>
@@ -27768,6 +30540,9 @@
       <c r="K340" t="s">
         <v>29</v>
       </c>
+      <c r="L340" t="s">
+        <v>2942</v>
+      </c>
       <c r="O340" t="s">
         <v>30</v>
       </c>
@@ -27825,6 +30600,9 @@
       <c r="K341" t="s">
         <v>29</v>
       </c>
+      <c r="L341" t="s">
+        <v>2943</v>
+      </c>
       <c r="O341" t="s">
         <v>30</v>
       </c>
@@ -27882,6 +30660,9 @@
       <c r="K342" t="s">
         <v>29</v>
       </c>
+      <c r="L342" t="s">
+        <v>2944</v>
+      </c>
       <c r="O342" t="s">
         <v>30</v>
       </c>
@@ -27939,6 +30720,9 @@
       <c r="K343" t="s">
         <v>29</v>
       </c>
+      <c r="L343" t="s">
+        <v>2945</v>
+      </c>
       <c r="O343" t="s">
         <v>30</v>
       </c>
@@ -27996,6 +30780,9 @@
       <c r="K344" t="s">
         <v>29</v>
       </c>
+      <c r="L344" t="s">
+        <v>2946</v>
+      </c>
       <c r="O344" t="s">
         <v>30</v>
       </c>
@@ -28053,6 +30840,9 @@
       <c r="K345" t="s">
         <v>29</v>
       </c>
+      <c r="L345" t="s">
+        <v>2947</v>
+      </c>
       <c r="O345" t="s">
         <v>30</v>
       </c>
@@ -28110,6 +30900,9 @@
       <c r="K346" t="s">
         <v>29</v>
       </c>
+      <c r="L346" t="s">
+        <v>2948</v>
+      </c>
       <c r="O346" t="s">
         <v>30</v>
       </c>
@@ -28167,6 +30960,9 @@
       <c r="K347" t="s">
         <v>29</v>
       </c>
+      <c r="L347" t="s">
+        <v>2949</v>
+      </c>
       <c r="O347" t="s">
         <v>30</v>
       </c>
@@ -28224,6 +31020,9 @@
       <c r="K348" t="s">
         <v>29</v>
       </c>
+      <c r="L348" t="s">
+        <v>2950</v>
+      </c>
       <c r="O348" t="s">
         <v>30</v>
       </c>
@@ -28281,6 +31080,9 @@
       <c r="K349" t="s">
         <v>29</v>
       </c>
+      <c r="L349" t="s">
+        <v>2951</v>
+      </c>
       <c r="O349" t="s">
         <v>30</v>
       </c>
@@ -28338,6 +31140,9 @@
       <c r="K350" t="s">
         <v>29</v>
       </c>
+      <c r="L350" t="s">
+        <v>2952</v>
+      </c>
       <c r="O350" t="s">
         <v>30</v>
       </c>
@@ -28397,6 +31202,9 @@
       <c r="K351" t="s">
         <v>29</v>
       </c>
+      <c r="L351" t="s">
+        <v>2953</v>
+      </c>
       <c r="O351" t="s">
         <v>30</v>
       </c>
@@ -28456,6 +31264,9 @@
       <c r="K352" t="s">
         <v>29</v>
       </c>
+      <c r="L352" t="s">
+        <v>2954</v>
+      </c>
       <c r="O352" t="s">
         <v>30</v>
       </c>
@@ -28513,6 +31324,9 @@
       <c r="K353" t="s">
         <v>29</v>
       </c>
+      <c r="L353" t="s">
+        <v>2955</v>
+      </c>
       <c r="O353" t="s">
         <v>30</v>
       </c>
@@ -28572,6 +31386,9 @@
       <c r="K354" t="s">
         <v>29</v>
       </c>
+      <c r="L354" t="s">
+        <v>2956</v>
+      </c>
       <c r="O354" t="s">
         <v>30</v>
       </c>
@@ -28631,6 +31448,9 @@
       <c r="K355" t="s">
         <v>29</v>
       </c>
+      <c r="L355" t="s">
+        <v>2957</v>
+      </c>
       <c r="O355" t="s">
         <v>30</v>
       </c>
@@ -28688,6 +31508,9 @@
       <c r="K356" t="s">
         <v>29</v>
       </c>
+      <c r="L356" t="s">
+        <v>2958</v>
+      </c>
       <c r="O356" t="s">
         <v>30</v>
       </c>
@@ -28747,6 +31570,9 @@
       <c r="K357" t="s">
         <v>29</v>
       </c>
+      <c r="L357" t="s">
+        <v>2959</v>
+      </c>
       <c r="O357" t="s">
         <v>30</v>
       </c>
@@ -28806,6 +31632,9 @@
       <c r="K358" t="s">
         <v>29</v>
       </c>
+      <c r="L358" t="s">
+        <v>2960</v>
+      </c>
       <c r="O358" t="s">
         <v>30</v>
       </c>
@@ -28865,6 +31694,9 @@
       <c r="K359" t="s">
         <v>29</v>
       </c>
+      <c r="L359" t="s">
+        <v>2961</v>
+      </c>
       <c r="O359" t="s">
         <v>30</v>
       </c>
@@ -28922,6 +31754,9 @@
       <c r="K360" t="s">
         <v>29</v>
       </c>
+      <c r="L360" t="s">
+        <v>2962</v>
+      </c>
       <c r="O360" t="s">
         <v>30</v>
       </c>
@@ -28979,6 +31814,9 @@
       <c r="K361" t="s">
         <v>29</v>
       </c>
+      <c r="L361" t="s">
+        <v>2963</v>
+      </c>
       <c r="O361" t="s">
         <v>30</v>
       </c>
@@ -29037,6 +31875,9 @@
       </c>
       <c r="K362" t="s">
         <v>29</v>
+      </c>
+      <c r="L362" t="s">
+        <v>2964</v>
       </c>
       <c r="O362" t="s">
         <v>30</v>
@@ -29147,6 +31988,9 @@
       <c r="K364" t="s">
         <v>29</v>
       </c>
+      <c r="L364" t="s">
+        <v>2965</v>
+      </c>
       <c r="O364" t="s">
         <v>30</v>
       </c>
@@ -29206,6 +32050,9 @@
       <c r="K365" t="s">
         <v>29</v>
       </c>
+      <c r="L365" t="s">
+        <v>2966</v>
+      </c>
       <c r="O365" t="s">
         <v>30</v>
       </c>
@@ -29264,6 +32111,9 @@
       </c>
       <c r="K366" t="s">
         <v>29</v>
+      </c>
+      <c r="L366" t="s">
+        <v>2967</v>
       </c>
       <c r="O366" t="s">
         <v>30</v>
@@ -29426,6 +32276,9 @@
       <c r="K369" t="s">
         <v>29</v>
       </c>
+      <c r="L369" t="s">
+        <v>2968</v>
+      </c>
       <c r="O369" t="s">
         <v>30</v>
       </c>
@@ -29483,6 +32336,9 @@
       <c r="K370" t="s">
         <v>29</v>
       </c>
+      <c r="L370" t="s">
+        <v>2969</v>
+      </c>
       <c r="O370" t="s">
         <v>30</v>
       </c>
@@ -29542,6 +32398,9 @@
       <c r="K371" t="s">
         <v>29</v>
       </c>
+      <c r="L371" t="s">
+        <v>2970</v>
+      </c>
       <c r="O371" t="s">
         <v>30</v>
       </c>
@@ -29599,6 +32458,9 @@
       <c r="K372" t="s">
         <v>29</v>
       </c>
+      <c r="L372" t="s">
+        <v>2971</v>
+      </c>
       <c r="O372" t="s">
         <v>30</v>
       </c>
@@ -29658,6 +32520,9 @@
       <c r="K373" t="s">
         <v>29</v>
       </c>
+      <c r="L373" t="s">
+        <v>2972</v>
+      </c>
       <c r="O373" t="s">
         <v>30</v>
       </c>
@@ -29717,6 +32582,9 @@
       <c r="K374" t="s">
         <v>29</v>
       </c>
+      <c r="L374" t="s">
+        <v>2973</v>
+      </c>
       <c r="O374" t="s">
         <v>30</v>
       </c>
@@ -29774,6 +32642,9 @@
       <c r="K375" t="s">
         <v>29</v>
       </c>
+      <c r="L375" t="s">
+        <v>2974</v>
+      </c>
       <c r="O375" t="s">
         <v>30</v>
       </c>
@@ -29831,6 +32702,9 @@
       <c r="K376" t="s">
         <v>29</v>
       </c>
+      <c r="L376" t="s">
+        <v>2975</v>
+      </c>
       <c r="O376" t="s">
         <v>30</v>
       </c>
@@ -29888,6 +32762,9 @@
       <c r="K377" t="s">
         <v>29</v>
       </c>
+      <c r="L377" t="s">
+        <v>2976</v>
+      </c>
       <c r="O377" t="s">
         <v>30</v>
       </c>
@@ -29945,6 +32822,9 @@
       <c r="K378" t="s">
         <v>29</v>
       </c>
+      <c r="L378" t="s">
+        <v>2977</v>
+      </c>
       <c r="O378" t="s">
         <v>30</v>
       </c>
@@ -30002,6 +32882,9 @@
       <c r="K379" t="s">
         <v>29</v>
       </c>
+      <c r="L379" t="s">
+        <v>2978</v>
+      </c>
       <c r="O379" t="s">
         <v>30</v>
       </c>
@@ -30059,6 +32942,9 @@
       <c r="K380" t="s">
         <v>29</v>
       </c>
+      <c r="L380" t="s">
+        <v>2979</v>
+      </c>
       <c r="O380" t="s">
         <v>30</v>
       </c>
@@ -30118,6 +33004,9 @@
       <c r="K381" t="s">
         <v>29</v>
       </c>
+      <c r="L381" t="s">
+        <v>2980</v>
+      </c>
       <c r="O381" t="s">
         <v>30</v>
       </c>
@@ -30177,6 +33066,9 @@
       <c r="K382" t="s">
         <v>29</v>
       </c>
+      <c r="L382" t="s">
+        <v>2981</v>
+      </c>
       <c r="O382" t="s">
         <v>30</v>
       </c>
@@ -30234,6 +33126,9 @@
       <c r="K383" t="s">
         <v>29</v>
       </c>
+      <c r="L383" t="s">
+        <v>2982</v>
+      </c>
       <c r="O383" t="s">
         <v>30</v>
       </c>
@@ -30291,6 +33186,9 @@
       <c r="K384" t="s">
         <v>29</v>
       </c>
+      <c r="L384" t="s">
+        <v>2983</v>
+      </c>
       <c r="O384" t="s">
         <v>30</v>
       </c>
@@ -30348,6 +33246,9 @@
       <c r="K385" t="s">
         <v>29</v>
       </c>
+      <c r="L385" t="s">
+        <v>2984</v>
+      </c>
       <c r="O385" t="s">
         <v>30</v>
       </c>
@@ -30405,6 +33306,9 @@
       <c r="K386" t="s">
         <v>29</v>
       </c>
+      <c r="L386" t="s">
+        <v>2985</v>
+      </c>
       <c r="O386" t="s">
         <v>30</v>
       </c>
@@ -30462,6 +33366,9 @@
       <c r="K387" t="s">
         <v>29</v>
       </c>
+      <c r="L387" t="s">
+        <v>2986</v>
+      </c>
       <c r="O387" t="s">
         <v>30</v>
       </c>
@@ -30521,6 +33428,9 @@
       <c r="K388" t="s">
         <v>29</v>
       </c>
+      <c r="L388" t="s">
+        <v>2987</v>
+      </c>
       <c r="O388" t="s">
         <v>30</v>
       </c>
@@ -30578,6 +33488,9 @@
       <c r="K389" t="s">
         <v>29</v>
       </c>
+      <c r="L389" t="s">
+        <v>2988</v>
+      </c>
       <c r="O389" t="s">
         <v>30</v>
       </c>
@@ -30635,6 +33548,9 @@
       <c r="K390" t="s">
         <v>29</v>
       </c>
+      <c r="L390" t="s">
+        <v>2989</v>
+      </c>
       <c r="O390" t="s">
         <v>30</v>
       </c>
@@ -30692,6 +33608,9 @@
       <c r="K391" t="s">
         <v>29</v>
       </c>
+      <c r="L391" t="s">
+        <v>2990</v>
+      </c>
       <c r="O391" t="s">
         <v>30</v>
       </c>
@@ -30751,6 +33670,9 @@
       <c r="K392" t="s">
         <v>29</v>
       </c>
+      <c r="L392" t="s">
+        <v>2991</v>
+      </c>
       <c r="O392" t="s">
         <v>30</v>
       </c>
@@ -30808,6 +33730,9 @@
       <c r="K393" t="s">
         <v>29</v>
       </c>
+      <c r="L393" t="s">
+        <v>2992</v>
+      </c>
       <c r="O393" t="s">
         <v>30</v>
       </c>
@@ -30865,6 +33790,9 @@
       <c r="K394" t="s">
         <v>29</v>
       </c>
+      <c r="L394" t="s">
+        <v>2993</v>
+      </c>
       <c r="O394" t="s">
         <v>30</v>
       </c>
@@ -30924,6 +33852,9 @@
       <c r="K395" t="s">
         <v>29</v>
       </c>
+      <c r="L395" t="s">
+        <v>2994</v>
+      </c>
       <c r="O395" t="s">
         <v>30</v>
       </c>
@@ -30983,6 +33914,9 @@
       <c r="K396" t="s">
         <v>29</v>
       </c>
+      <c r="L396" t="s">
+        <v>2995</v>
+      </c>
       <c r="O396" t="s">
         <v>30</v>
       </c>
@@ -31040,6 +33974,9 @@
       <c r="K397" t="s">
         <v>29</v>
       </c>
+      <c r="L397" t="s">
+        <v>2996</v>
+      </c>
       <c r="O397" t="s">
         <v>30</v>
       </c>
@@ -31099,6 +34036,9 @@
       <c r="K398" t="s">
         <v>29</v>
       </c>
+      <c r="L398" t="s">
+        <v>2997</v>
+      </c>
       <c r="O398" t="s">
         <v>30</v>
       </c>
@@ -31156,6 +34096,9 @@
       <c r="K399" t="s">
         <v>29</v>
       </c>
+      <c r="L399" t="s">
+        <v>2998</v>
+      </c>
       <c r="O399" t="s">
         <v>30</v>
       </c>
@@ -31214,6 +34157,9 @@
       </c>
       <c r="K400" t="s">
         <v>29</v>
+      </c>
+      <c r="L400" t="s">
+        <v>2999</v>
       </c>
       <c r="O400" t="s">
         <v>30</v>
@@ -31326,6 +34272,9 @@
       <c r="K402" t="s">
         <v>29</v>
       </c>
+      <c r="L402" t="s">
+        <v>3000</v>
+      </c>
       <c r="O402" t="s">
         <v>30</v>
       </c>
@@ -31383,6 +34332,9 @@
       <c r="K403" t="s">
         <v>29</v>
       </c>
+      <c r="L403" t="s">
+        <v>3001</v>
+      </c>
       <c r="O403" t="s">
         <v>30</v>
       </c>
@@ -31440,6 +34392,9 @@
       <c r="K404" t="s">
         <v>29</v>
       </c>
+      <c r="L404" t="s">
+        <v>3002</v>
+      </c>
       <c r="O404" t="s">
         <v>30</v>
       </c>
@@ -31497,6 +34452,9 @@
       <c r="K405" t="s">
         <v>29</v>
       </c>
+      <c r="L405" t="s">
+        <v>3003</v>
+      </c>
       <c r="O405" t="s">
         <v>30</v>
       </c>
@@ -31554,6 +34512,9 @@
       <c r="K406" t="s">
         <v>29</v>
       </c>
+      <c r="L406" t="s">
+        <v>3004</v>
+      </c>
       <c r="O406" t="s">
         <v>30</v>
       </c>
@@ -31611,6 +34572,9 @@
       <c r="K407" t="s">
         <v>29</v>
       </c>
+      <c r="L407" t="s">
+        <v>3005</v>
+      </c>
       <c r="O407" t="s">
         <v>30</v>
       </c>
@@ -31669,6 +34633,9 @@
       </c>
       <c r="K408" t="s">
         <v>29</v>
+      </c>
+      <c r="L408" t="s">
+        <v>3006</v>
       </c>
       <c r="O408" t="s">
         <v>30</v>
@@ -31779,6 +34746,9 @@
       <c r="K410" t="s">
         <v>29</v>
       </c>
+      <c r="L410" t="s">
+        <v>3007</v>
+      </c>
       <c r="O410" t="s">
         <v>30</v>
       </c>
@@ -31838,6 +34808,9 @@
       <c r="K411" t="s">
         <v>29</v>
       </c>
+      <c r="L411" t="s">
+        <v>3008</v>
+      </c>
       <c r="O411" t="s">
         <v>30</v>
       </c>
@@ -31895,6 +34868,9 @@
       <c r="K412" t="s">
         <v>29</v>
       </c>
+      <c r="L412" t="s">
+        <v>3009</v>
+      </c>
       <c r="O412" t="s">
         <v>30</v>
       </c>
@@ -31952,6 +34928,9 @@
       <c r="K413" t="s">
         <v>29</v>
       </c>
+      <c r="L413" t="s">
+        <v>3010</v>
+      </c>
       <c r="O413" t="s">
         <v>30</v>
       </c>
@@ -32009,6 +34988,9 @@
       <c r="K414" t="s">
         <v>29</v>
       </c>
+      <c r="L414" t="s">
+        <v>3011</v>
+      </c>
       <c r="O414" t="s">
         <v>30</v>
       </c>
@@ -32066,6 +35048,9 @@
       <c r="K415" t="s">
         <v>29</v>
       </c>
+      <c r="L415" t="s">
+        <v>3012</v>
+      </c>
       <c r="O415" t="s">
         <v>30</v>
       </c>
@@ -32125,6 +35110,9 @@
       <c r="K416" t="s">
         <v>29</v>
       </c>
+      <c r="L416" t="s">
+        <v>3013</v>
+      </c>
       <c r="O416" t="s">
         <v>30</v>
       </c>
@@ -32184,6 +35172,9 @@
       <c r="K417" t="s">
         <v>29</v>
       </c>
+      <c r="L417" t="s">
+        <v>3014</v>
+      </c>
       <c r="O417" t="s">
         <v>30</v>
       </c>
@@ -32241,6 +35232,9 @@
       <c r="K418" t="s">
         <v>29</v>
       </c>
+      <c r="L418" t="s">
+        <v>3015</v>
+      </c>
       <c r="O418" t="s">
         <v>30</v>
       </c>
@@ -32300,6 +35294,9 @@
       <c r="K419" t="s">
         <v>29</v>
       </c>
+      <c r="L419" t="s">
+        <v>3016</v>
+      </c>
       <c r="O419" t="s">
         <v>30</v>
       </c>
@@ -32357,6 +35354,9 @@
       <c r="K420" t="s">
         <v>29</v>
       </c>
+      <c r="L420" t="s">
+        <v>3017</v>
+      </c>
       <c r="O420" t="s">
         <v>30</v>
       </c>
@@ -32414,6 +35414,9 @@
       <c r="K421" t="s">
         <v>29</v>
       </c>
+      <c r="L421" t="s">
+        <v>3018</v>
+      </c>
       <c r="O421" t="s">
         <v>30</v>
       </c>
@@ -32471,6 +35474,9 @@
       <c r="K422" t="s">
         <v>29</v>
       </c>
+      <c r="L422" t="s">
+        <v>3019</v>
+      </c>
       <c r="O422" t="s">
         <v>30</v>
       </c>
@@ -32530,6 +35536,9 @@
       <c r="K423" t="s">
         <v>29</v>
       </c>
+      <c r="L423" t="s">
+        <v>3020</v>
+      </c>
       <c r="O423" t="s">
         <v>30</v>
       </c>
@@ -32589,6 +35598,9 @@
       <c r="K424" t="s">
         <v>29</v>
       </c>
+      <c r="L424" t="s">
+        <v>3021</v>
+      </c>
       <c r="O424" t="s">
         <v>30</v>
       </c>
@@ -32646,6 +35658,9 @@
       <c r="K425" t="s">
         <v>29</v>
       </c>
+      <c r="L425" t="s">
+        <v>3022</v>
+      </c>
       <c r="O425" t="s">
         <v>30</v>
       </c>
@@ -32704,6 +35719,9 @@
       </c>
       <c r="K426" t="s">
         <v>29</v>
+      </c>
+      <c r="L426" t="s">
+        <v>3023</v>
       </c>
       <c r="O426" t="s">
         <v>30</v>
@@ -32814,6 +35832,9 @@
       <c r="K428" t="s">
         <v>29</v>
       </c>
+      <c r="L428" t="s">
+        <v>3024</v>
+      </c>
       <c r="O428" t="s">
         <v>30</v>
       </c>
@@ -32872,6 +35893,9 @@
       </c>
       <c r="K429" t="s">
         <v>29</v>
+      </c>
+      <c r="L429" t="s">
+        <v>3025</v>
       </c>
       <c r="O429" t="s">
         <v>30</v>
@@ -32982,6 +36006,9 @@
       <c r="K431" t="s">
         <v>29</v>
       </c>
+      <c r="L431" t="s">
+        <v>3026</v>
+      </c>
       <c r="O431" t="s">
         <v>30</v>
       </c>
@@ -33031,6 +36058,9 @@
       <c r="K432" t="s">
         <v>29</v>
       </c>
+      <c r="L432" t="s">
+        <v>3027</v>
+      </c>
       <c r="O432" t="s">
         <v>30</v>
       </c>
@@ -33088,6 +36118,9 @@
       <c r="K433" t="s">
         <v>29</v>
       </c>
+      <c r="L433" t="s">
+        <v>3028</v>
+      </c>
       <c r="O433" t="s">
         <v>30</v>
       </c>
@@ -33145,6 +36178,9 @@
       <c r="K434" t="s">
         <v>29</v>
       </c>
+      <c r="L434" t="s">
+        <v>3029</v>
+      </c>
       <c r="O434" t="s">
         <v>30</v>
       </c>
@@ -33202,6 +36238,9 @@
       <c r="K435" t="s">
         <v>29</v>
       </c>
+      <c r="L435" t="s">
+        <v>3030</v>
+      </c>
       <c r="O435" t="s">
         <v>30</v>
       </c>
@@ -33261,6 +36300,9 @@
       <c r="K436" t="s">
         <v>29</v>
       </c>
+      <c r="L436" t="s">
+        <v>3031</v>
+      </c>
       <c r="O436" t="s">
         <v>30</v>
       </c>
@@ -33318,6 +36360,9 @@
       <c r="K437" t="s">
         <v>29</v>
       </c>
+      <c r="L437" t="s">
+        <v>3032</v>
+      </c>
       <c r="O437" t="s">
         <v>30</v>
       </c>
@@ -33375,6 +36420,9 @@
       <c r="K438" t="s">
         <v>29</v>
       </c>
+      <c r="L438" t="s">
+        <v>3033</v>
+      </c>
       <c r="O438" t="s">
         <v>30</v>
       </c>
@@ -33432,6 +36480,9 @@
       <c r="K439" t="s">
         <v>29</v>
       </c>
+      <c r="L439" t="s">
+        <v>3034</v>
+      </c>
       <c r="O439" t="s">
         <v>30</v>
       </c>
@@ -33489,6 +36540,9 @@
       <c r="K440" t="s">
         <v>29</v>
       </c>
+      <c r="L440" t="s">
+        <v>3035</v>
+      </c>
       <c r="O440" t="s">
         <v>30</v>
       </c>
@@ -33546,6 +36600,9 @@
       <c r="K441" t="s">
         <v>29</v>
       </c>
+      <c r="L441" t="s">
+        <v>3036</v>
+      </c>
       <c r="O441" t="s">
         <v>30</v>
       </c>
@@ -33603,6 +36660,9 @@
       <c r="K442" t="s">
         <v>29</v>
       </c>
+      <c r="L442" t="s">
+        <v>3037</v>
+      </c>
       <c r="O442" t="s">
         <v>30</v>
       </c>
@@ -33662,6 +36722,9 @@
       <c r="K443" t="s">
         <v>29</v>
       </c>
+      <c r="L443" t="s">
+        <v>3038</v>
+      </c>
       <c r="O443" t="s">
         <v>30</v>
       </c>
@@ -33721,6 +36784,9 @@
       <c r="K444" t="s">
         <v>29</v>
       </c>
+      <c r="L444" t="s">
+        <v>3039</v>
+      </c>
       <c r="O444" t="s">
         <v>30</v>
       </c>
@@ -33778,6 +36844,9 @@
       <c r="K445" t="s">
         <v>29</v>
       </c>
+      <c r="L445" t="s">
+        <v>3040</v>
+      </c>
       <c r="O445" t="s">
         <v>30</v>
       </c>
@@ -33835,6 +36904,9 @@
       <c r="K446" t="s">
         <v>29</v>
       </c>
+      <c r="L446" t="s">
+        <v>3041</v>
+      </c>
       <c r="O446" t="s">
         <v>30</v>
       </c>
@@ -33892,6 +36964,9 @@
       <c r="K447" t="s">
         <v>29</v>
       </c>
+      <c r="L447" t="s">
+        <v>3042</v>
+      </c>
       <c r="O447" t="s">
         <v>30</v>
       </c>
@@ -33949,6 +37024,9 @@
       <c r="K448" t="s">
         <v>29</v>
       </c>
+      <c r="L448" t="s">
+        <v>3043</v>
+      </c>
       <c r="O448" t="s">
         <v>30</v>
       </c>
@@ -34006,6 +37084,9 @@
       <c r="K449" t="s">
         <v>29</v>
       </c>
+      <c r="L449" t="s">
+        <v>3044</v>
+      </c>
       <c r="O449" t="s">
         <v>30</v>
       </c>
@@ -34063,6 +37144,9 @@
       <c r="K450" t="s">
         <v>29</v>
       </c>
+      <c r="L450" t="s">
+        <v>3045</v>
+      </c>
       <c r="O450" t="s">
         <v>30</v>
       </c>
@@ -34120,6 +37204,9 @@
       <c r="K451" t="s">
         <v>29</v>
       </c>
+      <c r="L451" t="s">
+        <v>3046</v>
+      </c>
       <c r="O451" t="s">
         <v>30</v>
       </c>
@@ -34177,6 +37264,9 @@
       <c r="K452" t="s">
         <v>29</v>
       </c>
+      <c r="L452" t="s">
+        <v>3047</v>
+      </c>
       <c r="O452" t="s">
         <v>30</v>
       </c>
@@ -34234,6 +37324,9 @@
       <c r="K453" t="s">
         <v>29</v>
       </c>
+      <c r="L453" t="s">
+        <v>3048</v>
+      </c>
       <c r="O453" t="s">
         <v>30</v>
       </c>
@@ -34291,6 +37384,9 @@
       <c r="K454" t="s">
         <v>29</v>
       </c>
+      <c r="L454" t="s">
+        <v>3049</v>
+      </c>
       <c r="O454" t="s">
         <v>30</v>
       </c>
@@ -34348,6 +37444,9 @@
       <c r="K455" t="s">
         <v>29</v>
       </c>
+      <c r="L455" t="s">
+        <v>3050</v>
+      </c>
       <c r="O455" t="s">
         <v>30</v>
       </c>
@@ -34405,6 +37504,9 @@
       <c r="K456" t="s">
         <v>29</v>
       </c>
+      <c r="L456" t="s">
+        <v>3051</v>
+      </c>
       <c r="O456" t="s">
         <v>30</v>
       </c>
@@ -34462,6 +37564,9 @@
       <c r="K457" t="s">
         <v>29</v>
       </c>
+      <c r="L457" t="s">
+        <v>3052</v>
+      </c>
       <c r="O457" t="s">
         <v>30</v>
       </c>
@@ -34519,6 +37624,9 @@
       <c r="K458" t="s">
         <v>29</v>
       </c>
+      <c r="L458" t="s">
+        <v>3053</v>
+      </c>
       <c r="O458" t="s">
         <v>30</v>
       </c>
@@ -34576,6 +37684,9 @@
       <c r="K459" t="s">
         <v>29</v>
       </c>
+      <c r="L459" t="s">
+        <v>3054</v>
+      </c>
       <c r="O459" t="s">
         <v>30</v>
       </c>
@@ -34633,6 +37744,9 @@
       <c r="K460" t="s">
         <v>29</v>
       </c>
+      <c r="L460" t="s">
+        <v>3055</v>
+      </c>
       <c r="O460" t="s">
         <v>30</v>
       </c>
@@ -34690,6 +37804,9 @@
       <c r="K461" t="s">
         <v>29</v>
       </c>
+      <c r="L461" t="s">
+        <v>3056</v>
+      </c>
       <c r="O461" t="s">
         <v>30</v>
       </c>
@@ -34747,6 +37864,9 @@
       <c r="K462" t="s">
         <v>29</v>
       </c>
+      <c r="L462" t="s">
+        <v>3057</v>
+      </c>
       <c r="O462" t="s">
         <v>30</v>
       </c>
@@ -34806,6 +37926,9 @@
       <c r="K463" t="s">
         <v>29</v>
       </c>
+      <c r="L463" t="s">
+        <v>3058</v>
+      </c>
       <c r="O463" t="s">
         <v>30</v>
       </c>
@@ -34862,6 +37985,9 @@
       </c>
       <c r="K464" t="s">
         <v>29</v>
+      </c>
+      <c r="L464" t="s">
+        <v>3059</v>
       </c>
       <c r="O464" t="s">
         <v>30</v>
@@ -35026,6 +38152,9 @@
       <c r="K467" t="s">
         <v>29</v>
       </c>
+      <c r="L467" t="s">
+        <v>3060</v>
+      </c>
       <c r="O467" t="s">
         <v>30</v>
       </c>
@@ -35085,6 +38214,9 @@
       <c r="K468" t="s">
         <v>29</v>
       </c>
+      <c r="L468" t="s">
+        <v>3061</v>
+      </c>
       <c r="O468" t="s">
         <v>30</v>
       </c>
@@ -35142,6 +38274,9 @@
       <c r="K469" t="s">
         <v>29</v>
       </c>
+      <c r="L469" t="s">
+        <v>3062</v>
+      </c>
       <c r="O469" t="s">
         <v>30</v>
       </c>
@@ -35198,6 +38333,9 @@
       </c>
       <c r="K470" t="s">
         <v>29</v>
+      </c>
+      <c r="L470" t="s">
+        <v>3063</v>
       </c>
       <c r="O470" t="s">
         <v>30</v>
@@ -35310,6 +38448,9 @@
       <c r="K472" t="s">
         <v>29</v>
       </c>
+      <c r="L472" t="s">
+        <v>3064</v>
+      </c>
       <c r="O472" t="s">
         <v>30</v>
       </c>
@@ -35367,6 +38508,9 @@
       <c r="K473" t="s">
         <v>29</v>
       </c>
+      <c r="L473" t="s">
+        <v>3065</v>
+      </c>
       <c r="O473" t="s">
         <v>30</v>
       </c>
@@ -35426,6 +38570,9 @@
       <c r="K474" t="s">
         <v>29</v>
       </c>
+      <c r="L474" t="s">
+        <v>3066</v>
+      </c>
       <c r="O474" t="s">
         <v>30</v>
       </c>
@@ -35483,6 +38630,9 @@
       <c r="K475" t="s">
         <v>29</v>
       </c>
+      <c r="L475" t="s">
+        <v>3067</v>
+      </c>
       <c r="O475" t="s">
         <v>30</v>
       </c>
@@ -35540,6 +38690,9 @@
       <c r="K476" t="s">
         <v>29</v>
       </c>
+      <c r="L476" t="s">
+        <v>3068</v>
+      </c>
       <c r="O476" t="s">
         <v>30</v>
       </c>
@@ -35597,6 +38750,9 @@
       <c r="K477" t="s">
         <v>29</v>
       </c>
+      <c r="L477" t="s">
+        <v>3069</v>
+      </c>
       <c r="O477" t="s">
         <v>30</v>
       </c>
@@ -35654,6 +38810,9 @@
       <c r="K478" t="s">
         <v>29</v>
       </c>
+      <c r="L478" t="s">
+        <v>3070</v>
+      </c>
       <c r="O478" t="s">
         <v>30</v>
       </c>
@@ -35711,6 +38870,9 @@
       <c r="K479" t="s">
         <v>29</v>
       </c>
+      <c r="L479" t="s">
+        <v>3071</v>
+      </c>
       <c r="O479" t="s">
         <v>30</v>
       </c>
@@ -35768,6 +38930,9 @@
       <c r="K480" t="s">
         <v>29</v>
       </c>
+      <c r="L480" t="s">
+        <v>3072</v>
+      </c>
       <c r="O480" t="s">
         <v>30</v>
       </c>
@@ -35825,6 +38990,9 @@
       <c r="K481" t="s">
         <v>29</v>
       </c>
+      <c r="L481" t="s">
+        <v>3073</v>
+      </c>
       <c r="O481" t="s">
         <v>30</v>
       </c>
@@ -35882,6 +39050,9 @@
       <c r="K482" t="s">
         <v>29</v>
       </c>
+      <c r="L482" t="s">
+        <v>3074</v>
+      </c>
       <c r="O482" t="s">
         <v>30</v>
       </c>
@@ -35939,6 +39110,9 @@
       <c r="K483" t="s">
         <v>29</v>
       </c>
+      <c r="L483" t="s">
+        <v>3075</v>
+      </c>
       <c r="O483" t="s">
         <v>30</v>
       </c>
@@ -35996,6 +39170,9 @@
       <c r="K484" t="s">
         <v>29</v>
       </c>
+      <c r="L484" t="s">
+        <v>3076</v>
+      </c>
       <c r="O484" t="s">
         <v>30</v>
       </c>
@@ -36055,6 +39232,9 @@
       <c r="K485" t="s">
         <v>29</v>
       </c>
+      <c r="L485" t="s">
+        <v>3077</v>
+      </c>
       <c r="O485" t="s">
         <v>30</v>
       </c>
@@ -36114,6 +39294,9 @@
       <c r="K486" t="s">
         <v>29</v>
       </c>
+      <c r="L486" t="s">
+        <v>3078</v>
+      </c>
       <c r="O486" t="s">
         <v>30</v>
       </c>
@@ -36171,6 +39354,9 @@
       <c r="K487" t="s">
         <v>29</v>
       </c>
+      <c r="L487" t="s">
+        <v>3079</v>
+      </c>
       <c r="O487" t="s">
         <v>30</v>
       </c>
@@ -36228,6 +39414,9 @@
       <c r="K488" t="s">
         <v>29</v>
       </c>
+      <c r="L488" t="s">
+        <v>3080</v>
+      </c>
       <c r="O488" t="s">
         <v>30</v>
       </c>
@@ -36285,6 +39474,9 @@
       <c r="K489" t="s">
         <v>29</v>
       </c>
+      <c r="L489" t="s">
+        <v>3081</v>
+      </c>
       <c r="O489" t="s">
         <v>30</v>
       </c>
@@ -36342,6 +39534,9 @@
       <c r="K490" t="s">
         <v>29</v>
       </c>
+      <c r="L490" t="s">
+        <v>3082</v>
+      </c>
       <c r="O490" t="s">
         <v>30</v>
       </c>
@@ -36398,6 +39593,9 @@
       </c>
       <c r="K491" t="s">
         <v>29</v>
+      </c>
+      <c r="L491" t="s">
+        <v>3083</v>
       </c>
       <c r="O491" t="s">
         <v>30</v>
@@ -36560,6 +39758,9 @@
       <c r="K494" t="s">
         <v>29</v>
       </c>
+      <c r="L494" t="s">
+        <v>3084</v>
+      </c>
       <c r="O494" t="s">
         <v>30</v>
       </c>
@@ -36669,6 +39870,9 @@
       <c r="K496" t="s">
         <v>29</v>
       </c>
+      <c r="L496" t="s">
+        <v>3085</v>
+      </c>
       <c r="O496" t="s">
         <v>30</v>
       </c>
@@ -36726,6 +39930,9 @@
       <c r="K497" t="s">
         <v>29</v>
       </c>
+      <c r="L497" t="s">
+        <v>3086</v>
+      </c>
       <c r="O497" t="s">
         <v>30</v>
       </c>
@@ -36785,6 +39992,9 @@
       <c r="K498" t="s">
         <v>29</v>
       </c>
+      <c r="L498" t="s">
+        <v>3087</v>
+      </c>
       <c r="O498" t="s">
         <v>30</v>
       </c>
@@ -36844,6 +40054,9 @@
       <c r="K499" t="s">
         <v>29</v>
       </c>
+      <c r="L499" t="s">
+        <v>3088</v>
+      </c>
       <c r="O499" t="s">
         <v>30</v>
       </c>
@@ -36903,6 +40116,9 @@
       <c r="K500" t="s">
         <v>29</v>
       </c>
+      <c r="L500" t="s">
+        <v>3089</v>
+      </c>
       <c r="O500" t="s">
         <v>30</v>
       </c>
@@ -36960,6 +40176,9 @@
       <c r="K501" t="s">
         <v>29</v>
       </c>
+      <c r="L501" t="s">
+        <v>3090</v>
+      </c>
       <c r="O501" t="s">
         <v>30</v>
       </c>
@@ -37157,6 +40376,9 @@
       <c r="K504" t="s">
         <v>29</v>
       </c>
+      <c r="L504" t="s">
+        <v>3091</v>
+      </c>
       <c r="O504" t="s">
         <v>30</v>
       </c>
@@ -37352,6 +40574,9 @@
       <c r="K507" t="s">
         <v>29</v>
       </c>
+      <c r="L507" t="s">
+        <v>3092</v>
+      </c>
       <c r="O507" t="s">
         <v>30</v>
       </c>
@@ -37409,6 +40634,9 @@
       <c r="K508" t="s">
         <v>29</v>
       </c>
+      <c r="L508" t="s">
+        <v>3093</v>
+      </c>
       <c r="O508" t="s">
         <v>30</v>
       </c>
@@ -37468,6 +40696,9 @@
       <c r="K509" t="s">
         <v>29</v>
       </c>
+      <c r="L509" t="s">
+        <v>3094</v>
+      </c>
       <c r="O509" t="s">
         <v>30</v>
       </c>
@@ -37527,6 +40758,9 @@
       <c r="K510" t="s">
         <v>29</v>
       </c>
+      <c r="L510" t="s">
+        <v>3095</v>
+      </c>
       <c r="O510" t="s">
         <v>30</v>
       </c>
@@ -37586,6 +40820,9 @@
       <c r="K511" t="s">
         <v>29</v>
       </c>
+      <c r="L511" t="s">
+        <v>3096</v>
+      </c>
       <c r="O511" t="s">
         <v>30</v>
       </c>
@@ -37643,6 +40880,9 @@
       <c r="K512" t="s">
         <v>29</v>
       </c>
+      <c r="L512" t="s">
+        <v>3097</v>
+      </c>
       <c r="O512" t="s">
         <v>30</v>
       </c>
@@ -37701,6 +40941,9 @@
       </c>
       <c r="K513" t="s">
         <v>29</v>
+      </c>
+      <c r="L513" t="s">
+        <v>3098</v>
       </c>
       <c r="O513" t="s">
         <v>30</v>
@@ -37803,6 +41046,9 @@
       <c r="K515" t="s">
         <v>29</v>
       </c>
+      <c r="L515" t="s">
+        <v>3099</v>
+      </c>
       <c r="O515" t="s">
         <v>30</v>
       </c>
@@ -37860,6 +41106,9 @@
       <c r="K516" t="s">
         <v>29</v>
       </c>
+      <c r="L516" t="s">
+        <v>3100</v>
+      </c>
       <c r="O516" t="s">
         <v>30</v>
       </c>
@@ -37917,6 +41166,9 @@
       <c r="K517" t="s">
         <v>29</v>
       </c>
+      <c r="L517" t="s">
+        <v>3101</v>
+      </c>
       <c r="O517" t="s">
         <v>30</v>
       </c>
@@ -37974,6 +41226,9 @@
       <c r="K518" t="s">
         <v>29</v>
       </c>
+      <c r="L518" t="s">
+        <v>3102</v>
+      </c>
       <c r="O518" t="s">
         <v>30</v>
       </c>
@@ -38033,6 +41288,9 @@
       <c r="K519" t="s">
         <v>29</v>
       </c>
+      <c r="L519" t="s">
+        <v>3103</v>
+      </c>
       <c r="O519" t="s">
         <v>30</v>
       </c>
@@ -38090,6 +41348,9 @@
       <c r="K520" t="s">
         <v>29</v>
       </c>
+      <c r="L520" t="s">
+        <v>3104</v>
+      </c>
       <c r="O520" t="s">
         <v>30</v>
       </c>
@@ -38147,6 +41408,9 @@
       <c r="K521" t="s">
         <v>29</v>
       </c>
+      <c r="L521" t="s">
+        <v>3105</v>
+      </c>
       <c r="O521" t="s">
         <v>30</v>
       </c>
@@ -38204,6 +41468,9 @@
       <c r="K522" t="s">
         <v>29</v>
       </c>
+      <c r="L522" t="s">
+        <v>3106</v>
+      </c>
       <c r="O522" t="s">
         <v>30</v>
       </c>
@@ -38261,6 +41528,9 @@
       <c r="K523" t="s">
         <v>29</v>
       </c>
+      <c r="L523" t="s">
+        <v>3107</v>
+      </c>
       <c r="O523" t="s">
         <v>30</v>
       </c>
@@ -38320,6 +41590,9 @@
       <c r="K524" t="s">
         <v>29</v>
       </c>
+      <c r="L524" t="s">
+        <v>3108</v>
+      </c>
       <c r="O524" t="s">
         <v>30</v>
       </c>
@@ -38377,6 +41650,9 @@
       <c r="K525" t="s">
         <v>29</v>
       </c>
+      <c r="L525" t="s">
+        <v>3109</v>
+      </c>
       <c r="O525" t="s">
         <v>30</v>
       </c>
@@ -38434,6 +41710,9 @@
       <c r="K526" t="s">
         <v>29</v>
       </c>
+      <c r="L526" t="s">
+        <v>3110</v>
+      </c>
       <c r="O526" t="s">
         <v>30</v>
       </c>
@@ -38491,6 +41770,9 @@
       <c r="K527" t="s">
         <v>29</v>
       </c>
+      <c r="L527" t="s">
+        <v>3111</v>
+      </c>
       <c r="O527" t="s">
         <v>30</v>
       </c>
@@ -38548,6 +41830,9 @@
       <c r="K528" t="s">
         <v>29</v>
       </c>
+      <c r="L528" t="s">
+        <v>3112</v>
+      </c>
       <c r="O528" t="s">
         <v>30</v>
       </c>
@@ -38605,6 +41890,9 @@
       <c r="K529" t="s">
         <v>29</v>
       </c>
+      <c r="L529" t="s">
+        <v>3113</v>
+      </c>
       <c r="O529" t="s">
         <v>30</v>
       </c>
@@ -38662,6 +41950,9 @@
       <c r="K530" t="s">
         <v>29</v>
       </c>
+      <c r="L530" t="s">
+        <v>3114</v>
+      </c>
       <c r="O530" t="s">
         <v>30</v>
       </c>
@@ -38719,6 +42010,9 @@
       <c r="K531" t="s">
         <v>29</v>
       </c>
+      <c r="L531" t="s">
+        <v>3115</v>
+      </c>
       <c r="O531" t="s">
         <v>30</v>
       </c>
@@ -38776,6 +42070,9 @@
       <c r="K532" t="s">
         <v>29</v>
       </c>
+      <c r="L532" t="s">
+        <v>3116</v>
+      </c>
       <c r="O532" t="s">
         <v>30</v>
       </c>
@@ -38833,6 +42130,9 @@
       <c r="K533" t="s">
         <v>29</v>
       </c>
+      <c r="L533" t="s">
+        <v>3117</v>
+      </c>
       <c r="O533" t="s">
         <v>30</v>
       </c>
@@ -38890,6 +42190,9 @@
       <c r="K534" t="s">
         <v>29</v>
       </c>
+      <c r="L534" t="s">
+        <v>3118</v>
+      </c>
       <c r="O534" t="s">
         <v>30</v>
       </c>
@@ -38947,6 +42250,9 @@
       <c r="K535" t="s">
         <v>29</v>
       </c>
+      <c r="L535" t="s">
+        <v>3119</v>
+      </c>
       <c r="O535" t="s">
         <v>30</v>
       </c>
@@ -39004,6 +42310,9 @@
       <c r="K536" t="s">
         <v>29</v>
       </c>
+      <c r="L536" t="s">
+        <v>3120</v>
+      </c>
       <c r="O536" t="s">
         <v>30</v>
       </c>
@@ -39061,6 +42370,9 @@
       <c r="K537" t="s">
         <v>29</v>
       </c>
+      <c r="L537" t="s">
+        <v>3121</v>
+      </c>
       <c r="O537" t="s">
         <v>30</v>
       </c>
@@ -39118,6 +42430,9 @@
       <c r="K538" t="s">
         <v>29</v>
       </c>
+      <c r="L538" t="s">
+        <v>3122</v>
+      </c>
       <c r="O538" t="s">
         <v>30</v>
       </c>
@@ -39175,6 +42490,9 @@
       <c r="K539" t="s">
         <v>29</v>
       </c>
+      <c r="L539" t="s">
+        <v>3123</v>
+      </c>
       <c r="O539" t="s">
         <v>30</v>
       </c>
@@ -39232,6 +42550,9 @@
       <c r="K540" t="s">
         <v>29</v>
       </c>
+      <c r="L540" t="s">
+        <v>3124</v>
+      </c>
       <c r="O540" t="s">
         <v>30</v>
       </c>
@@ -39289,6 +42610,9 @@
       <c r="K541" t="s">
         <v>29</v>
       </c>
+      <c r="L541" t="s">
+        <v>3125</v>
+      </c>
       <c r="O541" t="s">
         <v>30</v>
       </c>
@@ -39348,6 +42672,9 @@
       <c r="K542" t="s">
         <v>29</v>
       </c>
+      <c r="L542" t="s">
+        <v>3126</v>
+      </c>
       <c r="O542" t="s">
         <v>30</v>
       </c>
@@ -39405,6 +42732,9 @@
       <c r="K543" t="s">
         <v>29</v>
       </c>
+      <c r="L543" t="s">
+        <v>3127</v>
+      </c>
       <c r="O543" t="s">
         <v>30</v>
       </c>
@@ -39461,6 +42791,9 @@
       </c>
       <c r="K544" t="s">
         <v>29</v>
+      </c>
+      <c r="L544" t="s">
+        <v>3128</v>
       </c>
       <c r="O544" t="s">
         <v>30</v>
@@ -39513,6 +42846,9 @@
       <c r="K545" t="s">
         <v>29</v>
       </c>
+      <c r="L545" t="s">
+        <v>3129</v>
+      </c>
       <c r="O545" t="s">
         <v>30</v>
       </c>
@@ -39569,6 +42905,9 @@
       </c>
       <c r="K546" t="s">
         <v>29</v>
+      </c>
+      <c r="L546" t="s">
+        <v>3130</v>
       </c>
       <c r="O546" t="s">
         <v>30</v>
@@ -39621,6 +42960,9 @@
       <c r="K547" t="s">
         <v>29</v>
       </c>
+      <c r="L547" t="s">
+        <v>3131</v>
+      </c>
       <c r="O547" t="s">
         <v>30</v>
       </c>
@@ -39678,6 +43020,9 @@
       <c r="K548" t="s">
         <v>29</v>
       </c>
+      <c r="L548" t="s">
+        <v>3132</v>
+      </c>
       <c r="O548" t="s">
         <v>30</v>
       </c>
@@ -39737,6 +43082,9 @@
       <c r="K549" t="s">
         <v>29</v>
       </c>
+      <c r="L549" t="s">
+        <v>3133</v>
+      </c>
       <c r="O549" t="s">
         <v>30</v>
       </c>
@@ -39794,6 +43142,9 @@
       <c r="K550" t="s">
         <v>29</v>
       </c>
+      <c r="L550" t="s">
+        <v>3134</v>
+      </c>
       <c r="O550" t="s">
         <v>30</v>
       </c>
@@ -39851,6 +43202,9 @@
       <c r="K551" t="s">
         <v>29</v>
       </c>
+      <c r="L551" t="s">
+        <v>3135</v>
+      </c>
       <c r="O551" t="s">
         <v>30</v>
       </c>
@@ -39907,6 +43261,9 @@
       </c>
       <c r="K552" t="s">
         <v>29</v>
+      </c>
+      <c r="L552" t="s">
+        <v>3136</v>
       </c>
       <c r="O552" t="s">
         <v>30</v>
@@ -39959,6 +43316,9 @@
       <c r="K553" t="s">
         <v>29</v>
       </c>
+      <c r="L553" t="s">
+        <v>3137</v>
+      </c>
       <c r="O553" t="s">
         <v>30</v>
       </c>
@@ -40016,6 +43376,9 @@
       <c r="K554" t="s">
         <v>29</v>
       </c>
+      <c r="L554" t="s">
+        <v>3138</v>
+      </c>
       <c r="O554" t="s">
         <v>30</v>
       </c>
@@ -40073,6 +43436,9 @@
       <c r="K555" t="s">
         <v>29</v>
       </c>
+      <c r="L555" t="s">
+        <v>3139</v>
+      </c>
       <c r="O555" t="s">
         <v>30</v>
       </c>
@@ -40130,6 +43496,9 @@
       <c r="K556" t="s">
         <v>29</v>
       </c>
+      <c r="L556" t="s">
+        <v>3140</v>
+      </c>
       <c r="O556" t="s">
         <v>30</v>
       </c>
@@ -40187,6 +43556,9 @@
       <c r="K557" t="s">
         <v>29</v>
       </c>
+      <c r="L557" t="s">
+        <v>3141</v>
+      </c>
       <c r="O557" t="s">
         <v>30</v>
       </c>
@@ -40244,6 +43616,9 @@
       <c r="K558" t="s">
         <v>29</v>
       </c>
+      <c r="L558" t="s">
+        <v>3142</v>
+      </c>
       <c r="O558" t="s">
         <v>30</v>
       </c>
@@ -40300,6 +43675,9 @@
       </c>
       <c r="K559" t="s">
         <v>29</v>
+      </c>
+      <c r="L559" t="s">
+        <v>3143</v>
       </c>
       <c r="O559" t="s">
         <v>30</v>
@@ -40352,6 +43730,9 @@
       <c r="K560" t="s">
         <v>29</v>
       </c>
+      <c r="L560" t="s">
+        <v>3144</v>
+      </c>
       <c r="O560" t="s">
         <v>30</v>
       </c>
@@ -40403,6 +43784,9 @@
       <c r="K561" t="s">
         <v>29</v>
       </c>
+      <c r="L561" t="s">
+        <v>3145</v>
+      </c>
       <c r="O561" t="s">
         <v>30</v>
       </c>
@@ -40454,6 +43838,9 @@
       <c r="K562" t="s">
         <v>29</v>
       </c>
+      <c r="L562" t="s">
+        <v>3146</v>
+      </c>
       <c r="O562" t="s">
         <v>30</v>
       </c>
@@ -40505,6 +43892,9 @@
       <c r="K563" t="s">
         <v>29</v>
       </c>
+      <c r="L563" t="s">
+        <v>3147</v>
+      </c>
       <c r="O563" t="s">
         <v>30</v>
       </c>
@@ -40556,6 +43946,9 @@
       <c r="K564" t="s">
         <v>29</v>
       </c>
+      <c r="L564" t="s">
+        <v>3148</v>
+      </c>
       <c r="O564" t="s">
         <v>30</v>
       </c>
@@ -40613,6 +44006,9 @@
       <c r="K565" t="s">
         <v>29</v>
       </c>
+      <c r="L565" t="s">
+        <v>3149</v>
+      </c>
       <c r="O565" t="s">
         <v>30</v>
       </c>
@@ -40670,6 +44066,9 @@
       <c r="K566" t="s">
         <v>29</v>
       </c>
+      <c r="L566" t="s">
+        <v>3150</v>
+      </c>
       <c r="O566" t="s">
         <v>30</v>
       </c>
@@ -40727,6 +44126,9 @@
       <c r="K567" t="s">
         <v>29</v>
       </c>
+      <c r="L567" t="s">
+        <v>3151</v>
+      </c>
       <c r="O567" t="s">
         <v>30</v>
       </c>
@@ -40782,6 +44184,9 @@
       <c r="K568" t="s">
         <v>29</v>
       </c>
+      <c r="L568" t="s">
+        <v>3152</v>
+      </c>
       <c r="O568" t="s">
         <v>30</v>
       </c>
@@ -40838,6 +44243,9 @@
       </c>
       <c r="K569" t="s">
         <v>29</v>
+      </c>
+      <c r="L569" t="s">
+        <v>3153</v>
       </c>
       <c r="O569" t="s">
         <v>30</v>
@@ -40890,6 +44298,9 @@
       <c r="K570" t="s">
         <v>29</v>
       </c>
+      <c r="L570" t="s">
+        <v>3154</v>
+      </c>
       <c r="O570" t="s">
         <v>30</v>
       </c>
@@ -40949,6 +44360,9 @@
       <c r="K571" t="s">
         <v>29</v>
       </c>
+      <c r="L571" t="s">
+        <v>3155</v>
+      </c>
       <c r="O571" t="s">
         <v>30</v>
       </c>
@@ -41005,6 +44419,9 @@
       </c>
       <c r="K572" t="s">
         <v>29</v>
+      </c>
+      <c r="L572" t="s">
+        <v>3156</v>
       </c>
       <c r="O572" t="s">
         <v>30</v>
@@ -41057,6 +44474,9 @@
       <c r="K573" t="s">
         <v>29</v>
       </c>
+      <c r="L573" t="s">
+        <v>3157</v>
+      </c>
       <c r="O573" t="s">
         <v>30</v>
       </c>
@@ -41108,6 +44528,9 @@
       <c r="K574" t="s">
         <v>29</v>
       </c>
+      <c r="L574" t="s">
+        <v>3158</v>
+      </c>
       <c r="O574" t="s">
         <v>30</v>
       </c>
@@ -41159,6 +44582,9 @@
       <c r="K575" t="s">
         <v>29</v>
       </c>
+      <c r="L575" t="s">
+        <v>3159</v>
+      </c>
       <c r="O575" t="s">
         <v>30</v>
       </c>
@@ -41215,6 +44641,9 @@
       </c>
       <c r="K576" t="s">
         <v>29</v>
+      </c>
+      <c r="L576" t="s">
+        <v>3160</v>
       </c>
       <c r="O576" t="s">
         <v>30</v>
@@ -41267,6 +44696,9 @@
       <c r="K577" t="s">
         <v>29</v>
       </c>
+      <c r="L577" t="s">
+        <v>3161</v>
+      </c>
       <c r="O577" t="s">
         <v>30</v>
       </c>
@@ -41318,6 +44750,9 @@
       <c r="K578" t="s">
         <v>29</v>
       </c>
+      <c r="L578" t="s">
+        <v>3162</v>
+      </c>
       <c r="O578" t="s">
         <v>30</v>
       </c>
@@ -41375,6 +44810,9 @@
       <c r="K579" t="s">
         <v>29</v>
       </c>
+      <c r="L579" t="s">
+        <v>3163</v>
+      </c>
       <c r="O579" t="s">
         <v>30</v>
       </c>
@@ -41432,6 +44870,9 @@
       <c r="K580" t="s">
         <v>29</v>
       </c>
+      <c r="L580" t="s">
+        <v>3164</v>
+      </c>
       <c r="O580" t="s">
         <v>30</v>
       </c>
@@ -41489,6 +44930,9 @@
       <c r="K581" t="s">
         <v>29</v>
       </c>
+      <c r="L581" t="s">
+        <v>3165</v>
+      </c>
       <c r="O581" t="s">
         <v>30</v>
       </c>
@@ -41545,6 +44989,9 @@
       </c>
       <c r="K582" t="s">
         <v>29</v>
+      </c>
+      <c r="L582" t="s">
+        <v>3166</v>
       </c>
       <c r="O582" t="s">
         <v>30</v>
@@ -41597,6 +45044,9 @@
       <c r="K583" t="s">
         <v>29</v>
       </c>
+      <c r="L583" t="s">
+        <v>3167</v>
+      </c>
       <c r="O583" t="s">
         <v>30</v>
       </c>
@@ -41648,6 +45098,9 @@
       <c r="K584" t="s">
         <v>29</v>
       </c>
+      <c r="L584" t="s">
+        <v>3168</v>
+      </c>
       <c r="O584" t="s">
         <v>30</v>
       </c>
@@ -41699,6 +45152,9 @@
       <c r="K585" t="s">
         <v>29</v>
       </c>
+      <c r="L585" t="s">
+        <v>3169</v>
+      </c>
       <c r="O585" t="s">
         <v>30</v>
       </c>
@@ -41750,6 +45206,9 @@
       <c r="K586" t="s">
         <v>29</v>
       </c>
+      <c r="L586" t="s">
+        <v>3170</v>
+      </c>
       <c r="O586" t="s">
         <v>30</v>
       </c>
@@ -41806,6 +45265,9 @@
       </c>
       <c r="K587" t="s">
         <v>29</v>
+      </c>
+      <c r="L587" t="s">
+        <v>3171</v>
       </c>
       <c r="O587" t="s">
         <v>30</v>
@@ -41858,6 +45320,9 @@
       <c r="K588" t="s">
         <v>29</v>
       </c>
+      <c r="L588" t="s">
+        <v>3172</v>
+      </c>
       <c r="O588" t="s">
         <v>30</v>
       </c>
@@ -41909,6 +45374,9 @@
       <c r="K589" t="s">
         <v>29</v>
       </c>
+      <c r="L589" t="s">
+        <v>3173</v>
+      </c>
       <c r="O589" t="s">
         <v>30</v>
       </c>
@@ -41966,6 +45434,9 @@
       <c r="K590" t="s">
         <v>29</v>
       </c>
+      <c r="L590" t="s">
+        <v>3174</v>
+      </c>
       <c r="O590" t="s">
         <v>30</v>
       </c>
@@ -42022,6 +45493,9 @@
       </c>
       <c r="K591" t="s">
         <v>29</v>
+      </c>
+      <c r="L591" t="s">
+        <v>3175</v>
       </c>
       <c r="O591" t="s">
         <v>30</v>
@@ -42074,6 +45548,9 @@
       <c r="K592" t="s">
         <v>29</v>
       </c>
+      <c r="L592" t="s">
+        <v>3176</v>
+      </c>
       <c r="O592" t="s">
         <v>30</v>
       </c>
@@ -42131,6 +45608,9 @@
       <c r="K593" t="s">
         <v>29</v>
       </c>
+      <c r="L593" t="s">
+        <v>3177</v>
+      </c>
       <c r="O593" t="s">
         <v>30</v>
       </c>
@@ -42187,6 +45667,9 @@
       </c>
       <c r="K594" t="s">
         <v>29</v>
+      </c>
+      <c r="L594" t="s">
+        <v>3178</v>
       </c>
       <c r="O594" t="s">
         <v>30</v>
@@ -42239,6 +45722,9 @@
       <c r="K595" t="s">
         <v>29</v>
       </c>
+      <c r="L595" t="s">
+        <v>3179</v>
+      </c>
       <c r="O595" t="s">
         <v>30</v>
       </c>
@@ -42296,6 +45782,9 @@
       <c r="K596" t="s">
         <v>29</v>
       </c>
+      <c r="L596" t="s">
+        <v>3180</v>
+      </c>
       <c r="O596" t="s">
         <v>30</v>
       </c>
@@ -42353,6 +45842,9 @@
       <c r="K597" t="s">
         <v>29</v>
       </c>
+      <c r="L597" t="s">
+        <v>3181</v>
+      </c>
       <c r="O597" t="s">
         <v>30</v>
       </c>
@@ -42410,6 +45902,9 @@
       <c r="K598" t="s">
         <v>29</v>
       </c>
+      <c r="L598" t="s">
+        <v>3182</v>
+      </c>
       <c r="O598" t="s">
         <v>30</v>
       </c>
@@ -42536,6 +46031,9 @@
       <c r="K600" t="s">
         <v>29</v>
       </c>
+      <c r="L600" t="s">
+        <v>3183</v>
+      </c>
       <c r="O600" t="s">
         <v>30</v>
       </c>
@@ -42593,6 +46091,9 @@
       <c r="K601" t="s">
         <v>29</v>
       </c>
+      <c r="L601" t="s">
+        <v>3184</v>
+      </c>
       <c r="O601" t="s">
         <v>30</v>
       </c>
@@ -42649,6 +46150,9 @@
       </c>
       <c r="K602" t="s">
         <v>29</v>
+      </c>
+      <c r="L602" t="s">
+        <v>3185</v>
       </c>
       <c r="O602" t="s">
         <v>30</v>
@@ -42701,6 +46205,9 @@
       <c r="K603" t="s">
         <v>29</v>
       </c>
+      <c r="L603" t="s">
+        <v>3186</v>
+      </c>
       <c r="O603" t="s">
         <v>30</v>
       </c>
@@ -42752,6 +46259,9 @@
       <c r="K604" t="s">
         <v>29</v>
       </c>
+      <c r="L604" t="s">
+        <v>3187</v>
+      </c>
       <c r="O604" t="s">
         <v>30</v>
       </c>
@@ -42811,6 +46321,9 @@
       <c r="K605" t="s">
         <v>29</v>
       </c>
+      <c r="L605" t="s">
+        <v>3188</v>
+      </c>
       <c r="O605" t="s">
         <v>30</v>
       </c>
@@ -42868,6 +46381,9 @@
       <c r="K606" t="s">
         <v>29</v>
       </c>
+      <c r="L606" t="s">
+        <v>3189</v>
+      </c>
       <c r="O606" t="s">
         <v>30</v>
       </c>
@@ -42925,6 +46441,9 @@
       <c r="K607" t="s">
         <v>29</v>
       </c>
+      <c r="L607" t="s">
+        <v>3190</v>
+      </c>
       <c r="O607" t="s">
         <v>30</v>
       </c>
@@ -42982,6 +46501,9 @@
       <c r="K608" t="s">
         <v>29</v>
       </c>
+      <c r="L608" t="s">
+        <v>3191</v>
+      </c>
       <c r="O608" t="s">
         <v>30</v>
       </c>
@@ -43041,6 +46563,9 @@
       <c r="K609" t="s">
         <v>29</v>
       </c>
+      <c r="L609" t="s">
+        <v>3192</v>
+      </c>
       <c r="O609" t="s">
         <v>30</v>
       </c>
@@ -43098,6 +46623,9 @@
       <c r="K610" t="s">
         <v>29</v>
       </c>
+      <c r="L610" t="s">
+        <v>3193</v>
+      </c>
       <c r="O610" t="s">
         <v>30</v>
       </c>
@@ -43155,6 +46683,9 @@
       <c r="K611" t="s">
         <v>29</v>
       </c>
+      <c r="L611" t="s">
+        <v>3194</v>
+      </c>
       <c r="O611" t="s">
         <v>30</v>
       </c>
@@ -43212,6 +46743,9 @@
       <c r="K612" t="s">
         <v>29</v>
       </c>
+      <c r="L612" t="s">
+        <v>3195</v>
+      </c>
       <c r="O612" t="s">
         <v>30</v>
       </c>
@@ -43269,6 +46803,9 @@
       <c r="K613" t="s">
         <v>29</v>
       </c>
+      <c r="L613" t="s">
+        <v>3196</v>
+      </c>
       <c r="O613" t="s">
         <v>30</v>
       </c>
@@ -43326,6 +46863,9 @@
       <c r="K614" t="s">
         <v>29</v>
       </c>
+      <c r="L614" t="s">
+        <v>3197</v>
+      </c>
       <c r="O614" t="s">
         <v>30</v>
       </c>
@@ -43384,6 +46924,9 @@
       </c>
       <c r="K615" t="s">
         <v>29</v>
+      </c>
+      <c r="L615" t="s">
+        <v>3198</v>
       </c>
       <c r="O615" t="s">
         <v>30</v>
@@ -43494,6 +47037,9 @@
       <c r="K617" t="s">
         <v>29</v>
       </c>
+      <c r="L617" t="s">
+        <v>3199</v>
+      </c>
       <c r="O617" t="s">
         <v>30</v>
       </c>
@@ -43553,6 +47099,9 @@
       <c r="K618" t="s">
         <v>29</v>
       </c>
+      <c r="L618" t="s">
+        <v>3200</v>
+      </c>
       <c r="O618" t="s">
         <v>30</v>
       </c>
@@ -43610,6 +47159,9 @@
       <c r="K619" t="s">
         <v>29</v>
       </c>
+      <c r="L619" t="s">
+        <v>3201</v>
+      </c>
       <c r="O619" t="s">
         <v>30</v>
       </c>
@@ -43667,6 +47219,9 @@
       <c r="K620" t="s">
         <v>29</v>
       </c>
+      <c r="L620" t="s">
+        <v>3202</v>
+      </c>
       <c r="O620" t="s">
         <v>30</v>
       </c>
@@ -43724,6 +47279,9 @@
       <c r="K621" t="s">
         <v>29</v>
       </c>
+      <c r="L621" t="s">
+        <v>3203</v>
+      </c>
       <c r="O621" t="s">
         <v>30</v>
       </c>
@@ -43781,6 +47339,9 @@
       <c r="K622" t="s">
         <v>29</v>
       </c>
+      <c r="L622" t="s">
+        <v>3204</v>
+      </c>
       <c r="O622" t="s">
         <v>30</v>
       </c>
@@ -43838,6 +47399,9 @@
       <c r="K623" t="s">
         <v>29</v>
       </c>
+      <c r="L623" t="s">
+        <v>3205</v>
+      </c>
       <c r="O623" t="s">
         <v>30</v>
       </c>
@@ -43895,6 +47459,9 @@
       <c r="K624" t="s">
         <v>29</v>
       </c>
+      <c r="L624" t="s">
+        <v>3206</v>
+      </c>
       <c r="O624" t="s">
         <v>30</v>
       </c>
@@ -43952,6 +47519,9 @@
       <c r="K625" t="s">
         <v>29</v>
       </c>
+      <c r="L625" t="s">
+        <v>3207</v>
+      </c>
       <c r="O625" t="s">
         <v>30</v>
       </c>
@@ -44009,6 +47579,9 @@
       <c r="K626" t="s">
         <v>29</v>
       </c>
+      <c r="L626" t="s">
+        <v>3208</v>
+      </c>
       <c r="O626" t="s">
         <v>30</v>
       </c>
@@ -44132,6 +47705,9 @@
       <c r="K628" t="s">
         <v>29</v>
       </c>
+      <c r="L628" t="s">
+        <v>3209</v>
+      </c>
       <c r="O628" t="s">
         <v>30</v>
       </c>
@@ -44189,6 +47765,9 @@
       <c r="K629" t="s">
         <v>29</v>
       </c>
+      <c r="L629" t="s">
+        <v>3210</v>
+      </c>
       <c r="O629" t="s">
         <v>30</v>
       </c>
@@ -44246,6 +47825,9 @@
       <c r="K630" t="s">
         <v>29</v>
       </c>
+      <c r="L630" t="s">
+        <v>3211</v>
+      </c>
       <c r="O630" t="s">
         <v>30</v>
       </c>
@@ -44303,6 +47885,9 @@
       <c r="K631" t="s">
         <v>29</v>
       </c>
+      <c r="L631" t="s">
+        <v>3212</v>
+      </c>
       <c r="O631" t="s">
         <v>30</v>
       </c>
@@ -44360,6 +47945,9 @@
       <c r="K632" t="s">
         <v>29</v>
       </c>
+      <c r="L632" t="s">
+        <v>3213</v>
+      </c>
       <c r="O632" t="s">
         <v>30</v>
       </c>
@@ -44417,6 +48005,9 @@
       <c r="K633" t="s">
         <v>29</v>
       </c>
+      <c r="L633" t="s">
+        <v>3214</v>
+      </c>
       <c r="O633" t="s">
         <v>30</v>
       </c>
@@ -44474,6 +48065,9 @@
       <c r="K634" t="s">
         <v>29</v>
       </c>
+      <c r="L634" t="s">
+        <v>3215</v>
+      </c>
       <c r="O634" t="s">
         <v>30</v>
       </c>
@@ -44531,6 +48125,9 @@
       <c r="K635" t="s">
         <v>29</v>
       </c>
+      <c r="L635" t="s">
+        <v>3216</v>
+      </c>
       <c r="O635" t="s">
         <v>30</v>
       </c>
@@ -44588,6 +48185,9 @@
       <c r="K636" t="s">
         <v>29</v>
       </c>
+      <c r="L636" t="s">
+        <v>3217</v>
+      </c>
       <c r="O636" t="s">
         <v>30</v>
       </c>
@@ -44645,6 +48245,9 @@
       <c r="K637" t="s">
         <v>29</v>
       </c>
+      <c r="L637" t="s">
+        <v>3218</v>
+      </c>
       <c r="O637" t="s">
         <v>30</v>
       </c>
@@ -44702,6 +48305,9 @@
       <c r="K638" t="s">
         <v>29</v>
       </c>
+      <c r="L638" t="s">
+        <v>3219</v>
+      </c>
       <c r="O638" t="s">
         <v>30</v>
       </c>
@@ -44758,6 +48364,9 @@
       </c>
       <c r="K639" t="s">
         <v>29</v>
+      </c>
+      <c r="L639" t="s">
+        <v>3220</v>
       </c>
       <c r="O639" t="s">
         <v>30</v>
@@ -44808,6 +48417,9 @@
       <c r="K640" t="s">
         <v>29</v>
       </c>
+      <c r="L640" t="s">
+        <v>3221</v>
+      </c>
       <c r="O640" t="s">
         <v>30</v>
       </c>
@@ -44865,6 +48477,9 @@
       <c r="K641" t="s">
         <v>29</v>
       </c>
+      <c r="L641" t="s">
+        <v>3222</v>
+      </c>
       <c r="O641" t="s">
         <v>30</v>
       </c>
@@ -44921,6 +48536,9 @@
       </c>
       <c r="K642" t="s">
         <v>29</v>
+      </c>
+      <c r="L642" t="s">
+        <v>3223</v>
       </c>
       <c r="O642" t="s">
         <v>30</v>
@@ -45031,6 +48649,9 @@
       <c r="K644" t="s">
         <v>29</v>
       </c>
+      <c r="L644" t="s">
+        <v>3224</v>
+      </c>
       <c r="O644" t="s">
         <v>30</v>
       </c>
@@ -45088,6 +48709,9 @@
       <c r="K645" t="s">
         <v>29</v>
       </c>
+      <c r="L645" t="s">
+        <v>3225</v>
+      </c>
       <c r="O645" t="s">
         <v>30</v>
       </c>
@@ -45145,6 +48769,9 @@
       <c r="K646" t="s">
         <v>29</v>
       </c>
+      <c r="L646" t="s">
+        <v>3226</v>
+      </c>
       <c r="O646" t="s">
         <v>30</v>
       </c>
@@ -45202,6 +48829,9 @@
       <c r="K647" t="s">
         <v>29</v>
       </c>
+      <c r="L647" t="s">
+        <v>3227</v>
+      </c>
       <c r="O647" t="s">
         <v>30</v>
       </c>
@@ -45259,6 +48889,9 @@
       <c r="K648" t="s">
         <v>29</v>
       </c>
+      <c r="L648" t="s">
+        <v>3228</v>
+      </c>
       <c r="O648" t="s">
         <v>30</v>
       </c>
@@ -45316,6 +48949,9 @@
       <c r="K649" t="s">
         <v>29</v>
       </c>
+      <c r="L649" t="s">
+        <v>3229</v>
+      </c>
       <c r="O649" t="s">
         <v>30</v>
       </c>
@@ -45373,6 +49009,9 @@
       <c r="K650" t="s">
         <v>29</v>
       </c>
+      <c r="L650" t="s">
+        <v>3230</v>
+      </c>
       <c r="O650" t="s">
         <v>30</v>
       </c>
@@ -45432,6 +49071,9 @@
       <c r="K651" t="s">
         <v>29</v>
       </c>
+      <c r="L651" t="s">
+        <v>3231</v>
+      </c>
       <c r="O651" t="s">
         <v>30</v>
       </c>
@@ -45489,6 +49131,9 @@
       <c r="K652" t="s">
         <v>29</v>
       </c>
+      <c r="L652" t="s">
+        <v>3232</v>
+      </c>
       <c r="O652" t="s">
         <v>30</v>
       </c>
@@ -45615,6 +49260,9 @@
       <c r="K654" t="s">
         <v>29</v>
       </c>
+      <c r="L654" t="s">
+        <v>3233</v>
+      </c>
       <c r="O654" t="s">
         <v>30</v>
       </c>
@@ -45674,6 +49322,9 @@
       <c r="K655" t="s">
         <v>29</v>
       </c>
+      <c r="L655" t="s">
+        <v>3234</v>
+      </c>
       <c r="O655" t="s">
         <v>30</v>
       </c>
@@ -45731,6 +49382,9 @@
       <c r="K656" t="s">
         <v>29</v>
       </c>
+      <c r="L656" t="s">
+        <v>3235</v>
+      </c>
       <c r="O656" t="s">
         <v>30</v>
       </c>
@@ -45788,6 +49442,9 @@
       <c r="K657" t="s">
         <v>29</v>
       </c>
+      <c r="L657" t="s">
+        <v>3236</v>
+      </c>
       <c r="O657" t="s">
         <v>30</v>
       </c>
@@ -45845,6 +49502,9 @@
       <c r="K658" t="s">
         <v>29</v>
       </c>
+      <c r="L658" t="s">
+        <v>3237</v>
+      </c>
       <c r="O658" t="s">
         <v>30</v>
       </c>
@@ -45902,6 +49562,9 @@
       <c r="K659" t="s">
         <v>29</v>
       </c>
+      <c r="L659" t="s">
+        <v>3238</v>
+      </c>
       <c r="O659" t="s">
         <v>30</v>
       </c>
@@ -45959,6 +49622,9 @@
       <c r="K660" t="s">
         <v>29</v>
       </c>
+      <c r="L660" t="s">
+        <v>3239</v>
+      </c>
       <c r="O660" t="s">
         <v>30</v>
       </c>
@@ -46082,6 +49748,9 @@
       <c r="K662" t="s">
         <v>29</v>
       </c>
+      <c r="L662" t="s">
+        <v>3240</v>
+      </c>
       <c r="O662" t="s">
         <v>30</v>
       </c>
@@ -46208,6 +49877,9 @@
       <c r="K664" t="s">
         <v>29</v>
       </c>
+      <c r="L664" t="s">
+        <v>3241</v>
+      </c>
       <c r="O664" t="s">
         <v>30</v>
       </c>
@@ -46267,6 +49939,9 @@
       <c r="K665" t="s">
         <v>29</v>
       </c>
+      <c r="L665" t="s">
+        <v>3242</v>
+      </c>
       <c r="O665" t="s">
         <v>30</v>
       </c>
@@ -46324,6 +49999,9 @@
       <c r="K666" t="s">
         <v>29</v>
       </c>
+      <c r="L666" t="s">
+        <v>3243</v>
+      </c>
       <c r="O666" t="s">
         <v>30</v>
       </c>
@@ -46381,6 +50059,9 @@
       <c r="K667" t="s">
         <v>29</v>
       </c>
+      <c r="L667" t="s">
+        <v>3244</v>
+      </c>
       <c r="O667" t="s">
         <v>30</v>
       </c>
@@ -46440,6 +50121,9 @@
       <c r="K668" t="s">
         <v>29</v>
       </c>
+      <c r="L668" t="s">
+        <v>3245</v>
+      </c>
       <c r="O668" t="s">
         <v>30</v>
       </c>
@@ -46497,6 +50181,9 @@
       <c r="K669" t="s">
         <v>29</v>
       </c>
+      <c r="L669" t="s">
+        <v>3246</v>
+      </c>
       <c r="O669" t="s">
         <v>30</v>
       </c>
@@ -46556,6 +50243,9 @@
       <c r="K670" t="s">
         <v>29</v>
       </c>
+      <c r="L670" t="s">
+        <v>3247</v>
+      </c>
       <c r="O670" t="s">
         <v>30</v>
       </c>
@@ -46615,6 +50305,9 @@
       <c r="K671" t="s">
         <v>29</v>
       </c>
+      <c r="L671" t="s">
+        <v>3248</v>
+      </c>
       <c r="O671" t="s">
         <v>30</v>
       </c>
@@ -46674,6 +50367,9 @@
       <c r="K672" t="s">
         <v>29</v>
       </c>
+      <c r="L672" t="s">
+        <v>3249</v>
+      </c>
       <c r="O672" t="s">
         <v>30</v>
       </c>
@@ -46733,6 +50429,9 @@
       <c r="K673" t="s">
         <v>29</v>
       </c>
+      <c r="L673" t="s">
+        <v>3250</v>
+      </c>
       <c r="O673" t="s">
         <v>30</v>
       </c>
@@ -46791,6 +50490,9 @@
       </c>
       <c r="K674" t="s">
         <v>29</v>
+      </c>
+      <c r="L674" t="s">
+        <v>3251</v>
       </c>
       <c r="O674" t="s">
         <v>30</v>
@@ -46955,6 +50657,9 @@
       <c r="K677" t="s">
         <v>29</v>
       </c>
+      <c r="L677" t="s">
+        <v>3252</v>
+      </c>
       <c r="O677" t="s">
         <v>30</v>
       </c>
@@ -47014,6 +50719,9 @@
       <c r="K678" t="s">
         <v>29</v>
       </c>
+      <c r="L678" t="s">
+        <v>3253</v>
+      </c>
       <c r="O678" t="s">
         <v>30</v>
       </c>
@@ -47073,6 +50781,9 @@
       <c r="K679" t="s">
         <v>29</v>
       </c>
+      <c r="L679" t="s">
+        <v>3254</v>
+      </c>
       <c r="O679" t="s">
         <v>30</v>
       </c>
@@ -47132,6 +50843,9 @@
       <c r="K680" t="s">
         <v>29</v>
       </c>
+      <c r="L680" t="s">
+        <v>3255</v>
+      </c>
       <c r="O680" t="s">
         <v>30</v>
       </c>
@@ -47189,6 +50903,9 @@
       <c r="K681" t="s">
         <v>29</v>
       </c>
+      <c r="L681" t="s">
+        <v>3256</v>
+      </c>
       <c r="O681" t="s">
         <v>30</v>
       </c>
@@ -47245,6 +50962,9 @@
       </c>
       <c r="K682" t="s">
         <v>29</v>
+      </c>
+      <c r="L682" t="s">
+        <v>3257</v>
       </c>
       <c r="O682" t="s">
         <v>30</v>
@@ -47461,6 +51181,9 @@
       <c r="K686" t="s">
         <v>29</v>
       </c>
+      <c r="L686" t="s">
+        <v>3258</v>
+      </c>
       <c r="O686" t="s">
         <v>30</v>
       </c>
@@ -47518,6 +51241,9 @@
       <c r="K687" t="s">
         <v>29</v>
       </c>
+      <c r="L687" t="s">
+        <v>3259</v>
+      </c>
       <c r="O687" t="s">
         <v>30</v>
       </c>
@@ -47575,6 +51301,9 @@
       <c r="K688" t="s">
         <v>29</v>
       </c>
+      <c r="L688" t="s">
+        <v>3260</v>
+      </c>
       <c r="O688" t="s">
         <v>30</v>
       </c>
@@ -47632,6 +51361,9 @@
       <c r="K689" t="s">
         <v>29</v>
       </c>
+      <c r="L689" t="s">
+        <v>3261</v>
+      </c>
       <c r="O689" t="s">
         <v>30</v>
       </c>
@@ -47757,6 +51489,9 @@
       <c r="K691" t="s">
         <v>29</v>
       </c>
+      <c r="L691" t="s">
+        <v>3262</v>
+      </c>
       <c r="O691" t="s">
         <v>30</v>
       </c>
@@ -47816,6 +51551,9 @@
       <c r="K692" t="s">
         <v>29</v>
       </c>
+      <c r="L692" t="s">
+        <v>3263</v>
+      </c>
       <c r="O692" t="s">
         <v>30</v>
       </c>
@@ -47875,6 +51613,9 @@
       <c r="K693" t="s">
         <v>29</v>
       </c>
+      <c r="L693" t="s">
+        <v>3264</v>
+      </c>
       <c r="O693" t="s">
         <v>30</v>
       </c>
@@ -47932,6 +51673,9 @@
       <c r="K694" t="s">
         <v>29</v>
       </c>
+      <c r="L694" t="s">
+        <v>3265</v>
+      </c>
       <c r="O694" t="s">
         <v>30</v>
       </c>
@@ -47991,6 +51735,9 @@
       <c r="K695" t="s">
         <v>29</v>
       </c>
+      <c r="L695" t="s">
+        <v>3266</v>
+      </c>
       <c r="O695" t="s">
         <v>30</v>
       </c>
@@ -48048,6 +51795,9 @@
       <c r="K696" t="s">
         <v>29</v>
       </c>
+      <c r="L696" t="s">
+        <v>3267</v>
+      </c>
       <c r="O696" t="s">
         <v>30</v>
       </c>
@@ -48105,6 +51855,9 @@
       <c r="K697" t="s">
         <v>29</v>
       </c>
+      <c r="L697" t="s">
+        <v>3268</v>
+      </c>
       <c r="O697" t="s">
         <v>30</v>
       </c>
@@ -48164,6 +51917,9 @@
       <c r="K698" t="s">
         <v>29</v>
       </c>
+      <c r="L698" t="s">
+        <v>3269</v>
+      </c>
       <c r="O698" t="s">
         <v>30</v>
       </c>
@@ -48223,6 +51979,9 @@
       <c r="K699" t="s">
         <v>29</v>
       </c>
+      <c r="L699" t="s">
+        <v>3270</v>
+      </c>
       <c r="O699" t="s">
         <v>30</v>
       </c>
@@ -48282,6 +52041,9 @@
       <c r="K700" t="s">
         <v>29</v>
       </c>
+      <c r="L700" t="s">
+        <v>3271</v>
+      </c>
       <c r="O700" t="s">
         <v>30</v>
       </c>
@@ -48341,6 +52103,9 @@
       <c r="K701" t="s">
         <v>29</v>
       </c>
+      <c r="L701" t="s">
+        <v>3272</v>
+      </c>
       <c r="O701" t="s">
         <v>30</v>
       </c>
@@ -48398,6 +52163,9 @@
       <c r="K702" t="s">
         <v>29</v>
       </c>
+      <c r="L702" t="s">
+        <v>3273</v>
+      </c>
       <c r="O702" t="s">
         <v>30</v>
       </c>
@@ -48524,6 +52292,9 @@
       <c r="K704" t="s">
         <v>29</v>
       </c>
+      <c r="L704" t="s">
+        <v>3274</v>
+      </c>
       <c r="O704" t="s">
         <v>30</v>
       </c>
@@ -48721,6 +52492,9 @@
       <c r="K707" t="s">
         <v>29</v>
       </c>
+      <c r="L707" t="s">
+        <v>3275</v>
+      </c>
       <c r="O707" t="s">
         <v>30</v>
       </c>
@@ -48918,6 +52692,9 @@
       <c r="K710" t="s">
         <v>29</v>
       </c>
+      <c r="L710" t="s">
+        <v>3276</v>
+      </c>
       <c r="O710" t="s">
         <v>30</v>
       </c>
@@ -48977,6 +52754,9 @@
       <c r="K711" t="s">
         <v>29</v>
       </c>
+      <c r="L711" t="s">
+        <v>3277</v>
+      </c>
       <c r="O711" t="s">
         <v>30</v>
       </c>
@@ -49034,6 +52814,9 @@
       <c r="K712" t="s">
         <v>29</v>
       </c>
+      <c r="L712" t="s">
+        <v>3278</v>
+      </c>
       <c r="O712" t="s">
         <v>30</v>
       </c>
@@ -49162,6 +52945,9 @@
       <c r="K714" t="s">
         <v>29</v>
       </c>
+      <c r="L714" t="s">
+        <v>3279</v>
+      </c>
       <c r="O714" t="s">
         <v>30</v>
       </c>
@@ -49357,6 +53143,9 @@
       <c r="K717" t="s">
         <v>29</v>
       </c>
+      <c r="L717" t="s">
+        <v>3280</v>
+      </c>
       <c r="O717" t="s">
         <v>30</v>
       </c>
@@ -49414,6 +53203,9 @@
       <c r="K718" t="s">
         <v>29</v>
       </c>
+      <c r="L718" t="s">
+        <v>3281</v>
+      </c>
       <c r="O718" t="s">
         <v>30</v>
       </c>
@@ -49471,6 +53263,9 @@
       <c r="K719" t="s">
         <v>29</v>
       </c>
+      <c r="L719" t="s">
+        <v>3282</v>
+      </c>
       <c r="O719" t="s">
         <v>30</v>
       </c>
@@ -49599,6 +53394,9 @@
       <c r="K721" t="s">
         <v>29</v>
       </c>
+      <c r="L721" t="s">
+        <v>3283</v>
+      </c>
       <c r="O721" t="s">
         <v>30</v>
       </c>
@@ -49655,6 +53453,9 @@
       </c>
       <c r="K722" t="s">
         <v>29</v>
+      </c>
+      <c r="L722" t="s">
+        <v>3284</v>
       </c>
       <c r="O722" t="s">
         <v>30</v>
@@ -49765,6 +53566,9 @@
       <c r="K724" t="s">
         <v>29</v>
       </c>
+      <c r="L724" t="s">
+        <v>3285</v>
+      </c>
       <c r="O724" t="s">
         <v>30</v>
       </c>
@@ -49821,6 +53625,9 @@
       </c>
       <c r="K725" t="s">
         <v>29</v>
+      </c>
+      <c r="L725" t="s">
+        <v>3286</v>
       </c>
       <c r="O725" t="s">
         <v>30</v>
@@ -49933,6 +53740,9 @@
       <c r="K727" t="s">
         <v>29</v>
       </c>
+      <c r="L727" t="s">
+        <v>3287</v>
+      </c>
       <c r="O727" t="s">
         <v>30</v>
       </c>
@@ -49992,6 +53802,9 @@
       <c r="K728" t="s">
         <v>29</v>
       </c>
+      <c r="L728" t="s">
+        <v>3288</v>
+      </c>
       <c r="O728" t="s">
         <v>30</v>
       </c>
@@ -50047,6 +53860,9 @@
       <c r="K729" t="s">
         <v>29</v>
       </c>
+      <c r="L729" t="s">
+        <v>3289</v>
+      </c>
       <c r="O729" t="s">
         <v>30</v>
       </c>
@@ -50104,6 +53920,9 @@
       <c r="K730" t="s">
         <v>29</v>
       </c>
+      <c r="L730" t="s">
+        <v>3290</v>
+      </c>
       <c r="O730" t="s">
         <v>30</v>
       </c>
@@ -50163,6 +53982,9 @@
       <c r="K731" t="s">
         <v>29</v>
       </c>
+      <c r="L731" t="s">
+        <v>3291</v>
+      </c>
       <c r="O731" t="s">
         <v>30</v>
       </c>
@@ -50220,6 +54042,9 @@
       <c r="K732" t="s">
         <v>29</v>
       </c>
+      <c r="L732" t="s">
+        <v>3292</v>
+      </c>
       <c r="O732" t="s">
         <v>30</v>
       </c>
@@ -50277,6 +54102,9 @@
       <c r="K733" t="s">
         <v>29</v>
       </c>
+      <c r="L733" t="s">
+        <v>3293</v>
+      </c>
       <c r="O733" t="s">
         <v>30</v>
       </c>
@@ -50336,6 +54164,9 @@
       <c r="K734" t="s">
         <v>29</v>
       </c>
+      <c r="L734" t="s">
+        <v>3294</v>
+      </c>
       <c r="O734" t="s">
         <v>30</v>
       </c>
@@ -50393,6 +54224,9 @@
       <c r="K735" t="s">
         <v>29</v>
       </c>
+      <c r="L735" t="s">
+        <v>3295</v>
+      </c>
       <c r="O735" t="s">
         <v>30</v>
       </c>
@@ -50450,6 +54284,9 @@
       <c r="K736" t="s">
         <v>29</v>
       </c>
+      <c r="L736" t="s">
+        <v>3296</v>
+      </c>
       <c r="O736" t="s">
         <v>30</v>
       </c>
@@ -50505,6 +54342,9 @@
       <c r="K737" t="s">
         <v>29</v>
       </c>
+      <c r="L737" t="s">
+        <v>3297</v>
+      </c>
       <c r="O737" t="s">
         <v>30</v>
       </c>
@@ -50564,6 +54404,9 @@
       <c r="K738" t="s">
         <v>29</v>
       </c>
+      <c r="L738" t="s">
+        <v>3298</v>
+      </c>
       <c r="O738" t="s">
         <v>30</v>
       </c>
@@ -50621,6 +54464,9 @@
       <c r="K739" t="s">
         <v>29</v>
       </c>
+      <c r="L739" t="s">
+        <v>3299</v>
+      </c>
       <c r="O739" t="s">
         <v>30</v>
       </c>
@@ -50678,6 +54524,9 @@
       <c r="K740" t="s">
         <v>29</v>
       </c>
+      <c r="L740" t="s">
+        <v>3300</v>
+      </c>
       <c r="O740" t="s">
         <v>30</v>
       </c>
@@ -50735,6 +54584,9 @@
       <c r="K741" t="s">
         <v>29</v>
       </c>
+      <c r="L741" t="s">
+        <v>3301</v>
+      </c>
       <c r="O741" t="s">
         <v>30</v>
       </c>
@@ -50792,6 +54644,9 @@
       <c r="K742" t="s">
         <v>29</v>
       </c>
+      <c r="L742" t="s">
+        <v>3302</v>
+      </c>
       <c r="O742" t="s">
         <v>30</v>
       </c>
@@ -50849,6 +54704,9 @@
       <c r="K743" t="s">
         <v>29</v>
       </c>
+      <c r="L743" t="s">
+        <v>3303</v>
+      </c>
       <c r="O743" t="s">
         <v>30</v>
       </c>
@@ -50906,6 +54764,9 @@
       <c r="K744" t="s">
         <v>29</v>
       </c>
+      <c r="L744" t="s">
+        <v>3304</v>
+      </c>
       <c r="O744" t="s">
         <v>30</v>
       </c>
@@ -50963,6 +54824,9 @@
       <c r="K745" t="s">
         <v>29</v>
       </c>
+      <c r="L745" t="s">
+        <v>3305</v>
+      </c>
       <c r="O745" t="s">
         <v>30</v>
       </c>
@@ -51022,6 +54886,9 @@
       <c r="K746" t="s">
         <v>29</v>
       </c>
+      <c r="L746" t="s">
+        <v>3306</v>
+      </c>
       <c r="O746" t="s">
         <v>30</v>
       </c>
@@ -52180,6 +56047,9 @@
       <c r="K763" t="s">
         <v>29</v>
       </c>
+      <c r="L763" t="s">
+        <v>3307</v>
+      </c>
       <c r="O763" t="s">
         <v>30</v>
       </c>
@@ -52444,6 +56314,9 @@
       <c r="K767" t="s">
         <v>29</v>
       </c>
+      <c r="L767" t="s">
+        <v>3308</v>
+      </c>
       <c r="O767" t="s">
         <v>30</v>
       </c>
@@ -52639,6 +56512,9 @@
       <c r="K770" t="s">
         <v>29</v>
       </c>
+      <c r="L770" t="s">
+        <v>3309</v>
+      </c>
       <c r="O770" t="s">
         <v>30</v>
       </c>
@@ -52696,6 +56572,9 @@
       <c r="K771" t="s">
         <v>29</v>
       </c>
+      <c r="L771" t="s">
+        <v>3310</v>
+      </c>
       <c r="O771" t="s">
         <v>30</v>
       </c>
@@ -52753,6 +56632,9 @@
       <c r="K772" t="s">
         <v>29</v>
       </c>
+      <c r="L772" t="s">
+        <v>3311</v>
+      </c>
       <c r="O772" t="s">
         <v>30</v>
       </c>
@@ -52810,6 +56692,9 @@
       <c r="K773" t="s">
         <v>29</v>
       </c>
+      <c r="L773" t="s">
+        <v>3312</v>
+      </c>
       <c r="O773" t="s">
         <v>30</v>
       </c>
@@ -52867,6 +56752,9 @@
       <c r="K774" t="s">
         <v>29</v>
       </c>
+      <c r="L774" t="s">
+        <v>3313</v>
+      </c>
       <c r="O774" t="s">
         <v>30</v>
       </c>
@@ -52924,6 +56812,9 @@
       <c r="K775" t="s">
         <v>29</v>
       </c>
+      <c r="L775" t="s">
+        <v>3314</v>
+      </c>
       <c r="O775" t="s">
         <v>30</v>
       </c>
@@ -52981,6 +56872,9 @@
       <c r="K776" t="s">
         <v>29</v>
       </c>
+      <c r="L776" t="s">
+        <v>3315</v>
+      </c>
       <c r="O776" t="s">
         <v>30</v>
       </c>
@@ -53038,6 +56932,9 @@
       <c r="K777" t="s">
         <v>29</v>
       </c>
+      <c r="L777" t="s">
+        <v>3316</v>
+      </c>
       <c r="O777" t="s">
         <v>30</v>
       </c>
@@ -53095,6 +56992,9 @@
       <c r="K778" t="s">
         <v>29</v>
       </c>
+      <c r="L778" t="s">
+        <v>3317</v>
+      </c>
       <c r="O778" t="s">
         <v>30</v>
       </c>
@@ -53154,6 +57054,9 @@
       <c r="K779" t="s">
         <v>29</v>
       </c>
+      <c r="L779" t="s">
+        <v>3318</v>
+      </c>
       <c r="O779" t="s">
         <v>30</v>
       </c>
@@ -53211,6 +57114,9 @@
       <c r="K780" t="s">
         <v>29</v>
       </c>
+      <c r="L780" t="s">
+        <v>3319</v>
+      </c>
       <c r="O780" t="s">
         <v>30</v>
       </c>
@@ -53268,6 +57174,9 @@
       <c r="K781" t="s">
         <v>29</v>
       </c>
+      <c r="L781" t="s">
+        <v>3320</v>
+      </c>
       <c r="O781" t="s">
         <v>30</v>
       </c>
@@ -53325,6 +57234,9 @@
       <c r="K782" t="s">
         <v>29</v>
       </c>
+      <c r="L782" t="s">
+        <v>3321</v>
+      </c>
       <c r="O782" t="s">
         <v>30</v>
       </c>
@@ -53382,6 +57294,9 @@
       <c r="K783" t="s">
         <v>29</v>
       </c>
+      <c r="L783" t="s">
+        <v>3322</v>
+      </c>
       <c r="O783" t="s">
         <v>30</v>
       </c>
@@ -53439,6 +57354,9 @@
       <c r="K784" t="s">
         <v>29</v>
       </c>
+      <c r="L784" t="s">
+        <v>3323</v>
+      </c>
       <c r="O784" t="s">
         <v>30</v>
       </c>
@@ -53498,6 +57416,9 @@
       <c r="K785" t="s">
         <v>29</v>
       </c>
+      <c r="L785" t="s">
+        <v>3324</v>
+      </c>
       <c r="O785" t="s">
         <v>30</v>
       </c>
@@ -53555,6 +57476,9 @@
       <c r="K786" t="s">
         <v>29</v>
       </c>
+      <c r="L786" t="s">
+        <v>3325</v>
+      </c>
       <c r="O786" t="s">
         <v>30</v>
       </c>
@@ -53612,6 +57536,9 @@
       <c r="K787" t="s">
         <v>29</v>
       </c>
+      <c r="L787" t="s">
+        <v>3326</v>
+      </c>
       <c r="O787" t="s">
         <v>30</v>
       </c>
@@ -53669,6 +57596,9 @@
       <c r="K788" t="s">
         <v>29</v>
       </c>
+      <c r="L788" t="s">
+        <v>3327</v>
+      </c>
       <c r="O788" t="s">
         <v>30</v>
       </c>
@@ -53726,6 +57656,9 @@
       <c r="K789" t="s">
         <v>29</v>
       </c>
+      <c r="L789" t="s">
+        <v>3328</v>
+      </c>
       <c r="O789" t="s">
         <v>30</v>
       </c>
@@ -53782,6 +57715,9 @@
       </c>
       <c r="K790" t="s">
         <v>29</v>
+      </c>
+      <c r="L790" t="s">
+        <v>3329</v>
       </c>
       <c r="O790" t="s">
         <v>30</v>
